--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
-  <si>
-    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="73">
+  <si>
+    <t xml:space="preserve">Beispiel:  Projektstrukturplan</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Shop</t>
@@ -36,136 +36,136 @@
     <t xml:space="preserve">Arbeitspaket</t>
   </si>
   <si>
+    <t xml:space="preserve">Datenbank erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte kategorisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte erfassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template auswählen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenstruktur einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahlungsdienste einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewertungssystem anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventuelle Korrekturen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlinestellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachfolger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufwand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank erstellen</t>
+    <t xml:space="preserve">1.1.1, 1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Produkte kategorisieren</t>
+    <t xml:space="preserve">1.1.2, 1.1.3</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Produkte erfassen</t>
+    <t xml:space="preserve">1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Produktfotos erstellen</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Produktfotos bearbeiten</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">1.2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Template auswählen</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Seitenstruktur einrichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenbank einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahlungsdienste einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bewertungssystem anpassen</t>
+    <t xml:space="preserve">1.2.4, 1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2, 1.1.4, 1.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbücher erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korrekturen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auftraggeber-Präsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventuelle Korrekturen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onlinestellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorgänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachfolger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufwand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapazität</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1, 1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2, 1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.4, 1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2, 1.1.4, 1.2.3</t>
   </si>
   <si>
     <t xml:space="preserve">Onlinehilfe erstellen</t>
@@ -970,8 +970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5477400" y="479520"/>
-          <a:ext cx="5527080" cy="0"/>
+          <a:off x="5476680" y="479520"/>
+          <a:ext cx="5527440" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1012,7 +1012,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5477040" y="488520"/>
+          <a:off x="5476320" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1053,7 +1053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476320" y="488520"/>
+          <a:off x="5475600" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1095,7 +1095,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8240400" y="324720"/>
+          <a:off x="8239680" y="324720"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1137,7 +1137,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8240400" y="487800"/>
+          <a:off x="8239680" y="487800"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1179,7 +1179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10993320" y="487800"/>
+          <a:off x="10992960" y="487800"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2228,9 +2228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
+      <xdr:colOff>170640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2239,16 +2239,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9712800" y="1655640"/>
-          <a:ext cx="129240" cy="155880"/>
+          <a:off x="9712080" y="1655640"/>
+          <a:ext cx="128880" cy="155520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 129240"/>
-            <a:gd name="textAreaRight" fmla="*/ 129600 w 129240"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
-            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 128880"/>
+            <a:gd name="textAreaRight" fmla="*/ 129600 w 128880"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 155520"/>
+            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155520"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -2300,9 +2300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
+      <xdr:colOff>130320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2311,16 +2311,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13210560" y="2788920"/>
-          <a:ext cx="129240" cy="155880"/>
+          <a:off x="13210200" y="2788920"/>
+          <a:ext cx="128880" cy="155520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 129240"/>
-            <a:gd name="textAreaRight" fmla="*/ 129600 w 129240"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
-            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 128880"/>
+            <a:gd name="textAreaRight" fmla="*/ 129600 w 128880"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 155520"/>
+            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155520"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>126720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2383,16 +2383,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15482520" y="3275280"/>
-          <a:ext cx="128520" cy="155880"/>
+          <a:off x="15481800" y="3275280"/>
+          <a:ext cx="128160" cy="155520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 128520"/>
-            <a:gd name="textAreaRight" fmla="*/ 128880 w 128520"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
-            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 128160"/>
+            <a:gd name="textAreaRight" fmla="*/ 128880 w 128160"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 155520"/>
+            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155520"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -2446,7 +2446,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2519,11 +2519,9 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2531,11 +2529,9 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2543,11 +2539,9 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2555,11 +2549,9 @@
       <c r="F28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="A29" s="12"/>
       <c r="B29" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2567,11 +2559,9 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2579,11 +2569,9 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2591,11 +2579,9 @@
       <c r="F31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="A32" s="12"/>
       <c r="B32" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2603,11 +2589,9 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A33" s="12"/>
       <c r="B33" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2615,11 +2599,9 @@
       <c r="F33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A34" s="12"/>
       <c r="B34" s="13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2627,11 +2609,9 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2639,11 +2619,9 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A36" s="12"/>
       <c r="B36" s="13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -2651,11 +2629,9 @@
       <c r="F36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="A37" s="12"/>
       <c r="B37" s="13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2663,11 +2639,9 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="A38" s="12"/>
       <c r="B38" s="13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -2675,11 +2649,9 @@
       <c r="F38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="A39" s="12"/>
       <c r="B39" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -2687,11 +2659,9 @@
       <c r="F39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="A40" s="12"/>
       <c r="B40" s="13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -2699,11 +2669,9 @@
       <c r="F40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -2776,42 +2744,42 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" s="27" t="n">
         <v>5</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I2" s="28" t="n">
         <v>1</v>
@@ -2920,24 +2888,24 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="32" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G3" s="33" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I3" s="34" t="n">
         <v>1</v>
@@ -2947,81 +2915,81 @@
         <v>1</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="35"/>
       <c r="Q3" s="35" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
       <c r="V3" s="35" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
       <c r="AF3" s="35" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="35"/>
       <c r="AH3" s="35"/>
       <c r="AK3" s="35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AL3" s="35"/>
       <c r="AM3" s="35"/>
       <c r="AP3" s="35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ3" s="35"/>
       <c r="AR3" s="35"/>
       <c r="AU3" s="35" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AV3" s="35"/>
       <c r="AW3" s="35"/>
       <c r="AZ3" s="35" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="BA3" s="35"/>
       <c r="BB3" s="35"/>
       <c r="BE3" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BF3" s="35"/>
       <c r="BG3" s="35"/>
       <c r="BJ3" s="35" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="BK3" s="35"/>
       <c r="BL3" s="35"/>
       <c r="BO3" s="35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="BP3" s="35"/>
       <c r="BQ3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="32" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G4" s="33" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I4" s="34" t="n">
         <v>1</v>
@@ -3160,24 +3128,24 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="32" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G5" s="33" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I5" s="34" t="n">
         <v>1</v>
@@ -3287,24 +3255,24 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="38" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G6" s="39" t="n">
         <v>7</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I6" s="34" t="n">
         <f aca="false">(100%+(100%-$I$12))/H6</f>
@@ -3317,24 +3285,24 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="32" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G7" s="33" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I7" s="34" t="n">
         <v>1</v>
@@ -3346,24 +3314,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="38" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="39" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I8" s="34" t="n">
         <v>1</v>
@@ -3392,24 +3360,24 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G9" s="39" t="n">
         <v>2</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I9" s="34" t="n">
         <f aca="false">(100%+(100%-$I$12))/H9</f>
@@ -3420,36 +3388,36 @@
         <v>1</v>
       </c>
       <c r="V9" s="35" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="AA9" s="35" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="38" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G10" s="39" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I10" s="34" t="n">
         <f aca="false">(100%+(100%-$I$12))/H10</f>
@@ -3486,24 +3454,24 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G11" s="39" t="n">
         <v>2</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I11" s="34" t="n">
         <f aca="false">(100%+(100%-$I$12))/H11</f>
@@ -3534,7 +3502,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>48</v>
@@ -3542,16 +3510,16 @@
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="38" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G12" s="39" t="n">
         <v>10</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I12" s="34" t="n">
         <v>0.45</v>
@@ -3563,24 +3531,24 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G13" s="39" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I13" s="34" t="n">
         <v>1</v>
@@ -3592,24 +3560,24 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G14" s="39" t="n">
         <v>3</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I14" s="34" t="n">
         <f aca="false">(100%+(100%-$I$12))/H14</f>
@@ -3649,24 +3617,24 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="38" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G15" s="39" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I15" s="34" t="n">
         <v>1</v>
@@ -3676,41 +3644,41 @@
         <v>1</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
       <c r="V15" s="35" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="AA15" s="35" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G16" s="39" t="n">
         <v>5</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I16" s="34" t="n">
         <f aca="false">(100%+(100%-$I$12))/H16</f>
@@ -3759,10 +3727,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -3774,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I17" s="44" t="n">
         <v>1</v>
@@ -3843,7 +3811,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>53</v>
@@ -4057,13 +4025,13 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H1" s="56"/>
       <c r="I1" s="57" t="n">
@@ -4240,16 +4208,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" s="63" t="n">
         <f aca="false">Netzplan!J2</f>
@@ -4331,18 +4299,18 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="32" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G3" s="63" t="n">
         <f aca="false">Netzplan!J3</f>
@@ -4416,18 +4384,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="32" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G4" s="63" t="n">
         <f aca="false">Netzplan!J4</f>
@@ -4507,18 +4475,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="32" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G5" s="63" t="n">
         <f aca="false">Netzplan!J5</f>
@@ -4596,18 +4564,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="38" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G6" s="63" t="n">
         <f aca="false">Netzplan!J6</f>
@@ -4691,18 +4659,18 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="32" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G7" s="63" t="n">
         <f aca="false">Netzplan!J7</f>
@@ -4776,18 +4744,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="38" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="63" t="n">
         <f aca="false">Netzplan!J8</f>
@@ -4934,18 +4902,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G10" s="63" t="n">
         <f aca="false">Netzplan!J9</f>
@@ -5021,18 +4989,18 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="38" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G11" s="63" t="n">
         <f aca="false">Netzplan!J10</f>
@@ -5107,18 +5075,18 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G12" s="63" t="n">
         <f aca="false">Netzplan!J11</f>
@@ -5193,7 +5161,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>48</v>
@@ -5201,10 +5169,10 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="38" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G13" s="63" t="n">
         <f aca="false">Netzplan!J12</f>
@@ -5320,18 +5288,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G14" s="63" t="n">
         <f aca="false">Netzplan!J13</f>
@@ -5409,18 +5377,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G15" s="63" t="n">
         <f aca="false">Netzplan!J14</f>
@@ -5567,18 +5535,18 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="38" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G17" s="63" t="n">
         <f aca="false">Netzplan!J15</f>
@@ -5650,18 +5618,18 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G18" s="63" t="n">
         <f aca="false">Netzplan!J16</f>
@@ -5810,10 +5778,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -3445,8 +3445,10 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PSP zeitlich" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
-  <si>
-    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="98">
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Online-Shop</t>
@@ -162,6 +163,33 @@
     <t xml:space="preserve">1.2.9</t>
   </si>
   <si>
+    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vorgänger</t>
   </si>
   <si>
@@ -222,6 +250,9 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
     <t xml:space="preserve">GP</t>
   </si>
   <si>
@@ -238,9 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spätest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">Bei mehreren:</t>
@@ -371,7 +399,7 @@
     <numFmt numFmtId="168" formatCode="0\ %"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -437,14 +465,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFAFAFA"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -468,7 +488,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,7 +498,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -544,19 +564,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5722"/>
-        <bgColor rgb="FFF57F17"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB71C1C"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF57F17"/>
-        <bgColor rgb="FFFF5722"/>
       </patternFill>
     </fill>
   </fills>
@@ -652,7 +666,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,6 +744,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,10 +875,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -950,7 +976,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9CCC65"/>
       <rgbColor rgb="FFFFBF00"/>
-      <rgbColor rgb="FFF57F17"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF5722"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
@@ -2894,8 +2920,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3439,12 +3465,535 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="E12" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -3452,37 +4001,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="24" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="21" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="25" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>51</v>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3545,59 +4094,59 @@
       <c r="BQ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="30" t="n">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="32" t="n">
+      <c r="H2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="37" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="34" t="n">
+      <c r="L2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36" t="n">
+      <c r="M2" s="39"/>
+      <c r="N2" s="40" t="n">
         <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="34" t="n">
+      <c r="Q2" s="38" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36" t="n">
+      <c r="R2" s="39"/>
+      <c r="S2" s="40" t="n">
         <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="34" t="n">
+      <c r="V2" s="38" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="36" t="n">
+      <c r="W2" s="39"/>
+      <c r="X2" s="40" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
@@ -3608,141 +4157,141 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="34" t="n">
+      <c r="AF2" s="38" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>14</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36" t="n">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40" t="n">
         <f aca="false">AF2+AF4</f>
         <v>15</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="34" t="n">
+      <c r="AK2" s="38" t="n">
         <f aca="false">AH2</f>
         <v>15</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36" t="n">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40" t="n">
         <f aca="false">AK2+AK4</f>
         <v>16</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="34" t="n">
+      <c r="AP2" s="38" t="n">
         <f aca="false">AM2</f>
         <v>16</v>
       </c>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="36" t="n">
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="40" t="n">
         <f aca="false">AP2+AP4</f>
         <v>17</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="34" t="n">
+      <c r="AU2" s="38" t="n">
         <f aca="false">AR2</f>
         <v>17</v>
       </c>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="36" t="n">
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="40" t="n">
         <f aca="false">AU2+AU4</f>
         <v>19</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
-      <c r="AZ2" s="34" t="n">
+      <c r="AZ2" s="38" t="n">
         <f aca="false">AW2</f>
         <v>19</v>
       </c>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="36" t="n">
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="40" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>21</v>
       </c>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="34" t="n">
+      <c r="BE2" s="38" t="n">
         <f aca="false">BB2</f>
         <v>21</v>
       </c>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="36" t="n">
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="40" t="n">
         <f aca="false">BE2+BE4</f>
         <v>22</v>
       </c>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
-      <c r="BJ2" s="34" t="n">
+      <c r="BJ2" s="38" t="n">
         <f aca="false">BG2</f>
         <v>22</v>
       </c>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="36" t="n">
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="40" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>25</v>
       </c>
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
-      <c r="BO2" s="34" t="n">
+      <c r="BO2" s="38" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>29</v>
       </c>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="36" t="n">
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="40" t="n">
         <f aca="false">BO2+BO4</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="31" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="39" t="n">
+      <c r="F3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="32" t="n">
+      <c r="H3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="40" t="n">
+      <c r="J3" s="44" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -3750,127 +4299,127 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="41" t="s">
+      <c r="AK3" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="41" t="s">
+      <c r="AP3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="41" t="s">
+      <c r="AU3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="41" t="s">
+      <c r="AZ3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="41" t="s">
+      <c r="BE3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
-      <c r="BJ3" s="41" t="s">
+      <c r="BJ3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
-      <c r="BO3" s="41" t="s">
+      <c r="BO3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="39" t="n">
+      <c r="G4" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="32" t="n">
+      <c r="H4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="40" t="n">
+      <c r="J4" s="44" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="42" t="n">
+      <c r="L4" s="46" t="n">
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="43" t="n">
+      <c r="M4" s="47" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="44" t="n">
+      <c r="N4" s="48" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="42" t="n">
+      <c r="Q4" s="46" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="43" t="n">
+      <c r="R4" s="47" t="n">
         <f aca="false">S5-S2</f>
         <v>4</v>
       </c>
-      <c r="S4" s="44" t="n">
+      <c r="S4" s="48" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="42" t="n">
+      <c r="V4" s="46" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="43" t="n">
+      <c r="W4" s="47" t="n">
         <f aca="false">X5-X2</f>
         <v>8</v>
       </c>
-      <c r="X4" s="44" t="n">
+      <c r="X4" s="48" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
@@ -3881,171 +4430,171 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="42" t="n">
+      <c r="AF4" s="46" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="43" t="n">
+      <c r="AG4" s="47" t="n">
         <f aca="false">AH5-AH2</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="44" t="n">
+      <c r="AH4" s="48" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="42" t="n">
+      <c r="AK4" s="46" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="43" t="n">
+      <c r="AL4" s="47" t="n">
         <f aca="false">AM5-AM2</f>
         <v>4</v>
       </c>
-      <c r="AM4" s="44" t="n">
+      <c r="AM4" s="48" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="42" t="n">
+      <c r="AP4" s="46" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="43" t="n">
+      <c r="AQ4" s="47" t="n">
         <f aca="false">AR5-AR2</f>
         <v>4</v>
       </c>
-      <c r="AR4" s="44" t="n">
+      <c r="AR4" s="48" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="42" t="n">
+      <c r="AU4" s="46" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="43" t="n">
+      <c r="AV4" s="47" t="n">
         <f aca="false">AW5-AW2</f>
         <v>4</v>
       </c>
-      <c r="AW4" s="44" t="n">
+      <c r="AW4" s="48" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="42" t="n">
+      <c r="AZ4" s="46" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="43" t="n">
+      <c r="BA4" s="47" t="n">
         <f aca="false">BB5-BB2</f>
         <v>4</v>
       </c>
-      <c r="BB4" s="44" t="n">
+      <c r="BB4" s="48" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="42" t="n">
+      <c r="BE4" s="46" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="43" t="n">
+      <c r="BF4" s="47" t="n">
         <f aca="false">BG5-BG2</f>
         <v>4</v>
       </c>
-      <c r="BG4" s="44" t="n">
+      <c r="BG4" s="48" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
-      <c r="BJ4" s="42" t="n">
+      <c r="BJ4" s="46" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="43" t="n">
+      <c r="BK4" s="47" t="n">
         <f aca="false">BL5-BL2</f>
         <v>4</v>
       </c>
-      <c r="BL4" s="44" t="n">
+      <c r="BL4" s="48" t="n">
         <f aca="false">BO2-BL2</f>
         <v>4</v>
       </c>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="42" t="n">
+      <c r="BO4" s="46" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="43" t="n">
+      <c r="BP4" s="47" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="44"/>
+      <c r="BQ4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="39" t="n">
+      <c r="G5" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="32" t="n">
+      <c r="H5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="40" t="n">
+      <c r="J5" s="44" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="45" t="n">
+      <c r="L5" s="49" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="46" t="n">
+      <c r="M5" s="39"/>
+      <c r="N5" s="50" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="45" t="n">
+      <c r="Q5" s="49" t="n">
         <f aca="false">S5-Q4</f>
         <v>9</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="46" t="n">
+      <c r="R5" s="39"/>
+      <c r="S5" s="50" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>10</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="45" t="n">
+      <c r="V5" s="49" t="n">
         <f aca="false">X5-V4</f>
         <v>14</v>
       </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="46" t="n">
+      <c r="W5" s="39"/>
+      <c r="X5" s="50" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -4056,119 +4605,119 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="45" t="n">
+      <c r="AF5" s="49" t="n">
         <f aca="false">AH5-AF4</f>
         <v>18</v>
       </c>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="46" t="n">
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="50" t="n">
         <f aca="false">AK5</f>
         <v>19</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="45" t="n">
+      <c r="AK5" s="49" t="n">
         <f aca="false">AM5-AK4</f>
         <v>19</v>
       </c>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="46" t="n">
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="50" t="n">
         <f aca="false">AP5</f>
         <v>20</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="45" t="n">
+      <c r="AP5" s="49" t="n">
         <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="46" t="n">
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="50" t="n">
         <f aca="false">AU5</f>
         <v>21</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="45" t="n">
+      <c r="AU5" s="49" t="n">
         <f aca="false">AW5-AU4</f>
         <v>21</v>
       </c>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="46" t="n">
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="50" t="n">
         <f aca="false">AZ5</f>
         <v>23</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="45" t="n">
+      <c r="AZ5" s="49" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>23</v>
       </c>
-      <c r="BA5" s="35"/>
-      <c r="BB5" s="46" t="n">
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="50" t="n">
         <f aca="false">BE5</f>
         <v>25</v>
       </c>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-      <c r="BE5" s="45" t="n">
+      <c r="BE5" s="49" t="n">
         <f aca="false">BG5-BE4</f>
         <v>25</v>
       </c>
-      <c r="BF5" s="35"/>
-      <c r="BG5" s="46" t="n">
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="50" t="n">
         <f aca="false">BJ5</f>
         <v>26</v>
       </c>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="45" t="n">
+      <c r="BJ5" s="49" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>26</v>
       </c>
-      <c r="BK5" s="35"/>
-      <c r="BL5" s="46" t="n">
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="50" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="45" t="n">
+      <c r="BO5" s="49" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>29</v>
       </c>
-      <c r="BP5" s="35"/>
-      <c r="BQ5" s="46" t="n">
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="50" t="n">
         <f aca="false">BQ2</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="47" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="38" t="n">
+      <c r="G6" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="32" t="n">
+      <c r="H6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="40" t="n">
+      <c r="J6" s="44" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
@@ -4233,30 +4782,30 @@
       <c r="BQ6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="39" t="n">
+      <c r="G7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="32" t="n">
+      <c r="H7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="40" t="n">
+      <c r="J7" s="44" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -4321,30 +4870,30 @@
       <c r="BQ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="47" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="38" t="n">
+      <c r="F8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="32" t="n">
+      <c r="H8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="40" t="n">
+      <c r="J8" s="44" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
@@ -4359,23 +4908,23 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="34" t="n">
+      <c r="V8" s="38" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="35"/>
-      <c r="X8" s="36" t="n">
+      <c r="W8" s="39"/>
+      <c r="X8" s="40" t="n">
         <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="34" t="n">
+      <c r="AA8" s="38" t="n">
         <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="36" t="n">
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40" t="n">
         <f aca="false">AA8+AA10</f>
         <v>14</v>
       </c>
@@ -4421,31 +4970,31 @@
       <c r="BQ8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="47" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="38" t="n">
+      <c r="G9" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="32" t="n">
+      <c r="H9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J9" s="40" t="n">
+      <c r="J9" s="44" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
@@ -4460,18 +5009,18 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="41" t="s">
+      <c r="V9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="41" t="s">
+      <c r="AA9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -4514,31 +5063,31 @@
       <c r="BQ9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="38" t="n">
+      <c r="G10" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="32" t="n">
+      <c r="H10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J10" s="40" t="n">
+      <c r="J10" s="44" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
@@ -4553,29 +5102,29 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="42" t="n">
+      <c r="V10" s="46" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="48" t="n">
+      <c r="W10" s="47" t="n">
         <f aca="false">X11-X8</f>
         <v>4</v>
       </c>
-      <c r="X10" s="44" t="n">
+      <c r="X10" s="48" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="42" t="n">
+      <c r="AA10" s="46" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="43" t="n">
+      <c r="AB10" s="47" t="n">
         <f aca="false">AC11-AC8</f>
         <v>4</v>
       </c>
-      <c r="AC10" s="44" t="n">
+      <c r="AC10" s="48" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
@@ -4621,31 +5170,31 @@
       <c r="BQ10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="47" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="38" t="n">
+      <c r="G11" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="32" t="n">
+      <c r="H11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J11" s="40" t="n">
+      <c r="J11" s="44" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
@@ -4660,23 +5209,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="45" t="n">
+      <c r="V11" s="49" t="n">
         <f aca="false">X11-V10</f>
         <v>10</v>
       </c>
-      <c r="W11" s="35"/>
-      <c r="X11" s="46" t="n">
+      <c r="W11" s="39"/>
+      <c r="X11" s="50" t="n">
         <f aca="false">AA11</f>
         <v>13</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="45" t="n">
+      <c r="AA11" s="49" t="n">
         <f aca="false">AC11-AA10</f>
         <v>13</v>
       </c>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="46" t="n">
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="50" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -4722,30 +5271,30 @@
       <c r="BQ11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="47" t="s">
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="42" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="32" t="n">
+      <c r="H12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="40" t="n">
+      <c r="J12" s="44" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
@@ -4810,31 +5359,31 @@
       <c r="BQ12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="38" t="n">
+      <c r="G13" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="32" t="n">
+      <c r="H13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="40" t="n">
+      <c r="J13" s="44" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
@@ -4899,31 +5448,31 @@
       <c r="BQ13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="47" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="38" t="n">
+      <c r="G14" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="32" t="n">
+      <c r="H14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J14" s="40" t="n">
+      <c r="J14" s="44" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
@@ -4933,34 +5482,34 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="34" t="n">
+      <c r="Q14" s="38" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36" t="n">
+      <c r="R14" s="39"/>
+      <c r="S14" s="40" t="n">
         <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="34" t="n">
+      <c r="V14" s="38" t="n">
         <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36" t="n">
+      <c r="W14" s="39"/>
+      <c r="X14" s="40" t="n">
         <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="34" t="n">
+      <c r="AA14" s="38" t="n">
         <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="36" t="n">
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="40" t="n">
         <f aca="false">AA14+AA16</f>
         <v>29</v>
       </c>
@@ -5006,31 +5555,31 @@
       <c r="BQ14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="47" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="38" t="n">
+      <c r="G15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="32" t="n">
+      <c r="H15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J15" s="40" t="n">
+      <c r="J15" s="44" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
@@ -5040,25 +5589,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="41" t="s">
+      <c r="Q15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="41" t="s">
+      <c r="V15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="41" t="s">
+      <c r="AA15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -5101,31 +5650,31 @@
       <c r="BQ15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="38" t="n">
+      <c r="G16" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="32" t="n">
+      <c r="H16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J16" s="40" t="n">
+      <c r="J16" s="44" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
@@ -5135,43 +5684,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="42" t="n">
+      <c r="Q16" s="46" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="43" t="n">
+      <c r="R16" s="47" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="44" t="n">
+      <c r="S16" s="48" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="42" t="n">
+      <c r="V16" s="46" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="43" t="n">
+      <c r="W16" s="47" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="44" t="n">
+      <c r="X16" s="48" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="42" t="n">
+      <c r="AA16" s="46" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="43" t="n">
+      <c r="AB16" s="47" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="44" t="n">
+      <c r="AC16" s="48" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
@@ -5217,28 +5766,28 @@
       <c r="BQ16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53" t="n">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="54" t="n">
+      <c r="H17" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="55" t="n">
+      <c r="J17" s="58" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -5248,34 +5797,34 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="45" t="n">
+      <c r="Q17" s="49" t="n">
         <f aca="false">S17-Q16</f>
         <v>5</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="46" t="n">
+      <c r="R17" s="39"/>
+      <c r="S17" s="50" t="n">
         <f aca="false">V17</f>
         <v>6</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="45" t="n">
+      <c r="V17" s="49" t="n">
         <f aca="false">X17-V16</f>
         <v>6</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="46" t="n">
+      <c r="W17" s="39"/>
+      <c r="X17" s="50" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>9</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="45" t="n">
+      <c r="AA17" s="49" t="n">
         <f aca="false">AC17-AA16</f>
         <v>9</v>
       </c>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="46" t="n">
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="50" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
@@ -5325,9 +5874,9 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -5390,11 +5939,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3"/>
       <c r="K19" s="3"/>
@@ -5458,15 +6007,15 @@
       <c r="BQ19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36" t="s">
-        <v>63</v>
+      <c r="A20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -5529,11 +6078,11 @@
       <c r="BQ20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -5596,14 +6145,17 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>67</v>
+      <c r="A22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -5666,15 +6218,15 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="46" t="s">
-        <v>70</v>
+      <c r="A23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -5802,16 +6354,16 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>51</v>
+      <c r="A25" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="F25" s="56" t="s">
-        <v>73</v>
+      <c r="F25" s="59" t="s">
+        <v>82</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -5874,23 +6426,23 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>78</v>
+      <c r="A26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -5953,94 +6505,94 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="A27" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="B29" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>86</v>
+      <c r="E30" s="47" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>83</v>
+      <c r="A31" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6081,7 +6633,7 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="A21:C21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B22 W10 M4 R4 R16 W4 W16 AB10 AB16 AG4 AL4 AQ4 AV4 BA4 BF4 BK4 BP4 A30:E30">
+  <conditionalFormatting sqref="B22 M4 R4 R16 W4 W16 AB10 AB16 AG4 AL4 AQ4 AV4 BA4 BF4 BK4 BP4 A30:E30 W10">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PSP zeitlich" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
-  <si>
-    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="98">
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Online-Shop</t>
@@ -160,6 +161,33 @@
   </si>
   <si>
     <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.6</t>
   </si>
   <si>
     <t xml:space="preserve">Vorgänger</t>
@@ -371,7 +399,7 @@
     <numFmt numFmtId="168" formatCode="0\ %"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -437,14 +465,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFAFAFA"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -468,7 +488,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,7 +498,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -544,19 +564,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5722"/>
-        <bgColor rgb="FFF57F17"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB71C1C"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF57F17"/>
-        <bgColor rgb="FFFF5722"/>
       </patternFill>
     </fill>
   </fills>
@@ -652,7 +666,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,6 +744,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,10 +875,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,10 +900,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,7 +976,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9CCC65"/>
       <rgbColor rgb="FFFFBF00"/>
-      <rgbColor rgb="FFF57F17"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF5722"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
@@ -993,7 +1015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8223840" y="325080"/>
+          <a:off x="8223120" y="325080"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1034,7 +1056,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5461560" y="479520"/>
+          <a:off x="5460840" y="479520"/>
           <a:ext cx="5529600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1075,7 +1097,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5482080" y="488520"/>
+          <a:off x="5481360" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1116,7 +1138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5494680" y="488520"/>
+          <a:off x="5493960" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1157,7 +1179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="488520"/>
+          <a:off x="8250480" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1198,7 +1220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11007360" y="488520"/>
+          <a:off x="11006640" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1239,7 +1261,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5494680" y="1122120"/>
+          <a:off x="5493960" y="1122120"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1280,7 +1302,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5494680" y="1609920"/>
+          <a:off x="5493960" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1321,7 +1343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5494680" y="2098080"/>
+          <a:off x="5493960" y="2098080"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1362,7 +1384,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5494680" y="2584800"/>
+          <a:off x="5493960" y="2584800"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1403,7 +1425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="1122120"/>
+          <a:off x="8250480" y="1122120"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1444,7 +1466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="1609920"/>
+          <a:off x="8250480" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1485,7 +1507,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="2098080"/>
+          <a:off x="8250480" y="2098080"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1526,7 +1548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="2584800"/>
+          <a:off x="8250480" y="2584800"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1567,7 +1589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="3072600"/>
+          <a:off x="8250480" y="3072600"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1608,7 +1630,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="3560760"/>
+          <a:off x="8250480" y="3560760"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1649,7 +1671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="4047480"/>
+          <a:off x="8250480" y="4047480"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1690,7 +1712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="4535280"/>
+          <a:off x="8250480" y="4535280"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1731,7 +1753,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251200" y="5023440"/>
+          <a:off x="8250480" y="5023440"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1772,7 +1794,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11007720" y="2097720"/>
+          <a:off x="11007000" y="2097720"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1813,7 +1835,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11007720" y="1609920"/>
+          <a:off x="11007000" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1854,7 +1876,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11007720" y="1121760"/>
+          <a:off x="11007000" y="1121760"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2898,7 +2920,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3443,12 +3465,535 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="E12" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -3456,37 +4001,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="24" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="21" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="25" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>51</v>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3549,59 +4094,59 @@
       <c r="BQ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="30" t="n">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="32" t="n">
+      <c r="H2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="37" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="34" t="n">
+      <c r="L2" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36" t="n">
+      <c r="M2" s="39"/>
+      <c r="N2" s="40" t="n">
         <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="34" t="n">
+      <c r="Q2" s="38" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36" t="n">
+      <c r="R2" s="39"/>
+      <c r="S2" s="40" t="n">
         <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="34" t="n">
+      <c r="V2" s="38" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="36" t="n">
+      <c r="W2" s="39"/>
+      <c r="X2" s="40" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
@@ -3612,141 +4157,141 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="34" t="n">
+      <c r="AF2" s="38" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>14</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36" t="n">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40" t="n">
         <f aca="false">AF2+AF4</f>
         <v>15</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="34" t="n">
+      <c r="AK2" s="38" t="n">
         <f aca="false">AH2</f>
         <v>15</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36" t="n">
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="40" t="n">
         <f aca="false">AK2+AK4</f>
         <v>16</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="34" t="n">
+      <c r="AP2" s="38" t="n">
         <f aca="false">AM2</f>
         <v>16</v>
       </c>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="36" t="n">
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="40" t="n">
         <f aca="false">AP2+AP4</f>
         <v>17</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="34" t="n">
+      <c r="AU2" s="38" t="n">
         <f aca="false">AR2</f>
         <v>17</v>
       </c>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="36" t="n">
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="40" t="n">
         <f aca="false">AU2+AU4</f>
         <v>19</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
-      <c r="AZ2" s="34" t="n">
+      <c r="AZ2" s="38" t="n">
         <f aca="false">AW2</f>
         <v>19</v>
       </c>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="36" t="n">
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="40" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>21</v>
       </c>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="34" t="n">
+      <c r="BE2" s="38" t="n">
         <f aca="false">BB2</f>
         <v>21</v>
       </c>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="36" t="n">
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="40" t="n">
         <f aca="false">BE2+BE4</f>
         <v>22</v>
       </c>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
-      <c r="BJ2" s="34" t="n">
+      <c r="BJ2" s="38" t="n">
         <f aca="false">BG2</f>
         <v>22</v>
       </c>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="36" t="n">
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="40" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>25</v>
       </c>
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
-      <c r="BO2" s="34" t="n">
+      <c r="BO2" s="38" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>29</v>
       </c>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="36" t="n">
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="40" t="n">
         <f aca="false">BO2+BO4</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="31" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="39" t="n">
+      <c r="F3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="32" t="n">
+      <c r="H3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="40" t="n">
+      <c r="J3" s="44" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -3754,127 +4299,127 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="41" t="s">
+      <c r="AK3" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="41" t="s">
+      <c r="AP3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="41" t="s">
+      <c r="AU3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="41" t="s">
+      <c r="AZ3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="41" t="s">
+      <c r="BE3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
-      <c r="BJ3" s="41" t="s">
+      <c r="BJ3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
-      <c r="BO3" s="41" t="s">
+      <c r="BO3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="39" t="n">
+      <c r="G4" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="32" t="n">
+      <c r="H4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="40" t="n">
+      <c r="J4" s="44" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="42" t="n">
+      <c r="L4" s="46" t="n">
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="43" t="n">
+      <c r="M4" s="47" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="44" t="n">
+      <c r="N4" s="48" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="42" t="n">
+      <c r="Q4" s="46" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="43" t="n">
+      <c r="R4" s="47" t="n">
         <f aca="false">S5-S2</f>
         <v>4</v>
       </c>
-      <c r="S4" s="44" t="n">
+      <c r="S4" s="48" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="42" t="n">
+      <c r="V4" s="46" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="43" t="n">
+      <c r="W4" s="47" t="n">
         <f aca="false">X5-X2</f>
         <v>8</v>
       </c>
-      <c r="X4" s="44" t="n">
+      <c r="X4" s="48" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
@@ -3885,171 +4430,171 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="42" t="n">
+      <c r="AF4" s="46" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="43" t="n">
+      <c r="AG4" s="47" t="n">
         <f aca="false">AH5-AH2</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="44" t="n">
+      <c r="AH4" s="48" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="42" t="n">
+      <c r="AK4" s="46" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="43" t="n">
+      <c r="AL4" s="47" t="n">
         <f aca="false">AM5-AM2</f>
         <v>4</v>
       </c>
-      <c r="AM4" s="44" t="n">
+      <c r="AM4" s="48" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="42" t="n">
+      <c r="AP4" s="46" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="43" t="n">
+      <c r="AQ4" s="47" t="n">
         <f aca="false">AR5-AR2</f>
         <v>4</v>
       </c>
-      <c r="AR4" s="44" t="n">
+      <c r="AR4" s="48" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="42" t="n">
+      <c r="AU4" s="46" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="43" t="n">
+      <c r="AV4" s="47" t="n">
         <f aca="false">AW5-AW2</f>
         <v>4</v>
       </c>
-      <c r="AW4" s="44" t="n">
+      <c r="AW4" s="48" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="42" t="n">
+      <c r="AZ4" s="46" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="43" t="n">
+      <c r="BA4" s="47" t="n">
         <f aca="false">BB5-BB2</f>
         <v>4</v>
       </c>
-      <c r="BB4" s="44" t="n">
+      <c r="BB4" s="48" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="42" t="n">
+      <c r="BE4" s="46" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="43" t="n">
+      <c r="BF4" s="47" t="n">
         <f aca="false">BG5-BG2</f>
         <v>4</v>
       </c>
-      <c r="BG4" s="44" t="n">
+      <c r="BG4" s="48" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
-      <c r="BJ4" s="42" t="n">
+      <c r="BJ4" s="46" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="43" t="n">
+      <c r="BK4" s="47" t="n">
         <f aca="false">BL5-BL2</f>
         <v>4</v>
       </c>
-      <c r="BL4" s="44" t="n">
+      <c r="BL4" s="48" t="n">
         <f aca="false">BO2-BL2</f>
         <v>4</v>
       </c>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="42" t="n">
+      <c r="BO4" s="46" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="43" t="n">
+      <c r="BP4" s="47" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="44"/>
+      <c r="BQ4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="39" t="n">
+      <c r="G5" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="32" t="n">
+      <c r="H5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="40" t="n">
+      <c r="J5" s="44" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="45" t="n">
+      <c r="L5" s="49" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="46" t="n">
+      <c r="M5" s="39"/>
+      <c r="N5" s="50" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="45" t="n">
+      <c r="Q5" s="49" t="n">
         <f aca="false">S5-Q4</f>
         <v>9</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="46" t="n">
+      <c r="R5" s="39"/>
+      <c r="S5" s="50" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>10</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="45" t="n">
+      <c r="V5" s="49" t="n">
         <f aca="false">X5-V4</f>
         <v>14</v>
       </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="46" t="n">
+      <c r="W5" s="39"/>
+      <c r="X5" s="50" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -4060,119 +4605,119 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="45" t="n">
+      <c r="AF5" s="49" t="n">
         <f aca="false">AH5-AF4</f>
         <v>18</v>
       </c>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="46" t="n">
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="50" t="n">
         <f aca="false">AK5</f>
         <v>19</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="45" t="n">
+      <c r="AK5" s="49" t="n">
         <f aca="false">AM5-AK4</f>
         <v>19</v>
       </c>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="46" t="n">
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="50" t="n">
         <f aca="false">AP5</f>
         <v>20</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="45" t="n">
+      <c r="AP5" s="49" t="n">
         <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="46" t="n">
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="50" t="n">
         <f aca="false">AU5</f>
         <v>21</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="45" t="n">
+      <c r="AU5" s="49" t="n">
         <f aca="false">AW5-AU4</f>
         <v>21</v>
       </c>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="46" t="n">
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="50" t="n">
         <f aca="false">AZ5</f>
         <v>23</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="45" t="n">
+      <c r="AZ5" s="49" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>23</v>
       </c>
-      <c r="BA5" s="35"/>
-      <c r="BB5" s="46" t="n">
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="50" t="n">
         <f aca="false">BE5</f>
         <v>25</v>
       </c>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-      <c r="BE5" s="45" t="n">
+      <c r="BE5" s="49" t="n">
         <f aca="false">BG5-BE4</f>
         <v>25</v>
       </c>
-      <c r="BF5" s="35"/>
-      <c r="BG5" s="46" t="n">
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="50" t="n">
         <f aca="false">BJ5</f>
         <v>26</v>
       </c>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="45" t="n">
+      <c r="BJ5" s="49" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>26</v>
       </c>
-      <c r="BK5" s="35"/>
-      <c r="BL5" s="46" t="n">
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="50" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="45" t="n">
+      <c r="BO5" s="49" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>29</v>
       </c>
-      <c r="BP5" s="35"/>
-      <c r="BQ5" s="46" t="n">
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="50" t="n">
         <f aca="false">BQ2</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="47" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="38" t="n">
+      <c r="G6" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="32" t="n">
+      <c r="H6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="40" t="n">
+      <c r="J6" s="44" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
@@ -4237,30 +4782,30 @@
       <c r="BQ6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="39" t="n">
+      <c r="G7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="32" t="n">
+      <c r="H7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="40" t="n">
+      <c r="J7" s="44" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -4325,30 +4870,30 @@
       <c r="BQ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="47" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="38" t="n">
+      <c r="F8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="32" t="n">
+      <c r="H8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="40" t="n">
+      <c r="J8" s="44" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
@@ -4363,23 +4908,23 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="34" t="n">
+      <c r="V8" s="38" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="35"/>
-      <c r="X8" s="36" t="n">
+      <c r="W8" s="39"/>
+      <c r="X8" s="40" t="n">
         <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="34" t="n">
+      <c r="AA8" s="38" t="n">
         <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="36" t="n">
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="40" t="n">
         <f aca="false">AA8+AA10</f>
         <v>14</v>
       </c>
@@ -4425,31 +4970,31 @@
       <c r="BQ8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="47" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="38" t="n">
+      <c r="G9" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="32" t="n">
+      <c r="H9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J9" s="40" t="n">
+      <c r="J9" s="44" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
@@ -4464,18 +5009,18 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="41" t="s">
+      <c r="V9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="41" t="s">
+      <c r="AA9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -4518,31 +5063,31 @@
       <c r="BQ9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="38" t="n">
+      <c r="G10" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="32" t="n">
+      <c r="H10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J10" s="40" t="n">
+      <c r="J10" s="44" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
@@ -4557,29 +5102,29 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="42" t="n">
+      <c r="V10" s="46" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="48" t="n">
+      <c r="W10" s="47" t="n">
         <f aca="false">X11-X8</f>
         <v>4</v>
       </c>
-      <c r="X10" s="44" t="n">
+      <c r="X10" s="48" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="42" t="n">
+      <c r="AA10" s="46" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="43" t="n">
+      <c r="AB10" s="47" t="n">
         <f aca="false">AC11-AC8</f>
         <v>4</v>
       </c>
-      <c r="AC10" s="44" t="n">
+      <c r="AC10" s="48" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
@@ -4625,31 +5170,31 @@
       <c r="BQ10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="47" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="38" t="n">
+      <c r="G11" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="32" t="n">
+      <c r="H11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J11" s="40" t="n">
+      <c r="J11" s="44" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
@@ -4664,23 +5209,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="45" t="n">
+      <c r="V11" s="49" t="n">
         <f aca="false">X11-V10</f>
         <v>10</v>
       </c>
-      <c r="W11" s="35"/>
-      <c r="X11" s="46" t="n">
+      <c r="W11" s="39"/>
+      <c r="X11" s="50" t="n">
         <f aca="false">AA11</f>
         <v>13</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="45" t="n">
+      <c r="AA11" s="49" t="n">
         <f aca="false">AC11-AA10</f>
         <v>13</v>
       </c>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="46" t="n">
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="50" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -4726,30 +5271,30 @@
       <c r="BQ11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="47" t="s">
+      <c r="B12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="42" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="32" t="n">
+      <c r="H12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="40" t="n">
+      <c r="J12" s="44" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
@@ -4814,31 +5359,31 @@
       <c r="BQ12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="38" t="n">
+      <c r="G13" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="32" t="n">
+      <c r="H13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="40" t="n">
+      <c r="J13" s="44" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
@@ -4903,31 +5448,31 @@
       <c r="BQ13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="47" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="38" t="n">
+      <c r="G14" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="32" t="n">
+      <c r="H14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J14" s="40" t="n">
+      <c r="J14" s="44" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
@@ -4937,34 +5482,34 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="34" t="n">
+      <c r="Q14" s="38" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36" t="n">
+      <c r="R14" s="39"/>
+      <c r="S14" s="40" t="n">
         <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="34" t="n">
+      <c r="V14" s="38" t="n">
         <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36" t="n">
+      <c r="W14" s="39"/>
+      <c r="X14" s="40" t="n">
         <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="34" t="n">
+      <c r="AA14" s="38" t="n">
         <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="36" t="n">
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="40" t="n">
         <f aca="false">AA14+AA16</f>
         <v>29</v>
       </c>
@@ -5010,31 +5555,31 @@
       <c r="BQ14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="47" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="38" t="n">
+      <c r="G15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="32" t="n">
+      <c r="H15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J15" s="40" t="n">
+      <c r="J15" s="44" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
@@ -5044,25 +5589,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="41" t="s">
+      <c r="Q15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="41" t="s">
+      <c r="V15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="41" t="s">
+      <c r="AA15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -5105,31 +5650,31 @@
       <c r="BQ15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="38" t="n">
+      <c r="G16" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="32" t="n">
+      <c r="H16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="36" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J16" s="40" t="n">
+      <c r="J16" s="44" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
@@ -5139,43 +5684,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="42" t="n">
+      <c r="Q16" s="46" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="43" t="n">
+      <c r="R16" s="47" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="44" t="n">
+      <c r="S16" s="48" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="42" t="n">
+      <c r="V16" s="46" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="43" t="n">
+      <c r="W16" s="47" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="44" t="n">
+      <c r="X16" s="48" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="42" t="n">
+      <c r="AA16" s="46" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="43" t="n">
+      <c r="AB16" s="47" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="44" t="n">
+      <c r="AC16" s="48" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
@@ -5221,28 +5766,28 @@
       <c r="BQ16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53" t="n">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="54" t="n">
+      <c r="H17" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="55" t="n">
+      <c r="J17" s="58" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -5252,34 +5797,34 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="45" t="n">
+      <c r="Q17" s="49" t="n">
         <f aca="false">S17-Q16</f>
         <v>5</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="46" t="n">
+      <c r="R17" s="39"/>
+      <c r="S17" s="50" t="n">
         <f aca="false">V17</f>
         <v>6</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="45" t="n">
+      <c r="V17" s="49" t="n">
         <f aca="false">X17-V16</f>
         <v>6</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="46" t="n">
+      <c r="W17" s="39"/>
+      <c r="X17" s="50" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>9</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="45" t="n">
+      <c r="AA17" s="49" t="n">
         <f aca="false">AC17-AA16</f>
         <v>9</v>
       </c>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="46" t="n">
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="50" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
@@ -5325,13 +5870,13 @@
       <c r="BQ17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -5393,14 +5938,14 @@
       <c r="BQ18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="56"/>
+      <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -5462,15 +6007,15 @@
       <c r="BQ19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>64</v>
+      <c r="A20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -5533,16 +6078,16 @@
       <c r="BQ20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -5600,22 +6145,22 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>69</v>
+      <c r="A22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -5673,20 +6218,20 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>72</v>
+      <c r="A23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -5744,14 +6289,14 @@
       <c r="BQ23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -5809,21 +6354,21 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="F25" s="57" t="s">
-        <v>73</v>
+      <c r="A25" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="59" t="s">
+        <v>82</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -5881,23 +6426,23 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>78</v>
+      <c r="A26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -5960,94 +6505,94 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="A27" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="B29" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>86</v>
+      <c r="E30" s="47" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>83</v>
+      <c r="A31" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6088,7 +6633,7 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="A21:C21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B22 W10 M4 R4 R16 W4 W16 AB10 AB16 AG4 AL4 AQ4 AV4 BA4 BF4 BK4 BP4 A30:E30">
+  <conditionalFormatting sqref="B22 M4 R4 R16 W4 W16 AB10 AB16 AG4 AL4 AQ4 AV4 BA4 BF4 BK4 BP4 A30:E30 W10">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -3990,10 +3990,8 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="E12" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="topRight" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="PSP zeitlich" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="98">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -399,7 +400,7 @@
     <numFmt numFmtId="168" formatCode="0\ %"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -487,8 +488,36 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55308D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF8000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,7 +527,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
@@ -540,13 +569,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9CCC65"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1B5E20"/>
-        <bgColor rgb="FF333333"/>
+        <bgColor rgb="FF127622"/>
       </patternFill>
     </fill>
     <fill>
@@ -564,13 +593,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5722"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB71C1C"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
   </fills>
@@ -666,7 +701,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,7 +794,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -907,6 +942,94 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,7 +1042,7 @@
     <cellStyle name="KritischerPfad" xfId="21"/>
     <cellStyle name="Wochenende" xfId="22"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -928,6 +1051,48 @@
         <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFBF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBF00"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -940,13 +1105,13 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF1B5E20"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAADCF7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -955,7 +1120,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFAADCF7"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -976,7 +1141,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9CCC65"/>
       <rgbColor rgb="FFFFBF00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF5722"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
@@ -986,8 +1151,8 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFB71C1C"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF55308D"/>
+      <rgbColor rgb="FF1B5E20"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2913,6 +3078,227 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>171000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9712800" y="1655640"/>
+          <a:ext cx="129240" cy="155880"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 129240"/>
+            <a:gd name="textAreaRight" fmla="*/ 129600 w 129240"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
+            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="10800" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>130680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13210560" y="2788920"/>
+          <a:ext cx="129240" cy="155880"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 129240"/>
+            <a:gd name="textAreaRight" fmla="*/ 129600 w 129240"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
+            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="10800" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>251280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>127080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15482520" y="3275280"/>
+          <a:ext cx="128520" cy="155880"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 128520"/>
+            <a:gd name="textAreaRight" fmla="*/ 128880 w 128520"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
+            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="10800" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -3990,10 +4376,10 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="E12" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="topRight" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -6647,4 +7033,1554 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BM17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="25" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="9" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="60" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="20" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="60" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="49" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="60" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="56" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="60" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="25" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="25" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="25" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="61" t="n">
+        <v>45019</v>
+      </c>
+      <c r="J1" s="61" t="n">
+        <v>45020</v>
+      </c>
+      <c r="K1" s="61" t="n">
+        <v>45021</v>
+      </c>
+      <c r="L1" s="61" t="n">
+        <v>45022</v>
+      </c>
+      <c r="M1" s="61" t="n">
+        <v>45023</v>
+      </c>
+      <c r="N1" s="61" t="n">
+        <v>45024</v>
+      </c>
+      <c r="O1" s="61" t="n">
+        <v>45025</v>
+      </c>
+      <c r="P1" s="61" t="n">
+        <v>45026</v>
+      </c>
+      <c r="Q1" s="61" t="n">
+        <v>45027</v>
+      </c>
+      <c r="R1" s="61" t="n">
+        <v>45028</v>
+      </c>
+      <c r="S1" s="62" t="n">
+        <v>45029</v>
+      </c>
+      <c r="T1" s="61" t="n">
+        <v>45030</v>
+      </c>
+      <c r="U1" s="61" t="n">
+        <v>45031</v>
+      </c>
+      <c r="V1" s="61" t="n">
+        <v>45032</v>
+      </c>
+      <c r="W1" s="61" t="n">
+        <v>45033</v>
+      </c>
+      <c r="X1" s="61" t="n">
+        <v>45034</v>
+      </c>
+      <c r="Y1" s="61" t="n">
+        <v>45035</v>
+      </c>
+      <c r="Z1" s="61" t="n">
+        <v>45036</v>
+      </c>
+      <c r="AA1" s="61" t="n">
+        <v>45037</v>
+      </c>
+      <c r="AB1" s="61" t="n">
+        <v>45038</v>
+      </c>
+      <c r="AC1" s="61" t="n">
+        <v>45039</v>
+      </c>
+      <c r="AD1" s="61" t="n">
+        <v>45040</v>
+      </c>
+      <c r="AE1" s="61" t="n">
+        <v>45041</v>
+      </c>
+      <c r="AF1" s="61" t="n">
+        <v>45042</v>
+      </c>
+      <c r="AG1" s="61" t="n">
+        <v>45043</v>
+      </c>
+      <c r="AH1" s="61" t="n">
+        <v>45044</v>
+      </c>
+      <c r="AI1" s="61" t="n">
+        <v>45045</v>
+      </c>
+      <c r="AJ1" s="61" t="n">
+        <v>45046</v>
+      </c>
+      <c r="AK1" s="61" t="n">
+        <v>45047</v>
+      </c>
+      <c r="AL1" s="61" t="n">
+        <v>45048</v>
+      </c>
+      <c r="AM1" s="61" t="n">
+        <v>45049</v>
+      </c>
+      <c r="AN1" s="61" t="n">
+        <v>45050</v>
+      </c>
+      <c r="AO1" s="61" t="n">
+        <v>45051</v>
+      </c>
+      <c r="AP1" s="61" t="n">
+        <v>45052</v>
+      </c>
+      <c r="AQ1" s="61" t="n">
+        <v>45053</v>
+      </c>
+      <c r="AR1" s="61" t="n">
+        <v>45054</v>
+      </c>
+      <c r="AS1" s="61" t="n">
+        <v>45055</v>
+      </c>
+      <c r="AT1" s="61" t="n">
+        <v>45056</v>
+      </c>
+      <c r="AU1" s="61" t="n">
+        <v>45057</v>
+      </c>
+      <c r="AV1" s="62" t="n">
+        <v>45058</v>
+      </c>
+      <c r="AW1" s="61" t="n">
+        <v>45059</v>
+      </c>
+      <c r="AX1" s="61" t="n">
+        <v>45060</v>
+      </c>
+      <c r="AY1" s="61" t="n">
+        <v>45061</v>
+      </c>
+      <c r="AZ1" s="61" t="n">
+        <v>45062</v>
+      </c>
+      <c r="BA1" s="61" t="n">
+        <v>45063</v>
+      </c>
+      <c r="BB1" s="61" t="n">
+        <v>45064</v>
+      </c>
+      <c r="BC1" s="62" t="n">
+        <v>45065</v>
+      </c>
+      <c r="BD1" s="61" t="n">
+        <v>45066</v>
+      </c>
+      <c r="BE1" s="61" t="n">
+        <v>45067</v>
+      </c>
+      <c r="BF1" s="61" t="n">
+        <v>45068</v>
+      </c>
+      <c r="BG1" s="61" t="n">
+        <v>45069</v>
+      </c>
+      <c r="BH1" s="61" t="n">
+        <v>45070</v>
+      </c>
+      <c r="BI1" s="62" t="n">
+        <v>45071</v>
+      </c>
+      <c r="BJ1" s="61" t="n">
+        <v>45071</v>
+      </c>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="65"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="66" t="n">
+        <f aca="false">Netzplan!J2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="67" t="n">
+        <f aca="false">SUM(I2:BJ2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="65"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="66" t="n">
+        <f aca="false">Netzplan!J3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="67" t="n">
+        <f aca="false">SUM(I3:BJ3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="65"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="66" t="n">
+        <f aca="false">Netzplan!J4</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="67" t="n">
+        <f aca="false">SUM(I4:BJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="72"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="75"/>
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="65"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="66" t="n">
+        <f aca="false">Netzplan!J5</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="67" t="n">
+        <f aca="false">SUM(I5:BJ5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="72"/>
+      <c r="AT5" s="72"/>
+      <c r="AU5" s="72"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="72"/>
+      <c r="AX5" s="72"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="72"/>
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="72"/>
+      <c r="BE5" s="72"/>
+      <c r="BF5" s="72"/>
+      <c r="BG5" s="72"/>
+      <c r="BH5" s="72"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="64"/>
+      <c r="BM5" s="65"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="66" t="n">
+        <f aca="false">Netzplan!J6</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="67" t="n">
+        <f aca="false">SUM(I6:BJ6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="72"/>
+      <c r="AS6" s="72"/>
+      <c r="AT6" s="72"/>
+      <c r="AU6" s="72"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="72"/>
+      <c r="AX6" s="72"/>
+      <c r="AY6" s="72"/>
+      <c r="AZ6" s="72"/>
+      <c r="BA6" s="72"/>
+      <c r="BB6" s="72"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BF6" s="72"/>
+      <c r="BG6" s="72"/>
+      <c r="BH6" s="72"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="75"/>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="65"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="66" t="n">
+        <f aca="false">Netzplan!J7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="67" t="n">
+        <f aca="false">SUM(I7:BJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="72"/>
+      <c r="BA7" s="72"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="75"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="65"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="66" t="n">
+        <f aca="false">Netzplan!J8</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="67" t="n">
+        <f aca="false">SUM(I8:BJ8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="65"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="66" t="n">
+        <f aca="false">Netzplan!J9</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="67" t="n">
+        <f aca="false">SUM(I9:BJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="63"/>
+      <c r="BL9" s="64"/>
+      <c r="BM9" s="65"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="66" t="n">
+        <f aca="false">Netzplan!J10</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="67" t="n">
+        <f aca="false">SUM(I10:BJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="72"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="72"/>
+      <c r="BG10" s="72"/>
+      <c r="BH10" s="72"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="63"/>
+      <c r="BL10" s="64"/>
+      <c r="BM10" s="65"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="66" t="n">
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="67" t="n">
+        <f aca="false">SUM(I11:BJ11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="72"/>
+      <c r="BE11" s="72"/>
+      <c r="BF11" s="72"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="72"/>
+      <c r="BI11" s="74"/>
+      <c r="BJ11" s="75"/>
+      <c r="BK11" s="63"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="65"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="66" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="67" t="n">
+        <f aca="false">SUM(I12:BJ12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="72"/>
+      <c r="BE12" s="72"/>
+      <c r="BF12" s="72"/>
+      <c r="BG12" s="72"/>
+      <c r="BH12" s="72"/>
+      <c r="BI12" s="74"/>
+      <c r="BJ12" s="75"/>
+      <c r="BK12" s="63"/>
+      <c r="BL12" s="64"/>
+      <c r="BM12" s="65"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="66" t="n">
+        <f aca="false">Netzplan!J13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="67" t="n">
+        <f aca="false">SUM(I13:BJ13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="74"/>
+      <c r="BD13" s="72"/>
+      <c r="BE13" s="72"/>
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="72"/>
+      <c r="BH13" s="72"/>
+      <c r="BI13" s="74"/>
+      <c r="BJ13" s="75"/>
+      <c r="BK13" s="63"/>
+      <c r="BL13" s="64"/>
+      <c r="BM13" s="65"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="66" t="n">
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="67" t="n">
+        <f aca="false">SUM(I14:BJ14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="73"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="72"/>
+      <c r="BE14" s="72"/>
+      <c r="BF14" s="72"/>
+      <c r="BG14" s="72"/>
+      <c r="BH14" s="72"/>
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="75"/>
+      <c r="BK14" s="63"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="65"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="66" t="n">
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="67" t="n">
+        <f aca="false">SUM(I15:BJ15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="75"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="74"/>
+      <c r="BD15" s="72"/>
+      <c r="BE15" s="72"/>
+      <c r="BF15" s="72"/>
+      <c r="BG15" s="72"/>
+      <c r="BH15" s="72"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="75"/>
+      <c r="BK15" s="63"/>
+      <c r="BL15" s="64"/>
+      <c r="BM15" s="65"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="66" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="67" t="n">
+        <f aca="false">SUM(I16:BJ16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="74"/>
+      <c r="BJ16" s="75"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="64"/>
+      <c r="BM16" s="65"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="66" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="67" t="n">
+        <f aca="false">SUM(I17:BJ17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="79"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="80"/>
+      <c r="AZ17" s="80"/>
+      <c r="BA17" s="78"/>
+      <c r="BB17" s="78"/>
+      <c r="BC17" s="79"/>
+      <c r="BD17" s="78"/>
+      <c r="BE17" s="78"/>
+      <c r="BF17" s="78"/>
+      <c r="BG17" s="78"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="79"/>
+      <c r="BJ17" s="81"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="64"/>
+      <c r="BM17" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:BF9 I12:BF13 I10:AC11 AE10:BF11 I16:BF17 I14:AJ15 AL14:BF14 AL15:AM15 AO15:BF15 I1:I9 J1:BJ1">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H17">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(H2&lt;&gt;G2,TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:BF9 I12:BF13 I10:AC11 AE10:BF11 I16:BF17 I14:AJ15 AL14:BF14 AL15:AM15 AO15:BF15">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="100">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -386,6 +386,12 @@
       </rPr>
       <t xml:space="preserve"> FEZ</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorarbeiten abgeschlossen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektabschluss</t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -978,10 +984,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -994,30 +1008,50 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1028,6 +1062,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3082,58 +3120,30 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>43200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>177840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name=""/>
+        <xdr:cNvPr id="46" name="Form 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9712800" y="1655640"/>
-          <a:ext cx="129240" cy="155880"/>
+          <a:off x="10725120" y="1677960"/>
+          <a:ext cx="134640" cy="173880"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="diamond">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 129240"/>
-            <a:gd name="textAreaRight" fmla="*/ 129600 w 129240"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
-            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+        </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="729fcf"/>
         </a:solidFill>
@@ -3152,148 +3162,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>212040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Bild 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13210560" y="2788920"/>
-          <a:ext cx="129240" cy="155880"/>
+          <a:off x="15050520" y="2816280"/>
+          <a:ext cx="140040" cy="171720"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="rect">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 129240"/>
-            <a:gd name="textAreaRight" fmla="*/ 129600 w 129240"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
-            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
+        </a:prstGeom>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Bild 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15482520" y="3275280"/>
-          <a:ext cx="128520" cy="155880"/>
+          <a:off x="17253000" y="3285360"/>
+          <a:ext cx="140040" cy="171720"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="rect">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 128520"/>
-            <a:gd name="textAreaRight" fmla="*/ 128880 w 128520"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 155880"/>
-            <a:gd name="textAreaBottom" fmla="*/ 156240 h 155880"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
+        </a:prstGeom>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4377,9 +4317,9 @@
   <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -7040,10 +6980,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -7051,7 +6993,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="25" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="25" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="25" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="9" style="25" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="60" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="20" style="25" width="3.59"/>
@@ -7245,8 +7187,8 @@
       <c r="BI1" s="62" t="n">
         <v>45071</v>
       </c>
-      <c r="BJ1" s="61" t="n">
-        <v>45071</v>
+      <c r="BJ1" s="62" t="n">
+        <v>45072</v>
       </c>
       <c r="BK1" s="63"/>
       <c r="BL1" s="64"/>
@@ -7271,62 +7213,72 @@
       </c>
       <c r="H2" s="67" t="n">
         <f aca="false">SUM(I2:BJ2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="70"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="73"/>
       <c r="BK2" s="63"/>
       <c r="BL2" s="64"/>
       <c r="BM2" s="65"/>
@@ -7352,62 +7304,64 @@
       </c>
       <c r="H3" s="67" t="n">
         <f aca="false">SUM(I3:BJ3)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="77"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="78"/>
       <c r="BK3" s="63"/>
       <c r="BL3" s="64"/>
       <c r="BM3" s="65"/>
@@ -7433,62 +7387,70 @@
       </c>
       <c r="H4" s="67" t="n">
         <f aca="false">SUM(I4:BJ4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="72"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="75"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="74"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="78"/>
       <c r="BK4" s="63"/>
       <c r="BL4" s="64"/>
       <c r="BM4" s="65"/>
@@ -7514,62 +7476,68 @@
       </c>
       <c r="H5" s="67" t="n">
         <f aca="false">SUM(I5:BJ5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="72"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="72"/>
-      <c r="AZ5" s="72"/>
-      <c r="BA5" s="72"/>
-      <c r="BB5" s="72"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="72"/>
-      <c r="BE5" s="72"/>
-      <c r="BF5" s="72"/>
-      <c r="BG5" s="72"/>
-      <c r="BH5" s="72"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="75"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="74"/>
+      <c r="BH5" s="74"/>
+      <c r="BI5" s="77"/>
+      <c r="BJ5" s="78"/>
       <c r="BK5" s="63"/>
       <c r="BL5" s="64"/>
       <c r="BM5" s="65"/>
@@ -7595,62 +7563,72 @@
       </c>
       <c r="H6" s="67" t="n">
         <f aca="false">SUM(I6:BJ6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="72"/>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="72"/>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="72"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="72"/>
-      <c r="BG6" s="72"/>
-      <c r="BH6" s="72"/>
-      <c r="BI6" s="74"/>
-      <c r="BJ6" s="75"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="77"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="77"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+      <c r="BF6" s="74"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
+      <c r="BI6" s="77"/>
+      <c r="BJ6" s="78"/>
       <c r="BK6" s="63"/>
       <c r="BL6" s="64"/>
       <c r="BM6" s="65"/>
@@ -7676,62 +7654,64 @@
       </c>
       <c r="H7" s="67" t="n">
         <f aca="false">SUM(I7:BJ7)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="72"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="77"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="77"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="74"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
+      <c r="BI7" s="77"/>
+      <c r="BJ7" s="78"/>
       <c r="BK7" s="63"/>
       <c r="BL7" s="64"/>
       <c r="BM7" s="65"/>
@@ -7757,790 +7737,939 @@
       </c>
       <c r="H8" s="67" t="n">
         <f aca="false">SUM(I8:BJ8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="75"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="78"/>
       <c r="BK8" s="63"/>
       <c r="BL8" s="64"/>
       <c r="BM8" s="65"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="66" t="n">
-        <f aca="false">Netzplan!J9</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="67" t="n">
-        <f aca="false">SUM(I9:BJ9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="72"/>
-      <c r="BA9" s="72"/>
-      <c r="BB9" s="72"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="72"/>
-      <c r="BE9" s="72"/>
-      <c r="BF9" s="72"/>
-      <c r="BG9" s="72"/>
-      <c r="BH9" s="72"/>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="75"/>
+      <c r="A9" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="74"/>
+      <c r="BH9" s="74"/>
+      <c r="BI9" s="77"/>
+      <c r="BJ9" s="78"/>
       <c r="BK9" s="63"/>
       <c r="BL9" s="64"/>
       <c r="BM9" s="65"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="51" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="66" t="n">
-        <f aca="false">Netzplan!J10</f>
+        <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
       <c r="H10" s="67" t="n">
         <f aca="false">SUM(I10:BJ10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="72"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="72"/>
-      <c r="BG10" s="72"/>
-      <c r="BH10" s="72"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="78"/>
       <c r="BK10" s="63"/>
       <c r="BL10" s="64"/>
       <c r="BM10" s="65"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G11" s="66" t="n">
-        <f aca="false">Netzplan!J11</f>
+        <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
       <c r="H11" s="67" t="n">
         <f aca="false">SUM(I11:BJ11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="74"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="72"/>
-      <c r="BC11" s="74"/>
-      <c r="BD11" s="72"/>
-      <c r="BE11" s="72"/>
-      <c r="BF11" s="72"/>
-      <c r="BG11" s="72"/>
-      <c r="BH11" s="72"/>
-      <c r="BI11" s="74"/>
-      <c r="BJ11" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="74"/>
+      <c r="BE11" s="74"/>
+      <c r="BF11" s="74"/>
+      <c r="BG11" s="74"/>
+      <c r="BH11" s="74"/>
+      <c r="BI11" s="77"/>
+      <c r="BJ11" s="78"/>
       <c r="BK11" s="63"/>
       <c r="BL11" s="64"/>
       <c r="BM11" s="65"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="51" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G12" s="66" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
       </c>
       <c r="H12" s="67" t="n">
         <f aca="false">SUM(I12:BJ12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="74"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="74"/>
-      <c r="BD12" s="72"/>
-      <c r="BE12" s="72"/>
-      <c r="BF12" s="72"/>
-      <c r="BG12" s="72"/>
-      <c r="BH12" s="72"/>
-      <c r="BI12" s="74"/>
-      <c r="BJ12" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="74"/>
+      <c r="BF12" s="74"/>
+      <c r="BG12" s="74"/>
+      <c r="BH12" s="74"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="78"/>
       <c r="BK12" s="63"/>
       <c r="BL12" s="64"/>
       <c r="BM12" s="65"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="66" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>2</v>
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
       </c>
       <c r="H13" s="67" t="n">
         <f aca="false">SUM(I13:BJ13)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="74"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="72"/>
-      <c r="BA13" s="72"/>
-      <c r="BB13" s="72"/>
-      <c r="BC13" s="74"/>
-      <c r="BD13" s="72"/>
-      <c r="BE13" s="72"/>
-      <c r="BF13" s="72"/>
-      <c r="BG13" s="72"/>
-      <c r="BH13" s="72"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="75"/>
+        <v>20</v>
+      </c>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="76"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="74"/>
+      <c r="BE13" s="74"/>
+      <c r="BF13" s="74"/>
+      <c r="BG13" s="74"/>
+      <c r="BH13" s="74"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="78"/>
       <c r="BK13" s="63"/>
       <c r="BL13" s="64"/>
       <c r="BM13" s="65"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="51" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G14" s="66" t="n">
-        <f aca="false">Netzplan!J14</f>
+        <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
       <c r="H14" s="67" t="n">
         <f aca="false">SUM(I14:BJ14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="74"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-      <c r="BB14" s="72"/>
-      <c r="BC14" s="74"/>
-      <c r="BD14" s="72"/>
-      <c r="BE14" s="72"/>
-      <c r="BF14" s="72"/>
-      <c r="BG14" s="72"/>
-      <c r="BH14" s="72"/>
-      <c r="BI14" s="74"/>
-      <c r="BJ14" s="75"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="0"/>
+      <c r="AM14" s="0"/>
+      <c r="AN14" s="0"/>
+      <c r="AO14" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="79"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="77"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="77"/>
+      <c r="BJ14" s="78"/>
       <c r="BK14" s="63"/>
       <c r="BL14" s="64"/>
       <c r="BM14" s="65"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="51" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G15" s="66" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
       </c>
       <c r="H15" s="67" t="n">
         <f aca="false">SUM(I15:BJ15)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="75"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="74"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="74"/>
-      <c r="BD15" s="72"/>
-      <c r="BE15" s="72"/>
-      <c r="BF15" s="72"/>
-      <c r="BG15" s="72"/>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="74"/>
-      <c r="BJ15" s="75"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="0"/>
+      <c r="AM15" s="0"/>
+      <c r="AN15" s="0"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="77"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="75"/>
+      <c r="BC15" s="77"/>
+      <c r="BD15" s="74"/>
+      <c r="BE15" s="74"/>
+      <c r="BF15" s="74"/>
+      <c r="BG15" s="74"/>
+      <c r="BH15" s="74"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="78"/>
       <c r="BK15" s="63"/>
       <c r="BL15" s="64"/>
       <c r="BM15" s="65"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="51" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="66" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>3</v>
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
       </c>
       <c r="H16" s="67" t="n">
         <f aca="false">SUM(I16:BJ16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="75"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="74"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="74"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="72"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="74"/>
-      <c r="BJ16" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="0"/>
+      <c r="AM16" s="0"/>
+      <c r="AN16" s="0"/>
+      <c r="AO16" s="0"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="78"/>
+      <c r="AU16" s="0"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="75"/>
+      <c r="BC16" s="77"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="74"/>
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="74"/>
+      <c r="BH16" s="74"/>
+      <c r="BI16" s="77"/>
+      <c r="BJ16" s="78"/>
       <c r="BK16" s="63"/>
       <c r="BL16" s="64"/>
       <c r="BM16" s="65"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="55"/>
       <c r="G17" s="66" t="n">
-        <f aca="false">Netzplan!J17</f>
-        <v>1</v>
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
       </c>
       <c r="H17" s="67" t="n">
         <f aca="false">SUM(I17:BJ17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="74"/>
       <c r="AM17" s="78"/>
       <c r="AN17" s="78"/>
       <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
       <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="79"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="80"/>
-      <c r="AZ17" s="80"/>
-      <c r="BA17" s="78"/>
-      <c r="BB17" s="78"/>
-      <c r="BC17" s="79"/>
-      <c r="BD17" s="78"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="78"/>
-      <c r="BG17" s="78"/>
-      <c r="BH17" s="78"/>
-      <c r="BI17" s="79"/>
-      <c r="BJ17" s="81"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="79"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="79"/>
+      <c r="AZ17" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="75"/>
+      <c r="BC17" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="74"/>
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="74"/>
+      <c r="BH17" s="74"/>
+      <c r="BI17" s="77"/>
+      <c r="BJ17" s="78"/>
       <c r="BK17" s="63"/>
       <c r="BL17" s="64"/>
       <c r="BM17" s="65"/>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="66" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="67" t="n">
+        <f aca="false">SUM(I18:BJ18)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="86"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="87"/>
+      <c r="BA18" s="0"/>
+      <c r="BB18" s="85"/>
+      <c r="BC18" s="86"/>
+      <c r="BD18" s="84"/>
+      <c r="BE18" s="84"/>
+      <c r="BF18" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="84"/>
+      <c r="BH18" s="84"/>
+      <c r="BI18" s="86"/>
+      <c r="BJ18" s="88"/>
+      <c r="BK18" s="63"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="65"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -8549,7 +8678,7 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
@@ -8558,18 +8687,20 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:BF9 I12:BF13 I10:AC11 AE10:BF11 I16:BF17 I14:AJ15 AL14:BF14 AL15:AM15 AO15:BF15 I1:I9 J1:BJ1">
+  <conditionalFormatting sqref="I2:BF9 I11:AC13 I17:BF17 I15:AJ16 I1:I10 J1:BJ1 AD13:BF13 I10:AD10 AH10:BF12 I14:AG14 AU14:BF15 AI14:AK14 AO14:AQ15 AR14:AT15 AP16:AS16 AV16:BF16 I18:AZ18 BB18:BF18">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H18">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(H2&lt;&gt;G2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BF9 I12:BF13 I10:AC11 AE10:BF11 I16:BF17 I14:AJ15 AL14:BF14 AL15:AM15 AO15:BF15">
+  <conditionalFormatting sqref="I2:BF9 I11:AC13 I17:BF17 I15:AJ16 AD13:BF13 I10:AD10 AH10:BF12 I14:AG14 AU14:BF15 AI14:AK14 AO14:AQ15 AR14:AT15 AP16:AS16 AV16:BF16 I18:AZ18 BB18:BF18">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>1</formula>
     </cfRule>

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="PSP zeitlich" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="99">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -386,6 +387,9 @@
       <t xml:space="preserve"> FEZ</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Projektabschluss</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +403,7 @@
     <numFmt numFmtId="168" formatCode="0\ %"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -487,8 +491,36 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55308D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF8000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,7 +530,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
@@ -540,13 +572,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9CCC65"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1B5E20"/>
-        <bgColor rgb="FF333333"/>
+        <bgColor rgb="FF127622"/>
       </patternFill>
     </fill>
     <fill>
@@ -564,13 +596,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5722"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB71C1C"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
   </fills>
@@ -666,7 +704,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,7 +797,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -905,6 +943,98 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -919,7 +1049,7 @@
     <cellStyle name="KritischerPfad" xfId="21"/>
     <cellStyle name="Wochenende" xfId="22"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -928,6 +1058,48 @@
         <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFBF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBF00"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -940,13 +1112,13 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF1B5E20"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAADCF7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -955,7 +1127,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFAADCF7"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -976,7 +1148,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9CCC65"/>
       <rgbColor rgb="FFFFBF00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF5722"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
@@ -986,8 +1158,8 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFB71C1C"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF55308D"/>
+      <rgbColor rgb="FF1B5E20"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -3990,8 +4162,10 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -6645,4 +6819,1536 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BM18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="I9" activeCellId="0" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="25" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="25" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="25" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="25" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="25" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="60" t="n">
+        <v>45019</v>
+      </c>
+      <c r="J1" s="60" t="n">
+        <v>45020</v>
+      </c>
+      <c r="K1" s="60" t="n">
+        <v>45021</v>
+      </c>
+      <c r="L1" s="60" t="n">
+        <v>45022</v>
+      </c>
+      <c r="M1" s="60" t="n">
+        <v>45023</v>
+      </c>
+      <c r="N1" s="60" t="n">
+        <v>45024</v>
+      </c>
+      <c r="O1" s="60" t="n">
+        <v>45025</v>
+      </c>
+      <c r="P1" s="60" t="n">
+        <v>45026</v>
+      </c>
+      <c r="Q1" s="60" t="n">
+        <v>45027</v>
+      </c>
+      <c r="R1" s="60" t="n">
+        <v>45028</v>
+      </c>
+      <c r="S1" s="60" t="n">
+        <v>45029</v>
+      </c>
+      <c r="T1" s="60" t="n">
+        <v>45030</v>
+      </c>
+      <c r="U1" s="60" t="n">
+        <v>45031</v>
+      </c>
+      <c r="V1" s="60" t="n">
+        <v>45032</v>
+      </c>
+      <c r="W1" s="60" t="n">
+        <v>45033</v>
+      </c>
+      <c r="X1" s="60" t="n">
+        <v>45034</v>
+      </c>
+      <c r="Y1" s="60" t="n">
+        <v>45035</v>
+      </c>
+      <c r="Z1" s="60" t="n">
+        <v>45036</v>
+      </c>
+      <c r="AA1" s="60" t="n">
+        <v>45037</v>
+      </c>
+      <c r="AB1" s="60" t="n">
+        <v>45038</v>
+      </c>
+      <c r="AC1" s="60" t="n">
+        <v>45039</v>
+      </c>
+      <c r="AD1" s="60" t="n">
+        <v>45040</v>
+      </c>
+      <c r="AE1" s="60" t="n">
+        <v>45041</v>
+      </c>
+      <c r="AF1" s="60" t="n">
+        <v>45042</v>
+      </c>
+      <c r="AG1" s="60" t="n">
+        <v>45043</v>
+      </c>
+      <c r="AH1" s="60" t="n">
+        <v>45044</v>
+      </c>
+      <c r="AI1" s="60" t="n">
+        <v>45045</v>
+      </c>
+      <c r="AJ1" s="60" t="n">
+        <v>45046</v>
+      </c>
+      <c r="AK1" s="60" t="n">
+        <v>45047</v>
+      </c>
+      <c r="AL1" s="60" t="n">
+        <v>45048</v>
+      </c>
+      <c r="AM1" s="60" t="n">
+        <v>45049</v>
+      </c>
+      <c r="AN1" s="60" t="n">
+        <v>45050</v>
+      </c>
+      <c r="AO1" s="60" t="n">
+        <v>45051</v>
+      </c>
+      <c r="AP1" s="60" t="n">
+        <v>45052</v>
+      </c>
+      <c r="AQ1" s="60" t="n">
+        <v>45053</v>
+      </c>
+      <c r="AR1" s="60" t="n">
+        <v>45054</v>
+      </c>
+      <c r="AS1" s="60" t="n">
+        <v>45055</v>
+      </c>
+      <c r="AT1" s="60" t="n">
+        <v>45056</v>
+      </c>
+      <c r="AU1" s="60" t="n">
+        <v>45057</v>
+      </c>
+      <c r="AV1" s="60" t="n">
+        <v>45058</v>
+      </c>
+      <c r="AW1" s="60" t="n">
+        <v>45059</v>
+      </c>
+      <c r="AX1" s="60" t="n">
+        <v>45060</v>
+      </c>
+      <c r="AY1" s="60" t="n">
+        <v>45061</v>
+      </c>
+      <c r="AZ1" s="60" t="n">
+        <v>45062</v>
+      </c>
+      <c r="BA1" s="60" t="n">
+        <v>45063</v>
+      </c>
+      <c r="BB1" s="60" t="n">
+        <v>45064</v>
+      </c>
+      <c r="BC1" s="60" t="n">
+        <v>45065</v>
+      </c>
+      <c r="BD1" s="60" t="n">
+        <v>45066</v>
+      </c>
+      <c r="BE1" s="60" t="n">
+        <v>45067</v>
+      </c>
+      <c r="BF1" s="60" t="n">
+        <v>45068</v>
+      </c>
+      <c r="BG1" s="60" t="n">
+        <v>45069</v>
+      </c>
+      <c r="BH1" s="60" t="n">
+        <v>45070</v>
+      </c>
+      <c r="BI1" s="60" t="n">
+        <v>45071</v>
+      </c>
+      <c r="BJ1" s="60" t="n">
+        <v>45072</v>
+      </c>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="63"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="64" t="n">
+        <f aca="false">Netzplan!J2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="65" t="n">
+        <f aca="false">SUM(I2:BJ2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="61"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="63"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="64" t="n">
+        <f aca="false">Netzplan!J3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="65" t="n">
+        <f aca="false">SUM(I3:BJ3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="63"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="64" t="n">
+        <f aca="false">Netzplan!J4</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="65" t="n">
+        <f aca="false">SUM(I4:BJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="61"/>
+      <c r="BL4" s="62"/>
+      <c r="BM4" s="63"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="64" t="n">
+        <f aca="false">Netzplan!J5</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="65" t="n">
+        <f aca="false">SUM(I5:BJ5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="71"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="71"/>
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="71"/>
+      <c r="BA5" s="71"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="71"/>
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="71"/>
+      <c r="BG5" s="71"/>
+      <c r="BH5" s="71"/>
+      <c r="BI5" s="71"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="61"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="63"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="64" t="n">
+        <f aca="false">Netzplan!J6</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="65" t="n">
+        <f aca="false">SUM(I6:BJ6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="71"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="71"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="72"/>
+      <c r="BC6" s="71"/>
+      <c r="BD6" s="71"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="71"/>
+      <c r="BG6" s="71"/>
+      <c r="BH6" s="71"/>
+      <c r="BI6" s="71"/>
+      <c r="BJ6" s="74"/>
+      <c r="BK6" s="61"/>
+      <c r="BL6" s="62"/>
+      <c r="BM6" s="63"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="64" t="n">
+        <f aca="false">Netzplan!J7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="65" t="n">
+        <f aca="false">SUM(I7:BJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="71"/>
+      <c r="BH7" s="71"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="74"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="62"/>
+      <c r="BM7" s="63"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="64" t="n">
+        <f aca="false">Netzplan!J8</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="65" t="n">
+        <f aca="false">SUM(I8:BJ8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="71"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="71"/>
+      <c r="BG8" s="71"/>
+      <c r="BH8" s="71"/>
+      <c r="BI8" s="71"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="61"/>
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="63"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="64" t="n">
+        <f aca="false">Netzplan!J9</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="65" t="n">
+        <f aca="false">SUM(I9:BJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="75"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="71"/>
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="71"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="71"/>
+      <c r="BD9" s="71"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="71"/>
+      <c r="BG9" s="71"/>
+      <c r="BH9" s="71"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="74"/>
+      <c r="BK9" s="61"/>
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="63"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <f aca="false">Netzplan!J10</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="65" t="n">
+        <f aca="false">SUM(I10:BJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="62"/>
+      <c r="BM10" s="63"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="64" t="n">
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="65" t="n">
+        <f aca="false">SUM(I11:BJ11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="71"/>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="71"/>
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="71"/>
+      <c r="AX11" s="71"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="71"/>
+      <c r="BA11" s="71"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="71"/>
+      <c r="BG11" s="71"/>
+      <c r="BH11" s="71"/>
+      <c r="BI11" s="71"/>
+      <c r="BJ11" s="74"/>
+      <c r="BK11" s="61"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="63"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="64" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="65" t="n">
+        <f aca="false">SUM(I12:BJ12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="75"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="71"/>
+      <c r="BH12" s="71"/>
+      <c r="BI12" s="71"/>
+      <c r="BJ12" s="74"/>
+      <c r="BK12" s="61"/>
+      <c r="BL12" s="62"/>
+      <c r="BM12" s="63"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="64" t="n">
+        <f aca="false">Netzplan!J13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="65" t="n">
+        <f aca="false">SUM(I13:BJ13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="73"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="75"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="71"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="71"/>
+      <c r="BG13" s="71"/>
+      <c r="BH13" s="71"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="74"/>
+      <c r="BK13" s="61"/>
+      <c r="BL13" s="62"/>
+      <c r="BM13" s="63"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="64" t="n">
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="65" t="n">
+        <f aca="false">SUM(I14:BJ14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="77"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="71"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="71"/>
+      <c r="BD14" s="71"/>
+      <c r="BE14" s="71"/>
+      <c r="BF14" s="71"/>
+      <c r="BG14" s="71"/>
+      <c r="BH14" s="71"/>
+      <c r="BI14" s="71"/>
+      <c r="BJ14" s="74"/>
+      <c r="BK14" s="61"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="63"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="64" t="n">
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="65" t="n">
+        <f aca="false">SUM(I15:BJ15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="77"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="74"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="71"/>
+      <c r="BA15" s="71"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="71"/>
+      <c r="BD15" s="71"/>
+      <c r="BE15" s="71"/>
+      <c r="BF15" s="71"/>
+      <c r="BG15" s="71"/>
+      <c r="BH15" s="71"/>
+      <c r="BI15" s="71"/>
+      <c r="BJ15" s="74"/>
+      <c r="BK15" s="61"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="63"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="64" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="65" t="n">
+        <f aca="false">SUM(I16:BJ16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="75"/>
+      <c r="BA16" s="75"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="71"/>
+      <c r="BH16" s="71"/>
+      <c r="BI16" s="71"/>
+      <c r="BJ16" s="74"/>
+      <c r="BK16" s="61"/>
+      <c r="BL16" s="62"/>
+      <c r="BM16" s="63"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="64" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="65" t="n">
+        <f aca="false">SUM(I17:BJ17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="80"/>
+      <c r="AZ17" s="80"/>
+      <c r="BB17" s="79"/>
+      <c r="BC17" s="78"/>
+      <c r="BD17" s="78"/>
+      <c r="BE17" s="78"/>
+      <c r="BF17" s="78"/>
+      <c r="BG17" s="78"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="78"/>
+      <c r="BJ17" s="81"/>
+      <c r="BK17" s="61"/>
+      <c r="BL17" s="62"/>
+      <c r="BM17" s="63"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 I1:I9 J1:BJ1 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H17">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(H2&lt;&gt;G2,TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="101">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -386,6 +386,12 @@
       </rPr>
       <t xml:space="preserve"> FEZ</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorarbeiten fertig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentierbar</t>
   </si>
   <si>
     <t xml:space="preserve">Projektabschluss</t>
@@ -704,7 +710,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1013,8 +1019,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1022,14 +1028,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3085,6 +3083,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>42120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>189720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Form 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10217880" y="1671480"/>
+          <a:ext cx="147600" cy="203760"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>36720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>196920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Bild 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14003640" y="2816280"/>
+          <a:ext cx="160200" cy="200520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>196200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Bild 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16782840" y="3430440"/>
+          <a:ext cx="160200" cy="200520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -3092,7 +3213,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3639,7 +3760,7 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -4162,8 +4283,8 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="AP1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
@@ -6826,12 +6947,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM18"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="AA1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topRight" activeCell="BG17" activeCellId="0" sqref="BG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -7051,17 +7172,27 @@
       </c>
       <c r="H2" s="65" t="n">
         <f aca="false">SUM(I2:BJ2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="66" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
       <c r="O2" s="68"/>
       <c r="P2" s="69"/>
-      <c r="Q2" s="68"/>
+      <c r="Q2" s="68" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" s="68"/>
       <c r="S2" s="68"/>
       <c r="T2" s="68"/>
@@ -7132,7 +7263,7 @@
       </c>
       <c r="H3" s="65" t="n">
         <f aca="false">SUM(I3:BJ3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="71"/>
@@ -7143,7 +7274,9 @@
       <c r="O3" s="71"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="R3" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="S3" s="71"/>
       <c r="T3" s="71"/>
       <c r="U3" s="71"/>
@@ -7213,7 +7346,7 @@
       </c>
       <c r="H4" s="65" t="n">
         <f aca="false">SUM(I4:BJ4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
@@ -7225,12 +7358,20 @@
       <c r="P4" s="72"/>
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="75"/>
+      <c r="S4" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="75" t="n">
+        <v>1</v>
+      </c>
       <c r="U4" s="71"/>
       <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
+      <c r="W4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="Y4" s="71"/>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -7294,7 +7435,7 @@
       </c>
       <c r="H5" s="65" t="n">
         <f aca="false">SUM(I5:BJ5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
@@ -7306,11 +7447,17 @@
       <c r="P5" s="72"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="71"/>
+      <c r="S5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="U5" s="71"/>
       <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
+      <c r="W5" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="X5" s="71"/>
       <c r="Y5" s="71"/>
       <c r="Z5" s="71"/>
@@ -7375,7 +7522,7 @@
       </c>
       <c r="H6" s="65" t="n">
         <f aca="false">SUM(I6:BJ6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -7392,13 +7539,23 @@
       <c r="U6" s="71"/>
       <c r="V6" s="71"/>
       <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="76"/>
+      <c r="X6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="76" t="n">
+        <v>1</v>
+      </c>
       <c r="AB6" s="71"/>
       <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
+      <c r="AD6" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" s="71"/>
       <c r="AF6" s="71"/>
       <c r="AG6" s="71"/>
@@ -7456,7 +7613,7 @@
       </c>
       <c r="H7" s="65" t="n">
         <f aca="false">SUM(I7:BJ7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="71"/>
@@ -7467,7 +7624,9 @@
       <c r="O7" s="71"/>
       <c r="P7" s="73"/>
       <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
+      <c r="R7" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" s="71"/>
       <c r="T7" s="71"/>
       <c r="U7" s="71"/>
@@ -7537,7 +7696,7 @@
       </c>
       <c r="H8" s="65" t="n">
         <f aca="false">SUM(I8:BJ8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="71"/>
       <c r="J8" s="71"/>
@@ -7549,11 +7708,17 @@
       <c r="P8" s="72"/>
       <c r="Q8" s="75"/>
       <c r="R8" s="75"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="71"/>
+      <c r="S8" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="U8" s="71"/>
       <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
+      <c r="W8" s="71" t="n">
+        <v>1</v>
+      </c>
       <c r="X8" s="71"/>
       <c r="Y8" s="71"/>
       <c r="Z8" s="71"/>
@@ -7598,28 +7763,16 @@
       <c r="BM8" s="63"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="64" t="n">
-        <f aca="false">Netzplan!J9</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="65" t="n">
-        <f aca="false">SUM(I9:BJ9)</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="65"/>
       <c r="I9" s="71"/>
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
@@ -7628,20 +7781,23 @@
       <c r="N9" s="71"/>
       <c r="O9" s="71"/>
       <c r="P9" s="72"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
       <c r="T9" s="71"/>
       <c r="U9" s="71"/>
       <c r="V9" s="71"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="74"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
       <c r="AB9" s="71"/>
       <c r="AC9" s="71"/>
-      <c r="AD9" s="75"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
       <c r="AH9" s="71"/>
       <c r="AI9" s="71"/>
       <c r="AJ9" s="71"/>
@@ -7677,26 +7833,26 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="51" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="64" t="n">
-        <f aca="false">Netzplan!J10</f>
+        <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
       <c r="H10" s="65" t="n">
         <f aca="false">SUM(I10:BJ10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="71"/>
       <c r="J10" s="71"/>
@@ -7708,72 +7864,78 @@
       <c r="P10" s="72"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
       <c r="AK10" s="72"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
       <c r="BB10" s="72"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="71"/>
-      <c r="BG10" s="71"/>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="74"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76"/>
       <c r="BK10" s="61"/>
       <c r="BL10" s="62"/>
       <c r="BM10" s="63"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G11" s="64" t="n">
-        <f aca="false">Netzplan!J11</f>
+        <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
       <c r="H11" s="65" t="n">
         <f aca="false">SUM(I11:BJ11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="71"/>
       <c r="J11" s="71"/>
@@ -7785,72 +7947,78 @@
       <c r="P11" s="72"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
       <c r="AK11" s="72"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="71"/>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="76"/>
+      <c r="AZ11" s="76"/>
+      <c r="BA11" s="76"/>
       <c r="BB11" s="72"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="71"/>
-      <c r="BG11" s="71"/>
-      <c r="BH11" s="71"/>
-      <c r="BI11" s="71"/>
-      <c r="BJ11" s="74"/>
+      <c r="BC11" s="76"/>
+      <c r="BD11" s="76"/>
+      <c r="BE11" s="76"/>
+      <c r="BF11" s="76"/>
+      <c r="BG11" s="76"/>
+      <c r="BH11" s="76"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="76"/>
       <c r="BK11" s="61"/>
       <c r="BL11" s="62"/>
       <c r="BM11" s="63"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="51" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G12" s="64" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
       </c>
       <c r="H12" s="65" t="n">
         <f aca="false">SUM(I12:BJ12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
@@ -7862,76 +8030,78 @@
       <c r="P12" s="72"/>
       <c r="Q12" s="71"/>
       <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
       <c r="AA12" s="76"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="75"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="75"/>
-      <c r="AU12" s="75"/>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="75"/>
-      <c r="AZ12" s="75"/>
-      <c r="BA12" s="75"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="71"/>
-      <c r="BD12" s="71"/>
-      <c r="BE12" s="71"/>
-      <c r="BF12" s="71"/>
-      <c r="BG12" s="71"/>
-      <c r="BH12" s="71"/>
-      <c r="BI12" s="71"/>
-      <c r="BJ12" s="74"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
       <c r="BK12" s="61"/>
       <c r="BL12" s="62"/>
       <c r="BM12" s="63"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="64" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>2</v>
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
       </c>
       <c r="H13" s="65" t="n">
         <f aca="false">SUM(I13:BJ13)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71"/>
@@ -7943,72 +8113,116 @@
       <c r="P13" s="72"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="73"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="71"/>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="75"/>
-      <c r="AT13" s="75"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="76"/>
       <c r="BB13" s="72"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
-      <c r="BG13" s="71"/>
-      <c r="BH13" s="71"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="74"/>
+      <c r="BC13" s="76"/>
+      <c r="BD13" s="76"/>
+      <c r="BE13" s="76"/>
+      <c r="BF13" s="76"/>
+      <c r="BG13" s="76"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="76"/>
       <c r="BK13" s="61"/>
       <c r="BL13" s="62"/>
       <c r="BM13" s="63"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="51" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G14" s="64" t="n">
-        <f aca="false">Netzplan!J14</f>
+        <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
       <c r="H14" s="65" t="n">
         <f aca="false">SUM(I14:BJ14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="71"/>
       <c r="J14" s="71"/>
@@ -8020,73 +8234,80 @@
       <c r="P14" s="72"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="77"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="71"/>
-      <c r="BA14" s="71"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="76"/>
       <c r="BB14" s="72"/>
-      <c r="BC14" s="71"/>
-      <c r="BD14" s="71"/>
-      <c r="BE14" s="71"/>
-      <c r="BF14" s="71"/>
-      <c r="BG14" s="71"/>
-      <c r="BH14" s="71"/>
-      <c r="BI14" s="71"/>
-      <c r="BJ14" s="74"/>
+      <c r="BC14" s="76"/>
+      <c r="BD14" s="76"/>
+      <c r="BE14" s="76"/>
+      <c r="BF14" s="76"/>
+      <c r="BG14" s="76"/>
+      <c r="BH14" s="76"/>
+      <c r="BI14" s="76"/>
+      <c r="BJ14" s="76"/>
       <c r="BK14" s="61"/>
       <c r="BL14" s="62"/>
       <c r="BM14" s="63"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="51" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G15" s="64" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
       </c>
       <c r="H15" s="65" t="n">
         <f aca="false">SUM(I15:BJ15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
@@ -8098,71 +8319,69 @@
       <c r="P15" s="72"/>
       <c r="Q15" s="71"/>
       <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="77"/>
-      <c r="AP15" s="71"/>
-      <c r="AQ15" s="71"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="74"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="71"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="71"/>
-      <c r="BA15" s="71"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="76"/>
+      <c r="AZ15" s="76"/>
+      <c r="BA15" s="76"/>
       <c r="BB15" s="72"/>
-      <c r="BC15" s="71"/>
-      <c r="BD15" s="71"/>
-      <c r="BE15" s="71"/>
-      <c r="BF15" s="71"/>
-      <c r="BG15" s="71"/>
-      <c r="BH15" s="71"/>
-      <c r="BI15" s="71"/>
-      <c r="BJ15" s="74"/>
+      <c r="BC15" s="76"/>
+      <c r="BD15" s="76"/>
+      <c r="BE15" s="76"/>
+      <c r="BF15" s="76"/>
+      <c r="BG15" s="76"/>
+      <c r="BH15" s="76"/>
+      <c r="BI15" s="76"/>
+      <c r="BJ15" s="76"/>
       <c r="BK15" s="61"/>
       <c r="BL15" s="62"/>
       <c r="BM15" s="63"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="64" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="65" t="n">
-        <f aca="false">SUM(I16:BJ16)</f>
-        <v>0</v>
-      </c>
+      <c r="A16" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
@@ -8173,142 +8392,315 @@
       <c r="P16" s="72"/>
       <c r="Q16" s="71"/>
       <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
       <c r="AK16" s="72"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="74"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="75"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="75"/>
-      <c r="AZ16" s="75"/>
-      <c r="BA16" s="75"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="76"/>
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="76"/>
       <c r="BB16" s="72"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="71"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="74"/>
+      <c r="BC16" s="76"/>
+      <c r="BD16" s="76"/>
+      <c r="BE16" s="76"/>
+      <c r="BF16" s="76"/>
+      <c r="BG16" s="76"/>
+      <c r="BH16" s="76"/>
+      <c r="BI16" s="76"/>
+      <c r="BJ16" s="76"/>
       <c r="BK16" s="61"/>
       <c r="BL16" s="62"/>
       <c r="BM16" s="63"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="55"/>
+      <c r="A17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" s="64" t="n">
-        <f aca="false">Netzplan!J17</f>
+        <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
       <c r="H17" s="65" t="n">
         <f aca="false">SUM(I17:BJ17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="80"/>
-      <c r="AZ17" s="80"/>
-      <c r="BB17" s="79"/>
-      <c r="BC17" s="78"/>
-      <c r="BD17" s="78"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="78"/>
-      <c r="BG17" s="78"/>
-      <c r="BH17" s="78"/>
-      <c r="BI17" s="78"/>
-      <c r="BJ17" s="81"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="76"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="76"/>
+      <c r="BD17" s="76"/>
+      <c r="BE17" s="76"/>
+      <c r="BF17" s="76"/>
+      <c r="BG17" s="76"/>
+      <c r="BH17" s="76"/>
+      <c r="BI17" s="76"/>
+      <c r="BJ17" s="76"/>
       <c r="BK17" s="61"/>
       <c r="BL17" s="62"/>
       <c r="BM17" s="63"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="64" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="65" t="n">
+        <f aca="false">SUM(I18:BJ18)</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="76"/>
+      <c r="BD18" s="76"/>
+      <c r="BE18" s="76"/>
+      <c r="BF18" s="76"/>
+      <c r="BG18" s="76"/>
+      <c r="BH18" s="76"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="76"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="63"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="64" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="65" t="n">
+        <f aca="false">SUM(I19:BJ19)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="76"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
+      <c r="AZ19" s="76"/>
+      <c r="BA19" s="76"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="76"/>
+      <c r="BE19" s="76"/>
+      <c r="BF19" s="76"/>
+      <c r="BG19" s="76"/>
+      <c r="BH19" s="76"/>
+      <c r="BI19" s="76"/>
+      <c r="BJ19" s="76"/>
+      <c r="BK19" s="61"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="63"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -8317,28 +8709,30 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 I1:I9 J1:BJ1 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
+  <conditionalFormatting sqref="I2:BF9 I1:I10 J1:BJ1 I13:BJ19 I10:AD11 AG10:BJ11 I12:AF12 AH12:BJ12">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H19">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(H2&lt;&gt;G2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
+  <conditionalFormatting sqref="I2:BF9 I13:BJ19 I10:AD11 AG10:BJ11 I12:AF12 AH12:BJ12">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>1</formula>
     </cfRule>
@@ -8350,5 +8744,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -9,9 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PSP zeitlich" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PSP funktionsorientiert_2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PSP zeitlich" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Netzplan" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Gantt" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -164,6 +165,51 @@
     <t xml:space="preserve">1.2.9</t>
   </si>
   <si>
+    <t xml:space="preserve">Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Nyugen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Nygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Datenbanke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
   <si>
@@ -177,9 +223,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.5</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.5</t>
@@ -398,15 +441,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="0.00\ %"/>
-    <numFmt numFmtId="168" formatCode="0\ %"/>
-    <numFmt numFmtId="169" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="0.00\ %"/>
+    <numFmt numFmtId="169" formatCode="0\ %"/>
+    <numFmt numFmtId="170" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,6 +500,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -523,7 +572,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,7 +582,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFBC02D"/>
       </patternFill>
     </fill>
     <fill>
@@ -552,6 +601,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAADCF7"/>
         <bgColor rgb="FF81D4FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD54F"/>
+        <bgColor rgb="FFFBC02D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE040FB"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC02D"/>
+        <bgColor rgb="FFFFBF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -707,7 +780,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -788,6 +861,82 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -804,7 +953,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,11 +973,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,7 +985,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,15 +1001,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -868,11 +1017,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -884,31 +1033,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +1065,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,7 +1077,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,11 +1085,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,35 +1097,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,19 +1129,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1008,23 +1145,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1032,15 +1165,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1048,15 +1177,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,7 +1189,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1141,7 +1266,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFE040FB"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF127622"/>
@@ -1156,12 +1281,12 @@
       <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFBC02D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF176"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1174,7 +1299,7 @@
       <rgbColor rgb="FF81D4FA"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCE93D8"/>
-      <rgbColor rgb="FFFFF176"/>
+      <rgbColor rgb="FFFFD54F"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9CCC65"/>
@@ -2107,6 +2232,52 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>892080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>892080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8223120" y="325080"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>10440</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2120,7 +2291,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvPr id="23" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2162,7 +2333,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvPr id="24" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2204,7 +2375,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name=""/>
+        <xdr:cNvPr id="25" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2246,7 +2417,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name=""/>
+        <xdr:cNvPr id="26" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2288,7 +2459,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name=""/>
+        <xdr:cNvPr id="27" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2330,7 +2501,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name=""/>
+        <xdr:cNvPr id="28" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2372,7 +2543,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name=""/>
+        <xdr:cNvPr id="29" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2414,7 +2585,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name=""/>
+        <xdr:cNvPr id="30" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2456,7 +2627,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name=""/>
+        <xdr:cNvPr id="31" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2498,7 +2669,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name=""/>
+        <xdr:cNvPr id="32" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2540,7 +2711,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name=""/>
+        <xdr:cNvPr id="33" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2582,7 +2753,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvPr id="34" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2624,7 +2795,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvPr id="35" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2666,7 +2837,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name=""/>
+        <xdr:cNvPr id="36" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2708,7 +2879,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name=""/>
+        <xdr:cNvPr id="37" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2750,7 +2921,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name=""/>
+        <xdr:cNvPr id="38" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2792,7 +2963,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name=""/>
+        <xdr:cNvPr id="39" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2834,7 +3005,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name=""/>
+        <xdr:cNvPr id="40" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2876,7 +3047,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name=""/>
+        <xdr:cNvPr id="41" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2918,7 +3089,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name=""/>
+        <xdr:cNvPr id="42" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2960,7 +3131,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name=""/>
+        <xdr:cNvPr id="43" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3002,7 +3173,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name=""/>
+        <xdr:cNvPr id="44" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3044,7 +3215,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name=""/>
+        <xdr:cNvPr id="45" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3086,7 +3257,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name=""/>
+        <xdr:cNvPr id="46" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3116,7 +3287,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -3127,19 +3298,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Form 1"/>
+        <xdr:cNvPr id="47" name="Form 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10725120" y="1677960"/>
-          <a:ext cx="134640" cy="173880"/>
+          <a:off x="10724400" y="1677960"/>
+          <a:ext cx="134280" cy="173520"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3171,13 +3342,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Bild 1" descr=""/>
+        <xdr:cNvPr id="48" name="Bild 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3186,8 +3357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15050520" y="2816280"/>
-          <a:ext cx="140040" cy="171720"/>
+          <a:off x="15049800" y="2816280"/>
+          <a:ext cx="139680" cy="171360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,13 +3379,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>140040</xdr:colOff>
+      <xdr:colOff>139680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Bild 2" descr=""/>
+        <xdr:cNvPr id="49" name="Bild 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3223,8 +3394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17253000" y="3285360"/>
-          <a:ext cx="140040" cy="171720"/>
+          <a:off x="17252280" y="3285360"/>
+          <a:ext cx="139680" cy="171360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3246,8 +3417,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3793,8 +3964,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,7 +3975,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3837,183 +4008,107 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="L17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="L19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="L20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="L22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="5"/>
+      <c r="F20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
@@ -4028,16 +4123,539 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
@@ -4089,7 +4707,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>30</v>
@@ -4101,7 +4719,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>19</v>
@@ -4111,17 +4729,17 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+    <row r="33" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="B33" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
@@ -4171,17 +4789,17 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
+    <row r="38" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="B38" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
@@ -4221,7 +4839,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>26</v>
@@ -4233,7 +4851,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>42</v>
@@ -4245,7 +4863,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>44</v>
@@ -4309,15 +4927,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
@@ -4327,37 +4945,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="25" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>60</v>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -4420,59 +5038,59 @@
       <c r="BQ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="34" t="n">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="53" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="37" t="n">
+      <c r="H2" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="56" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="38" t="n">
+      <c r="L2" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40" t="n">
+      <c r="M2" s="58"/>
+      <c r="N2" s="59" t="n">
         <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="38" t="n">
+      <c r="Q2" s="57" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40" t="n">
+      <c r="R2" s="58"/>
+      <c r="S2" s="59" t="n">
         <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="38" t="n">
+      <c r="V2" s="57" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="40" t="n">
+      <c r="W2" s="58"/>
+      <c r="X2" s="59" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
@@ -4483,141 +5101,141 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="38" t="n">
+      <c r="AF2" s="57" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>14</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40" t="n">
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59" t="n">
         <f aca="false">AF2+AF4</f>
         <v>15</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="38" t="n">
+      <c r="AK2" s="57" t="n">
         <f aca="false">AH2</f>
         <v>15</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="40" t="n">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="59" t="n">
         <f aca="false">AK2+AK4</f>
         <v>16</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="38" t="n">
+      <c r="AP2" s="57" t="n">
         <f aca="false">AM2</f>
         <v>16</v>
       </c>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="40" t="n">
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="59" t="n">
         <f aca="false">AP2+AP4</f>
         <v>17</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="38" t="n">
+      <c r="AU2" s="57" t="n">
         <f aca="false">AR2</f>
         <v>17</v>
       </c>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="40" t="n">
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="59" t="n">
         <f aca="false">AU2+AU4</f>
         <v>19</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
-      <c r="AZ2" s="38" t="n">
+      <c r="AZ2" s="57" t="n">
         <f aca="false">AW2</f>
         <v>19</v>
       </c>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="40" t="n">
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="59" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>21</v>
       </c>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="38" t="n">
+      <c r="BE2" s="57" t="n">
         <f aca="false">BB2</f>
         <v>21</v>
       </c>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="40" t="n">
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="59" t="n">
         <f aca="false">BE2+BE4</f>
         <v>22</v>
       </c>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
-      <c r="BJ2" s="38" t="n">
+      <c r="BJ2" s="57" t="n">
         <f aca="false">BG2</f>
         <v>22</v>
       </c>
-      <c r="BK2" s="39"/>
-      <c r="BL2" s="40" t="n">
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="59" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>25</v>
       </c>
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
-      <c r="BO2" s="38" t="n">
+      <c r="BO2" s="57" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>29</v>
       </c>
-      <c r="BP2" s="39"/>
-      <c r="BQ2" s="40" t="n">
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="59" t="n">
         <f aca="false">BO2+BO4</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="44" t="n">
+      <c r="F3" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="63" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="45" t="s">
+      <c r="V3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -4625,127 +5243,127 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="45" t="s">
+      <c r="AF3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="45" t="s">
+      <c r="AK3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="45" t="s">
+      <c r="AP3" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AU3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="45" t="s">
+      <c r="AZ3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="45" t="s">
+      <c r="BE3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
-      <c r="BJ3" s="45" t="s">
+      <c r="BJ3" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
-      <c r="BO3" s="45" t="s">
+      <c r="BO3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="43" t="n">
+      <c r="G4" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="44" t="n">
+      <c r="H4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="63" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="46" t="n">
+      <c r="L4" s="65" t="n">
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="47" t="n">
+      <c r="M4" s="66" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="48" t="n">
+      <c r="N4" s="67" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="46" t="n">
+      <c r="Q4" s="65" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="47" t="n">
+      <c r="R4" s="66" t="n">
         <f aca="false">S5-S2</f>
         <v>4</v>
       </c>
-      <c r="S4" s="48" t="n">
+      <c r="S4" s="67" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="46" t="n">
+      <c r="V4" s="65" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="47" t="n">
+      <c r="W4" s="66" t="n">
         <f aca="false">X5-X2</f>
         <v>8</v>
       </c>
-      <c r="X4" s="48" t="n">
+      <c r="X4" s="67" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
@@ -4756,171 +5374,171 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="46" t="n">
+      <c r="AF4" s="65" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="47" t="n">
+      <c r="AG4" s="66" t="n">
         <f aca="false">AH5-AH2</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="48" t="n">
+      <c r="AH4" s="67" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="46" t="n">
+      <c r="AK4" s="65" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="47" t="n">
+      <c r="AL4" s="66" t="n">
         <f aca="false">AM5-AM2</f>
         <v>4</v>
       </c>
-      <c r="AM4" s="48" t="n">
+      <c r="AM4" s="67" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="46" t="n">
+      <c r="AP4" s="65" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="47" t="n">
+      <c r="AQ4" s="66" t="n">
         <f aca="false">AR5-AR2</f>
         <v>4</v>
       </c>
-      <c r="AR4" s="48" t="n">
+      <c r="AR4" s="67" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="46" t="n">
+      <c r="AU4" s="65" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="47" t="n">
+      <c r="AV4" s="66" t="n">
         <f aca="false">AW5-AW2</f>
         <v>4</v>
       </c>
-      <c r="AW4" s="48" t="n">
+      <c r="AW4" s="67" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="46" t="n">
+      <c r="AZ4" s="65" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="47" t="n">
+      <c r="BA4" s="66" t="n">
         <f aca="false">BB5-BB2</f>
         <v>4</v>
       </c>
-      <c r="BB4" s="48" t="n">
+      <c r="BB4" s="67" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="46" t="n">
+      <c r="BE4" s="65" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="47" t="n">
+      <c r="BF4" s="66" t="n">
         <f aca="false">BG5-BG2</f>
         <v>4</v>
       </c>
-      <c r="BG4" s="48" t="n">
+      <c r="BG4" s="67" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
-      <c r="BJ4" s="46" t="n">
+      <c r="BJ4" s="65" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="47" t="n">
+      <c r="BK4" s="66" t="n">
         <f aca="false">BL5-BL2</f>
         <v>4</v>
       </c>
-      <c r="BL4" s="48" t="n">
+      <c r="BL4" s="67" t="n">
         <f aca="false">BO2-BL2</f>
         <v>4</v>
       </c>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="46" t="n">
+      <c r="BO4" s="65" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="47" t="n">
+      <c r="BP4" s="66" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="48"/>
+      <c r="BQ4" s="67"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="43" t="n">
+      <c r="G5" s="62" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="44" t="n">
+      <c r="H5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="63" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="49" t="n">
+      <c r="L5" s="68" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="50" t="n">
+      <c r="M5" s="58"/>
+      <c r="N5" s="69" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="49" t="n">
+      <c r="Q5" s="68" t="n">
         <f aca="false">S5-Q4</f>
         <v>9</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="50" t="n">
+      <c r="R5" s="58"/>
+      <c r="S5" s="69" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>10</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="49" t="n">
+      <c r="V5" s="68" t="n">
         <f aca="false">X5-V4</f>
         <v>14</v>
       </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="50" t="n">
+      <c r="W5" s="58"/>
+      <c r="X5" s="69" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -4931,119 +5549,119 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="49" t="n">
+      <c r="AF5" s="68" t="n">
         <f aca="false">AH5-AF4</f>
         <v>18</v>
       </c>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="50" t="n">
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="69" t="n">
         <f aca="false">AK5</f>
         <v>19</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="49" t="n">
+      <c r="AK5" s="68" t="n">
         <f aca="false">AM5-AK4</f>
         <v>19</v>
       </c>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="50" t="n">
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="69" t="n">
         <f aca="false">AP5</f>
         <v>20</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="49" t="n">
+      <c r="AP5" s="68" t="n">
         <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="50" t="n">
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="69" t="n">
         <f aca="false">AU5</f>
         <v>21</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="49" t="n">
+      <c r="AU5" s="68" t="n">
         <f aca="false">AW5-AU4</f>
         <v>21</v>
       </c>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="50" t="n">
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="69" t="n">
         <f aca="false">AZ5</f>
         <v>23</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="49" t="n">
+      <c r="AZ5" s="68" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>23</v>
       </c>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="50" t="n">
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="69" t="n">
         <f aca="false">BE5</f>
         <v>25</v>
       </c>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-      <c r="BE5" s="49" t="n">
+      <c r="BE5" s="68" t="n">
         <f aca="false">BG5-BE4</f>
         <v>25</v>
       </c>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="50" t="n">
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="69" t="n">
         <f aca="false">BJ5</f>
         <v>26</v>
       </c>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="49" t="n">
+      <c r="BJ5" s="68" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>26</v>
       </c>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="50" t="n">
+      <c r="BK5" s="58"/>
+      <c r="BL5" s="69" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="49" t="n">
+      <c r="BO5" s="68" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>29</v>
       </c>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="50" t="n">
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="69" t="n">
         <f aca="false">BQ2</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="51" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="42" t="n">
+      <c r="G6" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="36" t="n">
+      <c r="H6" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="44" t="n">
+      <c r="J6" s="63" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
@@ -5108,30 +5726,30 @@
       <c r="BQ6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="44" t="n">
+      <c r="G7" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="63" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -5196,30 +5814,30 @@
       <c r="BQ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="51" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="42" t="n">
+      <c r="F8" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="44" t="n">
+      <c r="H8" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="63" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
@@ -5234,23 +5852,23 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="38" t="n">
+      <c r="V8" s="57" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40" t="n">
+      <c r="W8" s="58"/>
+      <c r="X8" s="59" t="n">
         <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="38" t="n">
+      <c r="AA8" s="57" t="n">
         <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="40" t="n">
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="59" t="n">
         <f aca="false">AA8+AA10</f>
         <v>14</v>
       </c>
@@ -5296,31 +5914,31 @@
       <c r="BQ8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="51" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="42" t="n">
+      <c r="G9" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="36" t="n">
+      <c r="H9" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J9" s="44" t="n">
+      <c r="J9" s="63" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
@@ -5335,18 +5953,18 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="45" t="s">
+      <c r="V9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="45" t="s">
+      <c r="AA9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -5389,31 +6007,31 @@
       <c r="BQ9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="51" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="42" t="n">
+      <c r="G10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="36" t="n">
+      <c r="H10" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J10" s="44" t="n">
+      <c r="J10" s="63" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
@@ -5428,29 +6046,29 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="46" t="n">
+      <c r="V10" s="65" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="47" t="n">
+      <c r="W10" s="66" t="n">
         <f aca="false">X11-X8</f>
         <v>4</v>
       </c>
-      <c r="X10" s="48" t="n">
+      <c r="X10" s="67" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="46" t="n">
+      <c r="AA10" s="65" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="47" t="n">
+      <c r="AB10" s="66" t="n">
         <f aca="false">AC11-AC8</f>
         <v>4</v>
       </c>
-      <c r="AC10" s="48" t="n">
+      <c r="AC10" s="67" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
@@ -5496,31 +6114,31 @@
       <c r="BQ10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="51" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="42" t="n">
+      <c r="G11" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="36" t="n">
+      <c r="H11" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J11" s="44" t="n">
+      <c r="J11" s="63" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
@@ -5535,23 +6153,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="49" t="n">
+      <c r="V11" s="68" t="n">
         <f aca="false">X11-V10</f>
         <v>10</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="50" t="n">
+      <c r="W11" s="58"/>
+      <c r="X11" s="69" t="n">
         <f aca="false">AA11</f>
         <v>13</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="49" t="n">
+      <c r="AA11" s="68" t="n">
         <f aca="false">AC11-AA10</f>
         <v>13</v>
       </c>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="50" t="n">
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="69" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -5597,30 +6215,30 @@
       <c r="BQ11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="51" t="s">
+      <c r="B12" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="42" t="n">
+      <c r="G12" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="36" t="n">
+      <c r="H12" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="44" t="n">
+      <c r="J12" s="63" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
@@ -5685,31 +6303,31 @@
       <c r="BQ12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="51" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="42" t="n">
+      <c r="G13" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="36" t="n">
+      <c r="H13" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="44" t="n">
+      <c r="J13" s="63" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
@@ -5774,31 +6392,31 @@
       <c r="BQ13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="42" t="n">
+      <c r="G14" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="36" t="n">
+      <c r="H14" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J14" s="44" t="n">
+      <c r="J14" s="63" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
@@ -5808,34 +6426,34 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="38" t="n">
+      <c r="Q14" s="57" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="40" t="n">
+      <c r="R14" s="58"/>
+      <c r="S14" s="59" t="n">
         <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="38" t="n">
+      <c r="V14" s="57" t="n">
         <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="39"/>
-      <c r="X14" s="40" t="n">
+      <c r="W14" s="58"/>
+      <c r="X14" s="59" t="n">
         <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="38" t="n">
+      <c r="AA14" s="57" t="n">
         <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="40" t="n">
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="59" t="n">
         <f aca="false">AA14+AA16</f>
         <v>29</v>
       </c>
@@ -5881,31 +6499,31 @@
       <c r="BQ14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="51" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="36" t="n">
+      <c r="G15" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J15" s="44" t="n">
+      <c r="J15" s="63" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
@@ -5915,25 +6533,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="45" t="s">
+      <c r="V15" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="45" t="s">
+      <c r="AA15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -5976,31 +6594,31 @@
       <c r="BQ15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="51" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="42" t="n">
+      <c r="G16" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="36" t="n">
+      <c r="H16" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J16" s="44" t="n">
+      <c r="J16" s="63" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
@@ -6010,43 +6628,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="46" t="n">
+      <c r="Q16" s="65" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="47" t="n">
+      <c r="R16" s="66" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="48" t="n">
+      <c r="S16" s="67" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="46" t="n">
+      <c r="V16" s="65" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="47" t="n">
+      <c r="W16" s="66" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="48" t="n">
+      <c r="X16" s="67" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="46" t="n">
+      <c r="AA16" s="65" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="47" t="n">
+      <c r="AB16" s="66" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="48" t="n">
+      <c r="AC16" s="67" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
@@ -6092,28 +6710,28 @@
       <c r="BQ16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="58" t="n">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="77" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -6123,34 +6741,34 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="49" t="n">
+      <c r="Q17" s="68" t="n">
         <f aca="false">S17-Q16</f>
         <v>5</v>
       </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="50" t="n">
+      <c r="R17" s="58"/>
+      <c r="S17" s="69" t="n">
         <f aca="false">V17</f>
         <v>6</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="49" t="n">
+      <c r="V17" s="68" t="n">
         <f aca="false">X17-V16</f>
         <v>6</v>
       </c>
-      <c r="W17" s="39"/>
-      <c r="X17" s="50" t="n">
+      <c r="W17" s="58"/>
+      <c r="X17" s="69" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>9</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="49" t="n">
+      <c r="AA17" s="68" t="n">
         <f aca="false">AC17-AA16</f>
         <v>9</v>
       </c>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="50" t="n">
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="69" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
@@ -6200,9 +6818,9 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -6265,11 +6883,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3"/>
       <c r="K19" s="3"/>
@@ -6333,15 +6951,15 @@
       <c r="BQ19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40" t="s">
-        <v>72</v>
+      <c r="A20" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -6404,11 +7022,11 @@
       <c r="BQ20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -6471,17 +7089,17 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>77</v>
+      <c r="A22" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -6544,15 +7162,15 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="50" t="s">
-        <v>80</v>
+      <c r="A23" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -6680,16 +7298,16 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>60</v>
+      <c r="A25" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="F25" s="59" t="s">
-        <v>82</v>
+      <c r="F25" s="78" t="s">
+        <v>96</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -6752,23 +7370,23 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="38" t="s">
+      <c r="A26" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>87</v>
+      <c r="B26" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>101</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -6831,94 +7449,94 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>89</v>
+      <c r="A27" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="50" t="s">
+      <c r="B30" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="B31" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>92</v>
+      <c r="D31" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6975,14 +7593,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
@@ -6990,23 +7608,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="25" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="25" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="25" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="9" style="25" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="60" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="20" style="25" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="60" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="49" style="25" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="60" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="56" style="25" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="60" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="25" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="25" width="7.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="25" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="25" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="44" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="44" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="44" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="44" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="44" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="44" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="44" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7018,181 +7628,181 @@
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="61" t="n">
+      <c r="E1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="79" t="n">
         <v>45019</v>
       </c>
-      <c r="J1" s="61" t="n">
+      <c r="J1" s="79" t="n">
         <v>45020</v>
       </c>
-      <c r="K1" s="61" t="n">
+      <c r="K1" s="79" t="n">
         <v>45021</v>
       </c>
-      <c r="L1" s="61" t="n">
+      <c r="L1" s="79" t="n">
         <v>45022</v>
       </c>
-      <c r="M1" s="61" t="n">
+      <c r="M1" s="79" t="n">
         <v>45023</v>
       </c>
-      <c r="N1" s="61" t="n">
+      <c r="N1" s="79" t="n">
         <v>45024</v>
       </c>
-      <c r="O1" s="61" t="n">
+      <c r="O1" s="79" t="n">
         <v>45025</v>
       </c>
-      <c r="P1" s="61" t="n">
+      <c r="P1" s="79" t="n">
         <v>45026</v>
       </c>
-      <c r="Q1" s="61" t="n">
+      <c r="Q1" s="79" t="n">
         <v>45027</v>
       </c>
-      <c r="R1" s="61" t="n">
+      <c r="R1" s="79" t="n">
         <v>45028</v>
       </c>
-      <c r="S1" s="62" t="n">
+      <c r="S1" s="79" t="n">
         <v>45029</v>
       </c>
-      <c r="T1" s="61" t="n">
+      <c r="T1" s="79" t="n">
         <v>45030</v>
       </c>
-      <c r="U1" s="61" t="n">
+      <c r="U1" s="79" t="n">
         <v>45031</v>
       </c>
-      <c r="V1" s="61" t="n">
+      <c r="V1" s="79" t="n">
         <v>45032</v>
       </c>
-      <c r="W1" s="61" t="n">
+      <c r="W1" s="79" t="n">
         <v>45033</v>
       </c>
-      <c r="X1" s="61" t="n">
+      <c r="X1" s="79" t="n">
         <v>45034</v>
       </c>
-      <c r="Y1" s="61" t="n">
+      <c r="Y1" s="79" t="n">
         <v>45035</v>
       </c>
-      <c r="Z1" s="61" t="n">
+      <c r="Z1" s="79" t="n">
         <v>45036</v>
       </c>
-      <c r="AA1" s="61" t="n">
+      <c r="AA1" s="79" t="n">
         <v>45037</v>
       </c>
-      <c r="AB1" s="61" t="n">
+      <c r="AB1" s="79" t="n">
         <v>45038</v>
       </c>
-      <c r="AC1" s="61" t="n">
+      <c r="AC1" s="79" t="n">
         <v>45039</v>
       </c>
-      <c r="AD1" s="61" t="n">
+      <c r="AD1" s="79" t="n">
         <v>45040</v>
       </c>
-      <c r="AE1" s="61" t="n">
+      <c r="AE1" s="79" t="n">
         <v>45041</v>
       </c>
-      <c r="AF1" s="61" t="n">
+      <c r="AF1" s="79" t="n">
         <v>45042</v>
       </c>
-      <c r="AG1" s="61" t="n">
+      <c r="AG1" s="79" t="n">
         <v>45043</v>
       </c>
-      <c r="AH1" s="61" t="n">
+      <c r="AH1" s="79" t="n">
         <v>45044</v>
       </c>
-      <c r="AI1" s="61" t="n">
+      <c r="AI1" s="79" t="n">
         <v>45045</v>
       </c>
-      <c r="AJ1" s="61" t="n">
+      <c r="AJ1" s="79" t="n">
         <v>45046</v>
       </c>
-      <c r="AK1" s="61" t="n">
+      <c r="AK1" s="79" t="n">
         <v>45047</v>
       </c>
-      <c r="AL1" s="61" t="n">
+      <c r="AL1" s="79" t="n">
         <v>45048</v>
       </c>
-      <c r="AM1" s="61" t="n">
+      <c r="AM1" s="79" t="n">
         <v>45049</v>
       </c>
-      <c r="AN1" s="61" t="n">
+      <c r="AN1" s="79" t="n">
         <v>45050</v>
       </c>
-      <c r="AO1" s="61" t="n">
+      <c r="AO1" s="79" t="n">
         <v>45051</v>
       </c>
-      <c r="AP1" s="61" t="n">
+      <c r="AP1" s="79" t="n">
         <v>45052</v>
       </c>
-      <c r="AQ1" s="61" t="n">
+      <c r="AQ1" s="79" t="n">
         <v>45053</v>
       </c>
-      <c r="AR1" s="61" t="n">
+      <c r="AR1" s="79" t="n">
         <v>45054</v>
       </c>
-      <c r="AS1" s="61" t="n">
+      <c r="AS1" s="79" t="n">
         <v>45055</v>
       </c>
-      <c r="AT1" s="61" t="n">
+      <c r="AT1" s="79" t="n">
         <v>45056</v>
       </c>
-      <c r="AU1" s="61" t="n">
+      <c r="AU1" s="79" t="n">
         <v>45057</v>
       </c>
-      <c r="AV1" s="62" t="n">
+      <c r="AV1" s="79" t="n">
         <v>45058</v>
       </c>
-      <c r="AW1" s="61" t="n">
+      <c r="AW1" s="79" t="n">
         <v>45059</v>
       </c>
-      <c r="AX1" s="61" t="n">
+      <c r="AX1" s="79" t="n">
         <v>45060</v>
       </c>
-      <c r="AY1" s="61" t="n">
+      <c r="AY1" s="79" t="n">
         <v>45061</v>
       </c>
-      <c r="AZ1" s="61" t="n">
+      <c r="AZ1" s="79" t="n">
         <v>45062</v>
       </c>
-      <c r="BA1" s="61" t="n">
+      <c r="BA1" s="79" t="n">
         <v>45063</v>
       </c>
-      <c r="BB1" s="61" t="n">
+      <c r="BB1" s="79" t="n">
         <v>45064</v>
       </c>
-      <c r="BC1" s="62" t="n">
+      <c r="BC1" s="79" t="n">
         <v>45065</v>
       </c>
-      <c r="BD1" s="61" t="n">
+      <c r="BD1" s="79" t="n">
         <v>45066</v>
       </c>
-      <c r="BE1" s="61" t="n">
+      <c r="BE1" s="79" t="n">
         <v>45067</v>
       </c>
-      <c r="BF1" s="61" t="n">
+      <c r="BF1" s="79" t="n">
         <v>45068</v>
       </c>
-      <c r="BG1" s="61" t="n">
+      <c r="BG1" s="79" t="n">
         <v>45069</v>
       </c>
-      <c r="BH1" s="61" t="n">
+      <c r="BH1" s="79" t="n">
         <v>45070</v>
       </c>
-      <c r="BI1" s="62" t="n">
+      <c r="BI1" s="79" t="n">
         <v>45071</v>
       </c>
-      <c r="BJ1" s="62" t="n">
+      <c r="BJ1" s="79" t="n">
         <v>45072</v>
       </c>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="65"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="82"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
@@ -7203,85 +7813,85 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="66" t="n">
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="83" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="67" t="n">
+      <c r="H2" s="84" t="n">
         <f aca="false">SUM(I2:BJ2)</f>
         <v>5</v>
       </c>
-      <c r="I2" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="65"/>
+      <c r="I2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
@@ -7292,79 +7902,79 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="66" t="n">
+      <c r="F3" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="83" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="67" t="n">
+      <c r="H3" s="84" t="n">
         <f aca="false">SUM(I3:BJ3)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="65"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="91"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="82"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -7375,85 +7985,85 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="66" t="n">
+      <c r="G4" s="83" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="67" t="n">
+      <c r="H4" s="84" t="n">
         <f aca="false">SUM(I4:BJ4)</f>
         <v>4</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="74"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="74"/>
-      <c r="BH4" s="74"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="65"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="82"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
@@ -7464,83 +8074,83 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="66" t="n">
+      <c r="G5" s="83" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="67" t="n">
+      <c r="H5" s="84" t="n">
         <f aca="false">SUM(I5:BJ5)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="75"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="74"/>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="74"/>
-      <c r="BH5" s="74"/>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="78"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="64"/>
-      <c r="BM5" s="65"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="90"/>
+      <c r="BJ5" s="93"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="81"/>
+      <c r="BM5" s="82"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
@@ -7551,87 +8161,87 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="66" t="n">
+      <c r="G6" s="83" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="H6" s="67" t="n">
+      <c r="H6" s="84" t="n">
         <f aca="false">SUM(I6:BJ6)</f>
         <v>5</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="74"/>
-      <c r="AN6" s="74"/>
-      <c r="AO6" s="74"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="77"/>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="75"/>
-      <c r="BC6" s="77"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="74"/>
-      <c r="BF6" s="74"/>
-      <c r="BG6" s="74"/>
-      <c r="BH6" s="74"/>
-      <c r="BI6" s="77"/>
-      <c r="BJ6" s="78"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="65"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="80"/>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="82"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
@@ -7642,79 +8252,79 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="66" t="n">
+      <c r="G7" s="83" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="67" t="n">
+      <c r="H7" s="84" t="n">
         <f aca="false">SUM(I7:BJ7)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="77"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="77"/>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
-      <c r="BI7" s="77"/>
-      <c r="BJ7" s="78"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="65"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="80"/>
+      <c r="BL7" s="81"/>
+      <c r="BM7" s="82"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
@@ -7725,152 +8335,152 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="66" t="n">
+      <c r="F8" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="83" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="67" t="n">
+      <c r="H8" s="84" t="n">
         <f aca="false">SUM(I8:BJ8)</f>
         <v>3</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="74"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="74"/>
-      <c r="BG8" s="74"/>
-      <c r="BH8" s="74"/>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="78"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="65"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="90"/>
+      <c r="BA8" s="90"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="90"/>
+      <c r="BH8" s="90"/>
+      <c r="BI8" s="90"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="81"/>
+      <c r="BM8" s="82"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="74"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="74"/>
-      <c r="BG9" s="74"/>
-      <c r="BH9" s="74"/>
-      <c r="BI9" s="77"/>
-      <c r="BJ9" s="78"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="64"/>
-      <c r="BM9" s="65"/>
+      <c r="A9" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="90"/>
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="82"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
@@ -7881,79 +8491,76 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="66" t="n">
+      <c r="G10" s="83" t="n">
         <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="H10" s="67" t="n">
+      <c r="H10" s="84" t="n">
         <f aca="false">SUM(I10:BJ10)</f>
         <v>1</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
-      <c r="AG10" s="0"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="78"/>
-      <c r="BK10" s="63"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="65"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="94"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="80"/>
+      <c r="BL10" s="81"/>
+      <c r="BM10" s="82"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
@@ -7964,78 +8571,75 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="66" t="n">
+      <c r="G11" s="83" t="n">
         <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="H11" s="67" t="n">
+      <c r="H11" s="84" t="n">
         <f aca="false">SUM(I11:BJ11)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AE11" s="0"/>
-      <c r="AF11" s="0"/>
-      <c r="AG11" s="0"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="75"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="74"/>
-      <c r="BE11" s="74"/>
-      <c r="BF11" s="74"/>
-      <c r="BG11" s="74"/>
-      <c r="BH11" s="74"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="78"/>
-      <c r="BK11" s="63"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="65"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="93"/>
+      <c r="BK11" s="80"/>
+      <c r="BL11" s="81"/>
+      <c r="BM11" s="82"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
@@ -8046,199 +8650,196 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="66" t="n">
+      <c r="G12" s="83" t="n">
         <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="H12" s="67" t="n">
+      <c r="H12" s="84" t="n">
         <f aca="false">SUM(I12:BJ12)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="74"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="74"/>
-      <c r="AT12" s="74"/>
-      <c r="AU12" s="74"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="74"/>
-      <c r="AX12" s="74"/>
-      <c r="AY12" s="74"/>
-      <c r="AZ12" s="74"/>
-      <c r="BA12" s="74"/>
-      <c r="BB12" s="75"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="74"/>
-      <c r="BE12" s="74"/>
-      <c r="BF12" s="74"/>
-      <c r="BG12" s="74"/>
-      <c r="BH12" s="74"/>
-      <c r="BI12" s="77"/>
-      <c r="BJ12" s="78"/>
-      <c r="BK12" s="63"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="65"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="90"/>
+      <c r="BA12" s="90"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="90"/>
+      <c r="BD12" s="90"/>
+      <c r="BE12" s="90"/>
+      <c r="BF12" s="90"/>
+      <c r="BG12" s="90"/>
+      <c r="BH12" s="90"/>
+      <c r="BI12" s="90"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="80"/>
+      <c r="BL12" s="81"/>
+      <c r="BM12" s="82"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="66" t="n">
+      <c r="G13" s="83" t="n">
         <f aca="false">Netzplan!J12</f>
         <v>20</v>
       </c>
-      <c r="H13" s="67" t="n">
+      <c r="H13" s="84" t="n">
         <f aca="false">SUM(I13:BJ13)</f>
         <v>20</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="74"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="74"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="74"/>
-      <c r="AX13" s="74"/>
-      <c r="AY13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="79"/>
-      <c r="BB13" s="76"/>
-      <c r="BC13" s="77"/>
-      <c r="BD13" s="74"/>
-      <c r="BE13" s="74"/>
-      <c r="BF13" s="74"/>
-      <c r="BG13" s="74"/>
-      <c r="BH13" s="74"/>
-      <c r="BI13" s="77"/>
-      <c r="BJ13" s="78"/>
-      <c r="BK13" s="63"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="65"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="90"/>
+      <c r="BD13" s="90"/>
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="90"/>
+      <c r="BG13" s="90"/>
+      <c r="BH13" s="90"/>
+      <c r="BI13" s="90"/>
+      <c r="BJ13" s="93"/>
+      <c r="BK13" s="80"/>
+      <c r="BL13" s="81"/>
+      <c r="BM13" s="82"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
@@ -8249,81 +8850,77 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="66" t="n">
+      <c r="G14" s="83" t="n">
         <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
-      <c r="H14" s="67" t="n">
+      <c r="H14" s="84" t="n">
         <f aca="false">SUM(I14:BJ14)</f>
         <v>2</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="0"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="0"/>
-      <c r="AM14" s="0"/>
-      <c r="AN14" s="0"/>
-      <c r="AO14" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="74"/>
-      <c r="AR14" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="79"/>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="77"/>
-      <c r="AW14" s="74"/>
-      <c r="AX14" s="74"/>
-      <c r="AY14" s="74"/>
-      <c r="AZ14" s="74"/>
-      <c r="BA14" s="74"/>
-      <c r="BB14" s="75"/>
-      <c r="BC14" s="77"/>
-      <c r="BD14" s="74"/>
-      <c r="BE14" s="74"/>
-      <c r="BF14" s="74"/>
-      <c r="BG14" s="74"/>
-      <c r="BH14" s="74"/>
-      <c r="BI14" s="77"/>
-      <c r="BJ14" s="78"/>
-      <c r="BK14" s="63"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="65"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="92"/>
+      <c r="AO14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="90"/>
+      <c r="BA14" s="90"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="90"/>
+      <c r="BD14" s="90"/>
+      <c r="BE14" s="90"/>
+      <c r="BF14" s="90"/>
+      <c r="BG14" s="90"/>
+      <c r="BH14" s="90"/>
+      <c r="BI14" s="90"/>
+      <c r="BJ14" s="93"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="81"/>
+      <c r="BM14" s="82"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
@@ -8334,81 +8931,78 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="66" t="n">
+      <c r="G15" s="83" t="n">
         <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="H15" s="67" t="n">
+      <c r="H15" s="84" t="n">
         <f aca="false">SUM(I15:BJ15)</f>
         <v>2</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="0"/>
-      <c r="AM15" s="0"/>
-      <c r="AN15" s="0"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="74"/>
-      <c r="AS15" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="74"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="74"/>
-      <c r="AX15" s="74"/>
-      <c r="AY15" s="74"/>
-      <c r="AZ15" s="74"/>
-      <c r="BA15" s="74"/>
-      <c r="BB15" s="75"/>
-      <c r="BC15" s="77"/>
-      <c r="BD15" s="74"/>
-      <c r="BE15" s="74"/>
-      <c r="BF15" s="74"/>
-      <c r="BG15" s="74"/>
-      <c r="BH15" s="74"/>
-      <c r="BI15" s="77"/>
-      <c r="BJ15" s="78"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="64"/>
-      <c r="BM15" s="65"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="97"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="90"/>
+      <c r="BA15" s="90"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="90"/>
+      <c r="BD15" s="90"/>
+      <c r="BE15" s="90"/>
+      <c r="BF15" s="90"/>
+      <c r="BG15" s="90"/>
+      <c r="BH15" s="90"/>
+      <c r="BI15" s="90"/>
+      <c r="BJ15" s="93"/>
+      <c r="BK15" s="80"/>
+      <c r="BL15" s="81"/>
+      <c r="BM15" s="82"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
@@ -8419,78 +9013,73 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="66" t="n">
+      <c r="G16" s="83" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="H16" s="67" t="n">
+      <c r="H16" s="84" t="n">
         <f aca="false">SUM(I16:BJ16)</f>
         <v>1</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="0"/>
-      <c r="AM16" s="0"/>
-      <c r="AN16" s="0"/>
-      <c r="AO16" s="0"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="74"/>
-      <c r="AS16" s="78"/>
-      <c r="AU16" s="0"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="74"/>
-      <c r="AX16" s="74"/>
-      <c r="AY16" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="74"/>
-      <c r="BA16" s="74"/>
-      <c r="BB16" s="75"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="74"/>
-      <c r="BE16" s="74"/>
-      <c r="BF16" s="74"/>
-      <c r="BG16" s="74"/>
-      <c r="BH16" s="74"/>
-      <c r="BI16" s="77"/>
-      <c r="BJ16" s="78"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="64"/>
-      <c r="BM16" s="65"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="97"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="93"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="90"/>
+      <c r="BA16" s="90"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="90"/>
+      <c r="BD16" s="90"/>
+      <c r="BE16" s="90"/>
+      <c r="BF16" s="90"/>
+      <c r="BG16" s="90"/>
+      <c r="BH16" s="90"/>
+      <c r="BI16" s="90"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="82"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
@@ -8501,83 +9090,83 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="66" t="n">
+      <c r="G17" s="83" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="H17" s="67" t="n">
+      <c r="H17" s="84" t="n">
         <f aca="false">SUM(I17:BJ17)</f>
         <v>3</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="74"/>
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="74"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="74"/>
-      <c r="AU17" s="79"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="74"/>
-      <c r="AX17" s="74"/>
-      <c r="AY17" s="79"/>
-      <c r="AZ17" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="75"/>
-      <c r="BC17" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="74"/>
-      <c r="BE17" s="74"/>
-      <c r="BF17" s="74"/>
-      <c r="BG17" s="74"/>
-      <c r="BH17" s="74"/>
-      <c r="BI17" s="77"/>
-      <c r="BJ17" s="78"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="64"/>
-      <c r="BM17" s="65"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="90"/>
+      <c r="BE17" s="90"/>
+      <c r="BF17" s="90"/>
+      <c r="BG17" s="90"/>
+      <c r="BH17" s="90"/>
+      <c r="BI17" s="90"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="80"/>
+      <c r="BL17" s="81"/>
+      <c r="BM17" s="82"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
@@ -8588,85 +9177,84 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="66" t="n">
+      <c r="E18" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="83" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="H18" s="67" t="n">
+      <c r="H18" s="84" t="n">
         <f aca="false">SUM(I18:BJ18)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="0"/>
-      <c r="BB18" s="85"/>
-      <c r="BC18" s="86"/>
-      <c r="BD18" s="84"/>
-      <c r="BE18" s="84"/>
-      <c r="BF18" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG18" s="84"/>
-      <c r="BH18" s="84"/>
-      <c r="BI18" s="86"/>
-      <c r="BJ18" s="88"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="64"/>
-      <c r="BM18" s="65"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="98"/>
+      <c r="AS18" s="98"/>
+      <c r="AT18" s="98"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="AW18" s="98"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="100"/>
+      <c r="AZ18" s="100"/>
+      <c r="BB18" s="99"/>
+      <c r="BC18" s="98"/>
+      <c r="BD18" s="98"/>
+      <c r="BE18" s="98"/>
+      <c r="BF18" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="98"/>
+      <c r="BH18" s="98"/>
+      <c r="BI18" s="98"/>
+      <c r="BJ18" s="101"/>
+      <c r="BK18" s="80"/>
+      <c r="BL18" s="81"/>
+      <c r="BM18" s="82"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -3417,7 +3417,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -3964,7 +3964,7 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4373,7 +4373,7 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -4934,8 +4934,8 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
@@ -7600,7 +7600,7 @@
   </sheetPr>
   <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PSP zeitlich" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Netzplan" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="PSP funktionsorientiert_2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PSP zeitlich" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Netzplan" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Gantt" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="114">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -33,60 +35,181 @@
     <t xml:space="preserve">Fr. Claire</t>
   </si>
   <si>
+    <t xml:space="preserve">Produkt-Katalogisierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation, Tests,
+Kundenbetreuung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr. Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte kategorisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte erfassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template auswählen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenstruktur einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahlungsdienste einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewertungssystem anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSP-ID</t>
   </si>
   <si>
     <t xml:space="preserve">Arbeitspaket</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte kategorisieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte erfassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos bearbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template auswählen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seitenstruktur einrichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenbank einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahlungsdienste einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bewertungssystem anpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbücher erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korrekturen</t>
   </si>
   <si>
-    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+    <t xml:space="preserve">1.2.7</t>
   </si>
   <si>
     <t xml:space="preserve">eventuelle Korrekturen</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Onlinestellung</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Nyugen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr Nygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Webseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Datenbanke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
   <si>
@@ -99,54 +222,9 @@
     <t xml:space="preserve">Abschluss</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.4</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.5</t>
   </si>
   <si>
@@ -181,21 +259,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.1.2, 1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.9</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -367,19 +430,27 @@
       <t xml:space="preserve"> FEZ</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Vorarbeiten abgeschlossen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektabschluss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00\ %"/>
-    <numFmt numFmtId="167" formatCode="0\ %"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="0.00\ %"/>
+    <numFmt numFmtId="169" formatCode="0\ %"/>
+    <numFmt numFmtId="170" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -432,6 +503,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFAFAFA"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -467,8 +543,36 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF55308D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF8000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,7 +582,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFBC02D"/>
       </patternFill>
     </fill>
     <fill>
@@ -497,6 +601,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAADCF7"/>
         <bgColor rgb="FF81D4FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD54F"/>
+        <bgColor rgb="FFFBC02D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE040FB"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC02D"/>
+        <bgColor rgb="FFFFBF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -520,13 +648,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9CCC65"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1B5E20"/>
-        <bgColor rgb="FF333333"/>
+        <bgColor rgb="FF127622"/>
       </patternFill>
     </fill>
     <fill>
@@ -544,13 +672,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5722"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB71C1C"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
   </fills>
@@ -646,7 +780,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,6 +805,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -683,7 +825,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -695,7 +837,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -707,7 +849,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,6 +861,82 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,7 +945,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,7 +953,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,11 +973,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,11 +985,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -779,19 +997,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -799,11 +1017,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -815,39 +1033,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -855,11 +1073,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -867,16 +1085,112 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -891,7 +1205,7 @@
     <cellStyle name="KritischerPfad" xfId="21"/>
     <cellStyle name="Wochenende" xfId="22"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -900,6 +1214,48 @@
         <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFBF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBF00"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -910,27 +1266,27 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFE040FB"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF1B5E20"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAADCF7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFBC02D"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFAADCF7"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF176"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -943,12 +1299,12 @@
       <rgbColor rgb="FF81D4FA"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCE93D8"/>
-      <rgbColor rgb="FFFFF176"/>
+      <rgbColor rgb="FFFFD54F"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9CCC65"/>
       <rgbColor rgb="FFFFBF00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF5722"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
@@ -958,14 +1314,967 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFB71C1C"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF55308D"/>
+      <rgbColor rgb="FF1B5E20"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>892080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>892080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8223120" y="325080"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>886320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>902880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5460840" y="479520"/>
+          <a:ext cx="5529600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>906840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>906840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5481360" y="488520"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5493960" y="488520"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="488520"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11006640" y="488520"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5493960" y="1122120"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5493960" y="1609920"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5493960" y="2098080"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5493960" y="2584800"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="1122120"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="1609920"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="2098080"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="2584800"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="3072600"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="3560760"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="4047480"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="4535280"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8250480" y="5023440"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11007000" y="2097720"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11007000" y="1609920"/>
+          <a:ext cx="0" cy="170280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11007000" y="1121760"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>892080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>892080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8223120" y="325080"/>
+          <a:ext cx="0" cy="171000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -982,7 +2291,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="23" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1024,7 +2333,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="24" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1066,7 +2375,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="25" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1108,7 +2417,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="26" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1150,7 +2459,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="27" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1192,7 +2501,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="28" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1234,7 +2543,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="29" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1276,7 +2585,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="30" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1318,7 +2627,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="31" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1360,7 +2669,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="32" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1402,7 +2711,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvPr id="33" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1444,7 +2753,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvPr id="34" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1486,7 +2795,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvPr id="35" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1528,7 +2837,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvPr id="36" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1570,7 +2879,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvPr id="37" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1612,7 +2921,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvPr id="38" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1654,7 +2963,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvPr id="39" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1696,7 +3005,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvPr id="40" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1738,7 +3047,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvPr id="41" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1780,7 +3089,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvPr id="42" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1822,7 +3131,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvPr id="43" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1864,7 +3173,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvPr id="44" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1906,7 +3215,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvPr id="45" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1948,7 +3257,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvPr id="46" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1978,6 +3287,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>43200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>177480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Form 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10724400" y="1677960"/>
+          <a:ext cx="134280" cy="173520"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>211680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Bild 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15049800" y="2816280"/>
+          <a:ext cx="139680" cy="171360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>139680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Bild 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17252280" y="3285360"/>
+          <a:ext cx="139680" cy="171360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1985,8 +3417,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2027,183 +3459,881 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="24.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="24.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="I26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="I27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="I29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="I30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="I32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="A33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="I33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="A37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="A38" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="A39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="A40" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="38">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="24.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -2221,6 +4351,9 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2229,18 +4362,19 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="1" sqref="A26:A41 L22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2250,7 +4384,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2283,423 +4417,461 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2755,15 +4927,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W16" activeCellId="1" sqref="A26:A41 W16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -2771,37 +4945,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="23" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>49</v>
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2864,59 +5038,59 @@
       <c r="BQ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="53" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="35" t="n">
+      <c r="H2" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="56" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="36" t="n">
+      <c r="L2" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38" t="n">
+      <c r="M2" s="58"/>
+      <c r="N2" s="59" t="n">
         <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="36" t="n">
+      <c r="Q2" s="57" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38" t="n">
+      <c r="R2" s="58"/>
+      <c r="S2" s="59" t="n">
         <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="36" t="n">
+      <c r="V2" s="57" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="38" t="n">
+      <c r="W2" s="58"/>
+      <c r="X2" s="59" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
@@ -2927,141 +5101,141 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="36" t="n">
+      <c r="AF2" s="57" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>14</v>
       </c>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="38" t="n">
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59" t="n">
         <f aca="false">AF2+AF4</f>
         <v>15</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="36" t="n">
+      <c r="AK2" s="57" t="n">
         <f aca="false">AH2</f>
         <v>15</v>
       </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="38" t="n">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="59" t="n">
         <f aca="false">AK2+AK4</f>
         <v>16</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="36" t="n">
+      <c r="AP2" s="57" t="n">
         <f aca="false">AM2</f>
         <v>16</v>
       </c>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="38" t="n">
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="59" t="n">
         <f aca="false">AP2+AP4</f>
         <v>17</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="36" t="n">
+      <c r="AU2" s="57" t="n">
         <f aca="false">AR2</f>
         <v>17</v>
       </c>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="38" t="n">
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="59" t="n">
         <f aca="false">AU2+AU4</f>
         <v>19</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
-      <c r="AZ2" s="36" t="n">
+      <c r="AZ2" s="57" t="n">
         <f aca="false">AW2</f>
         <v>19</v>
       </c>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="38" t="n">
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="59" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>21</v>
       </c>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="36" t="n">
+      <c r="BE2" s="57" t="n">
         <f aca="false">BB2</f>
         <v>21</v>
       </c>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="38" t="n">
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="59" t="n">
         <f aca="false">BE2+BE4</f>
         <v>22</v>
       </c>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
-      <c r="BJ2" s="36" t="n">
+      <c r="BJ2" s="57" t="n">
         <f aca="false">BG2</f>
         <v>22</v>
       </c>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="38" t="n">
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="59" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>25</v>
       </c>
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
-      <c r="BO2" s="36" t="n">
+      <c r="BO2" s="57" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>29</v>
       </c>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="38" t="n">
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="59" t="n">
         <f aca="false">BO2+BO4</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="42" t="n">
+      <c r="A3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="63" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
+      <c r="L3" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="Q3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
+      <c r="V3" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -3069,127 +5243,127 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
+      <c r="AF3" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
+      <c r="AK3" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
+      <c r="AP3" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
+      <c r="AU3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
+      <c r="AZ3" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
+      <c r="BE3" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
-      <c r="BJ3" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
+      <c r="BJ3" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
-      <c r="BO3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
+      <c r="BO3" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="41" t="n">
+      <c r="A4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="42" t="n">
+      <c r="H4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="63" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="44" t="n">
+      <c r="L4" s="65" t="n">
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="45" t="n">
+      <c r="M4" s="66" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="46" t="n">
+      <c r="N4" s="67" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="44" t="n">
+      <c r="Q4" s="65" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="45" t="n">
+      <c r="R4" s="66" t="n">
         <f aca="false">S5-S2</f>
         <v>4</v>
       </c>
-      <c r="S4" s="46" t="n">
+      <c r="S4" s="67" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="44" t="n">
+      <c r="V4" s="65" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="45" t="n">
+      <c r="W4" s="66" t="n">
         <f aca="false">X5-X2</f>
         <v>8</v>
       </c>
-      <c r="X4" s="46" t="n">
+      <c r="X4" s="67" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
@@ -3200,171 +5374,171 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="44" t="n">
+      <c r="AF4" s="65" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="45" t="n">
+      <c r="AG4" s="66" t="n">
         <f aca="false">AH5-AH2</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="46" t="n">
+      <c r="AH4" s="67" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="44" t="n">
+      <c r="AK4" s="65" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="45" t="n">
+      <c r="AL4" s="66" t="n">
         <f aca="false">AM5-AM2</f>
         <v>4</v>
       </c>
-      <c r="AM4" s="46" t="n">
+      <c r="AM4" s="67" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="44" t="n">
+      <c r="AP4" s="65" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="45" t="n">
+      <c r="AQ4" s="66" t="n">
         <f aca="false">AR5-AR2</f>
         <v>4</v>
       </c>
-      <c r="AR4" s="46" t="n">
+      <c r="AR4" s="67" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="44" t="n">
+      <c r="AU4" s="65" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="45" t="n">
+      <c r="AV4" s="66" t="n">
         <f aca="false">AW5-AW2</f>
         <v>4</v>
       </c>
-      <c r="AW4" s="46" t="n">
+      <c r="AW4" s="67" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="44" t="n">
+      <c r="AZ4" s="65" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="45" t="n">
+      <c r="BA4" s="66" t="n">
         <f aca="false">BB5-BB2</f>
         <v>4</v>
       </c>
-      <c r="BB4" s="46" t="n">
+      <c r="BB4" s="67" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="44" t="n">
+      <c r="BE4" s="65" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="45" t="n">
+      <c r="BF4" s="66" t="n">
         <f aca="false">BG5-BG2</f>
         <v>4</v>
       </c>
-      <c r="BG4" s="46" t="n">
+      <c r="BG4" s="67" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
-      <c r="BJ4" s="44" t="n">
+      <c r="BJ4" s="65" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="45" t="n">
+      <c r="BK4" s="66" t="n">
         <f aca="false">BL5-BL2</f>
         <v>4</v>
       </c>
-      <c r="BL4" s="46" t="n">
+      <c r="BL4" s="67" t="n">
         <f aca="false">BO2-BL2</f>
         <v>4</v>
       </c>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="44" t="n">
+      <c r="BO4" s="65" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="45" t="n">
+      <c r="BP4" s="66" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="46"/>
+      <c r="BQ4" s="67"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="41" t="n">
+      <c r="A5" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="62" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="42" t="n">
+      <c r="H5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="63" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="47" t="n">
+      <c r="L5" s="68" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="48" t="n">
+      <c r="M5" s="58"/>
+      <c r="N5" s="69" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="47" t="n">
+      <c r="Q5" s="68" t="n">
         <f aca="false">S5-Q4</f>
         <v>9</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="48" t="n">
+      <c r="R5" s="58"/>
+      <c r="S5" s="69" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>10</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="47" t="n">
+      <c r="V5" s="68" t="n">
         <f aca="false">X5-V4</f>
         <v>14</v>
       </c>
-      <c r="W5" s="37"/>
-      <c r="X5" s="48" t="n">
+      <c r="W5" s="58"/>
+      <c r="X5" s="69" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -3375,119 +5549,119 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="47" t="n">
+      <c r="AF5" s="68" t="n">
         <f aca="false">AH5-AF4</f>
         <v>18</v>
       </c>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="48" t="n">
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="69" t="n">
         <f aca="false">AK5</f>
         <v>19</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="47" t="n">
+      <c r="AK5" s="68" t="n">
         <f aca="false">AM5-AK4</f>
         <v>19</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="48" t="n">
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="69" t="n">
         <f aca="false">AP5</f>
         <v>20</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="47" t="n">
+      <c r="AP5" s="68" t="n">
         <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="48" t="n">
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="69" t="n">
         <f aca="false">AU5</f>
         <v>21</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="47" t="n">
+      <c r="AU5" s="68" t="n">
         <f aca="false">AW5-AU4</f>
         <v>21</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="48" t="n">
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="69" t="n">
         <f aca="false">AZ5</f>
         <v>23</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="47" t="n">
+      <c r="AZ5" s="68" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>23</v>
       </c>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="48" t="n">
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="69" t="n">
         <f aca="false">BE5</f>
         <v>25</v>
       </c>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-      <c r="BE5" s="47" t="n">
+      <c r="BE5" s="68" t="n">
         <f aca="false">BG5-BE4</f>
         <v>25</v>
       </c>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="48" t="n">
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="69" t="n">
         <f aca="false">BJ5</f>
         <v>26</v>
       </c>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="47" t="n">
+      <c r="BJ5" s="68" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>26</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="48" t="n">
+      <c r="BK5" s="58"/>
+      <c r="BL5" s="69" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="47" t="n">
+      <c r="BO5" s="68" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>29</v>
       </c>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="48" t="n">
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="69" t="n">
         <f aca="false">BQ2</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="40" t="n">
+      <c r="A6" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="34" t="n">
+      <c r="H6" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="42" t="n">
+      <c r="J6" s="63" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
@@ -3552,30 +5726,30 @@
       <c r="BQ6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="42" t="n">
+      <c r="A7" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="63" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -3640,30 +5814,30 @@
       <c r="BQ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="40" t="n">
+      <c r="A8" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="42" t="n">
+      <c r="H8" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="63" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
@@ -3678,23 +5852,23 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="36" t="n">
+      <c r="V8" s="57" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="38" t="n">
+      <c r="W8" s="58"/>
+      <c r="X8" s="59" t="n">
         <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="36" t="n">
+      <c r="AA8" s="57" t="n">
         <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="38" t="n">
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="59" t="n">
         <f aca="false">AA8+AA10</f>
         <v>14</v>
       </c>
@@ -3740,31 +5914,31 @@
       <c r="BQ8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="40" t="n">
+      <c r="A9" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="34" t="n">
+      <c r="H9" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="63" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
@@ -3779,18 +5953,18 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
+      <c r="V9" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
+      <c r="AA9" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -3833,31 +6007,31 @@
       <c r="BQ9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="40" t="n">
+      <c r="A10" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="34" t="n">
+      <c r="H10" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J10" s="42" t="n">
+      <c r="J10" s="63" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
@@ -3872,29 +6046,29 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="44" t="n">
+      <c r="V10" s="65" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="45" t="n">
+      <c r="W10" s="66" t="n">
         <f aca="false">X11-X8</f>
         <v>4</v>
       </c>
-      <c r="X10" s="46" t="n">
+      <c r="X10" s="67" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="44" t="n">
+      <c r="AA10" s="65" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="45" t="n">
+      <c r="AB10" s="66" t="n">
         <f aca="false">AC11-AC8</f>
         <v>4</v>
       </c>
-      <c r="AC10" s="46" t="n">
+      <c r="AC10" s="67" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
@@ -3940,31 +6114,31 @@
       <c r="BQ10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="40" t="n">
+      <c r="A11" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="34" t="n">
+      <c r="H11" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="63" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
@@ -3979,23 +6153,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="47" t="n">
+      <c r="V11" s="68" t="n">
         <f aca="false">X11-V10</f>
         <v>10</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="48" t="n">
+      <c r="W11" s="58"/>
+      <c r="X11" s="69" t="n">
         <f aca="false">AA11</f>
         <v>13</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="47" t="n">
+      <c r="AA11" s="68" t="n">
         <f aca="false">AC11-AA10</f>
         <v>13</v>
       </c>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="48" t="n">
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="69" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -4041,30 +6215,30 @@
       <c r="BQ11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="40" t="n">
+      <c r="A12" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="34" t="n">
+      <c r="H12" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="63" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
@@ -4129,31 +6303,31 @@
       <c r="BQ12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="40" t="n">
+      <c r="A13" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="34" t="n">
+      <c r="H13" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="63" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
@@ -4218,31 +6392,31 @@
       <c r="BQ13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="40" t="n">
+      <c r="A14" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="34" t="n">
+      <c r="H14" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="J14" s="63" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
@@ -4252,34 +6426,34 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="36" t="n">
+      <c r="Q14" s="57" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38" t="n">
+      <c r="R14" s="58"/>
+      <c r="S14" s="59" t="n">
         <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="36" t="n">
+      <c r="V14" s="57" t="n">
         <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="38" t="n">
+      <c r="W14" s="58"/>
+      <c r="X14" s="59" t="n">
         <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="36" t="n">
+      <c r="AA14" s="57" t="n">
         <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="38" t="n">
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="59" t="n">
         <f aca="false">AA14+AA16</f>
         <v>29</v>
       </c>
@@ -4325,31 +6499,31 @@
       <c r="BQ14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="34" t="n">
+      <c r="A15" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="J15" s="63" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
@@ -4359,25 +6533,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="Q15" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
+      <c r="V15" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
+      <c r="AA15" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -4420,31 +6594,31 @@
       <c r="BQ15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="40" t="n">
+      <c r="A16" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="34" t="n">
+      <c r="H16" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="55" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J16" s="42" t="n">
+      <c r="J16" s="63" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
@@ -4454,43 +6628,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="44" t="n">
+      <c r="Q16" s="65" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="45" t="n">
+      <c r="R16" s="66" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="46" t="n">
+      <c r="S16" s="67" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="44" t="n">
+      <c r="V16" s="65" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="45" t="n">
+      <c r="W16" s="66" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="46" t="n">
+      <c r="X16" s="67" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="44" t="n">
+      <c r="AA16" s="65" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="45" t="n">
+      <c r="AB16" s="66" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="46" t="n">
+      <c r="AC16" s="67" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
@@ -4536,28 +6710,28 @@
       <c r="BQ16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="56" t="n">
+      <c r="A17" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="77" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -4567,34 +6741,34 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="47" t="n">
+      <c r="Q17" s="68" t="n">
         <f aca="false">S17-Q16</f>
         <v>5</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="48" t="n">
+      <c r="R17" s="58"/>
+      <c r="S17" s="69" t="n">
         <f aca="false">V17</f>
         <v>6</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="47" t="n">
+      <c r="V17" s="68" t="n">
         <f aca="false">X17-V16</f>
         <v>6</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="48" t="n">
+      <c r="W17" s="58"/>
+      <c r="X17" s="69" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>9</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="47" t="n">
+      <c r="AA17" s="68" t="n">
         <f aca="false">AC17-AA16</f>
         <v>9</v>
       </c>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="48" t="n">
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="69" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
@@ -4644,9 +6818,9 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -4709,11 +6883,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3"/>
       <c r="K19" s="3"/>
@@ -4777,15 +6951,15 @@
       <c r="BQ19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38" t="s">
-        <v>66</v>
+      <c r="A20" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59" t="s">
+        <v>86</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -4848,11 +7022,11 @@
       <c r="BQ20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -4915,17 +7089,17 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>71</v>
+      <c r="A22" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -4988,15 +7162,15 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="48" t="s">
-        <v>74</v>
+      <c r="A23" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -5124,16 +7298,16 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>49</v>
+      <c r="A25" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="F25" s="57" t="s">
-        <v>76</v>
+      <c r="F25" s="78" t="s">
+        <v>96</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -5196,23 +7370,23 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>81</v>
+      <c r="A26" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>101</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -5275,94 +7449,94 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>83</v>
+      <c r="A27" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>86</v>
+      <c r="A28" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>87</v>
+      <c r="A29" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>89</v>
+      <c r="A30" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="46" t="s">
+      <c r="A31" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="57" t="s">
-        <v>86</v>
+      <c r="B31" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5417,4 +7591,1715 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BM19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="44" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="44" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="44" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="44" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="44" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="44" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="44" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="79" t="n">
+        <v>45019</v>
+      </c>
+      <c r="J1" s="79" t="n">
+        <v>45020</v>
+      </c>
+      <c r="K1" s="79" t="n">
+        <v>45021</v>
+      </c>
+      <c r="L1" s="79" t="n">
+        <v>45022</v>
+      </c>
+      <c r="M1" s="79" t="n">
+        <v>45023</v>
+      </c>
+      <c r="N1" s="79" t="n">
+        <v>45024</v>
+      </c>
+      <c r="O1" s="79" t="n">
+        <v>45025</v>
+      </c>
+      <c r="P1" s="79" t="n">
+        <v>45026</v>
+      </c>
+      <c r="Q1" s="79" t="n">
+        <v>45027</v>
+      </c>
+      <c r="R1" s="79" t="n">
+        <v>45028</v>
+      </c>
+      <c r="S1" s="79" t="n">
+        <v>45029</v>
+      </c>
+      <c r="T1" s="79" t="n">
+        <v>45030</v>
+      </c>
+      <c r="U1" s="79" t="n">
+        <v>45031</v>
+      </c>
+      <c r="V1" s="79" t="n">
+        <v>45032</v>
+      </c>
+      <c r="W1" s="79" t="n">
+        <v>45033</v>
+      </c>
+      <c r="X1" s="79" t="n">
+        <v>45034</v>
+      </c>
+      <c r="Y1" s="79" t="n">
+        <v>45035</v>
+      </c>
+      <c r="Z1" s="79" t="n">
+        <v>45036</v>
+      </c>
+      <c r="AA1" s="79" t="n">
+        <v>45037</v>
+      </c>
+      <c r="AB1" s="79" t="n">
+        <v>45038</v>
+      </c>
+      <c r="AC1" s="79" t="n">
+        <v>45039</v>
+      </c>
+      <c r="AD1" s="79" t="n">
+        <v>45040</v>
+      </c>
+      <c r="AE1" s="79" t="n">
+        <v>45041</v>
+      </c>
+      <c r="AF1" s="79" t="n">
+        <v>45042</v>
+      </c>
+      <c r="AG1" s="79" t="n">
+        <v>45043</v>
+      </c>
+      <c r="AH1" s="79" t="n">
+        <v>45044</v>
+      </c>
+      <c r="AI1" s="79" t="n">
+        <v>45045</v>
+      </c>
+      <c r="AJ1" s="79" t="n">
+        <v>45046</v>
+      </c>
+      <c r="AK1" s="79" t="n">
+        <v>45047</v>
+      </c>
+      <c r="AL1" s="79" t="n">
+        <v>45048</v>
+      </c>
+      <c r="AM1" s="79" t="n">
+        <v>45049</v>
+      </c>
+      <c r="AN1" s="79" t="n">
+        <v>45050</v>
+      </c>
+      <c r="AO1" s="79" t="n">
+        <v>45051</v>
+      </c>
+      <c r="AP1" s="79" t="n">
+        <v>45052</v>
+      </c>
+      <c r="AQ1" s="79" t="n">
+        <v>45053</v>
+      </c>
+      <c r="AR1" s="79" t="n">
+        <v>45054</v>
+      </c>
+      <c r="AS1" s="79" t="n">
+        <v>45055</v>
+      </c>
+      <c r="AT1" s="79" t="n">
+        <v>45056</v>
+      </c>
+      <c r="AU1" s="79" t="n">
+        <v>45057</v>
+      </c>
+      <c r="AV1" s="79" t="n">
+        <v>45058</v>
+      </c>
+      <c r="AW1" s="79" t="n">
+        <v>45059</v>
+      </c>
+      <c r="AX1" s="79" t="n">
+        <v>45060</v>
+      </c>
+      <c r="AY1" s="79" t="n">
+        <v>45061</v>
+      </c>
+      <c r="AZ1" s="79" t="n">
+        <v>45062</v>
+      </c>
+      <c r="BA1" s="79" t="n">
+        <v>45063</v>
+      </c>
+      <c r="BB1" s="79" t="n">
+        <v>45064</v>
+      </c>
+      <c r="BC1" s="79" t="n">
+        <v>45065</v>
+      </c>
+      <c r="BD1" s="79" t="n">
+        <v>45066</v>
+      </c>
+      <c r="BE1" s="79" t="n">
+        <v>45067</v>
+      </c>
+      <c r="BF1" s="79" t="n">
+        <v>45068</v>
+      </c>
+      <c r="BG1" s="79" t="n">
+        <v>45069</v>
+      </c>
+      <c r="BH1" s="79" t="n">
+        <v>45070</v>
+      </c>
+      <c r="BI1" s="79" t="n">
+        <v>45071</v>
+      </c>
+      <c r="BJ1" s="79" t="n">
+        <v>45072</v>
+      </c>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="82"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="83" t="n">
+        <f aca="false">Netzplan!J2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="84" t="n">
+        <f aca="false">SUM(I2:BJ2)</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="82"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="83" t="n">
+        <f aca="false">Netzplan!J3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="84" t="n">
+        <f aca="false">SUM(I3:BJ3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="91"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="82"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="83" t="n">
+        <f aca="false">Netzplan!J4</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="84" t="n">
+        <f aca="false">SUM(I4:BJ4)</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="82"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="83" t="n">
+        <f aca="false">Netzplan!J5</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="84" t="n">
+        <f aca="false">SUM(I5:BJ5)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="90"/>
+      <c r="BJ5" s="93"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="81"/>
+      <c r="BM5" s="82"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="83" t="n">
+        <f aca="false">Netzplan!J6</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="84" t="n">
+        <f aca="false">SUM(I6:BJ6)</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="80"/>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="82"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="83" t="n">
+        <f aca="false">Netzplan!J7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="84" t="n">
+        <f aca="false">SUM(I7:BJ7)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="80"/>
+      <c r="BL7" s="81"/>
+      <c r="BM7" s="82"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="83" t="n">
+        <f aca="false">Netzplan!J8</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="84" t="n">
+        <f aca="false">SUM(I8:BJ8)</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="90"/>
+      <c r="BA8" s="90"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="90"/>
+      <c r="BH8" s="90"/>
+      <c r="BI8" s="90"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="81"/>
+      <c r="BM8" s="82"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="90"/>
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="82"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="83" t="n">
+        <f aca="false">Netzplan!J9</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="84" t="n">
+        <f aca="false">SUM(I10:BJ10)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="94"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="80"/>
+      <c r="BL10" s="81"/>
+      <c r="BM10" s="82"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="83" t="n">
+        <f aca="false">Netzplan!J10</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="84" t="n">
+        <f aca="false">SUM(I11:BJ11)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="90"/>
+      <c r="BJ11" s="93"/>
+      <c r="BK11" s="80"/>
+      <c r="BL11" s="81"/>
+      <c r="BM11" s="82"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="83" t="n">
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="84" t="n">
+        <f aca="false">SUM(I12:BJ12)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="90"/>
+      <c r="BA12" s="90"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="90"/>
+      <c r="BD12" s="90"/>
+      <c r="BE12" s="90"/>
+      <c r="BF12" s="90"/>
+      <c r="BG12" s="90"/>
+      <c r="BH12" s="90"/>
+      <c r="BI12" s="90"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="80"/>
+      <c r="BL12" s="81"/>
+      <c r="BM12" s="82"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="83" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
+      </c>
+      <c r="H13" s="84" t="n">
+        <f aca="false">SUM(I13:BJ13)</f>
+        <v>20</v>
+      </c>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="90"/>
+      <c r="BD13" s="90"/>
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="90"/>
+      <c r="BG13" s="90"/>
+      <c r="BH13" s="90"/>
+      <c r="BI13" s="90"/>
+      <c r="BJ13" s="93"/>
+      <c r="BK13" s="80"/>
+      <c r="BL13" s="81"/>
+      <c r="BM13" s="82"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="83" t="n">
+        <f aca="false">Netzplan!J13</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="84" t="n">
+        <f aca="false">SUM(I14:BJ14)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="92"/>
+      <c r="AO14" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="90"/>
+      <c r="BA14" s="90"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="90"/>
+      <c r="BD14" s="90"/>
+      <c r="BE14" s="90"/>
+      <c r="BF14" s="90"/>
+      <c r="BG14" s="90"/>
+      <c r="BH14" s="90"/>
+      <c r="BI14" s="90"/>
+      <c r="BJ14" s="93"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="81"/>
+      <c r="BM14" s="82"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="83" t="n">
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="84" t="n">
+        <f aca="false">SUM(I15:BJ15)</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="97"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="90"/>
+      <c r="BA15" s="90"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="90"/>
+      <c r="BD15" s="90"/>
+      <c r="BE15" s="90"/>
+      <c r="BF15" s="90"/>
+      <c r="BG15" s="90"/>
+      <c r="BH15" s="90"/>
+      <c r="BI15" s="90"/>
+      <c r="BJ15" s="93"/>
+      <c r="BK15" s="80"/>
+      <c r="BL15" s="81"/>
+      <c r="BM15" s="82"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="83" t="n">
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="84" t="n">
+        <f aca="false">SUM(I16:BJ16)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="97"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="93"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="90"/>
+      <c r="BA16" s="90"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="90"/>
+      <c r="BD16" s="90"/>
+      <c r="BE16" s="90"/>
+      <c r="BF16" s="90"/>
+      <c r="BG16" s="90"/>
+      <c r="BH16" s="90"/>
+      <c r="BI16" s="90"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="82"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="83" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="84" t="n">
+        <f aca="false">SUM(I17:BJ17)</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="90"/>
+      <c r="BE17" s="90"/>
+      <c r="BF17" s="90"/>
+      <c r="BG17" s="90"/>
+      <c r="BH17" s="90"/>
+      <c r="BI17" s="90"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="80"/>
+      <c r="BL17" s="81"/>
+      <c r="BM17" s="82"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="83" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="84" t="n">
+        <f aca="false">SUM(I18:BJ18)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="98"/>
+      <c r="AS18" s="98"/>
+      <c r="AT18" s="98"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="AW18" s="98"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="100"/>
+      <c r="AZ18" s="100"/>
+      <c r="BB18" s="99"/>
+      <c r="BC18" s="98"/>
+      <c r="BD18" s="98"/>
+      <c r="BE18" s="98"/>
+      <c r="BF18" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="98"/>
+      <c r="BH18" s="98"/>
+      <c r="BI18" s="98"/>
+      <c r="BJ18" s="101"/>
+      <c r="BK18" s="80"/>
+      <c r="BL18" s="81"/>
+      <c r="BM18" s="82"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:BF9 I11:AC13 I17:BF17 I15:AJ16 I1:I10 J1:BJ1 AD13:BF13 I10:AD10 AH10:BF12 I14:AG14 AU14:BF15 AI14:AK14 AO14:AQ15 AR14:AT15 AP16:AS16 AV16:BF16 I18:AZ18 BB18:BF18">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H18">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(H2&lt;&gt;G2,TRUE())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:BF9 I11:AC13 I17:BF17 I15:AJ16 AD13:BF13 I10:AD10 AH10:BF12 I14:AG14 AU14:BF15 AI14:AK14 AO14:AQ15 AR14:AT15 AP16:AS16 AV16:BF16 I18:AZ18 BB18:BF18">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PSP funktionsorientiert_2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PSP objektorientiert" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="PSP zeitlich" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Gantt" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="116">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t xml:space="preserve">Korrekturen Datenbanke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.11</t>
   </si>
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
@@ -441,16 +447,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="0.00\ %"/>
-    <numFmt numFmtId="169" formatCode="0\ %"/>
-    <numFmt numFmtId="170" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="0.00\ %"/>
+    <numFmt numFmtId="168" formatCode="0\ %"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -500,11 +505,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -688,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -745,6 +745,41 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -780,7 +815,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,11 +896,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -885,7 +932,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -901,7 +948,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -909,7 +956,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,7 +968,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,6 +984,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -953,7 +1004,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -973,7 +1024,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1001,11 +1052,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,7 +1068,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,7 +1084,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,23 +1092,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,11 +1136,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1101,23 +1152,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2232,52 +2283,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>892080</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>892080</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8223120" y="325080"/>
-          <a:ext cx="0" cy="171000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>10440</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2291,7 +2296,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvPr id="22" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2333,7 +2338,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name=""/>
+        <xdr:cNvPr id="23" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2375,7 +2380,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name=""/>
+        <xdr:cNvPr id="24" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2417,7 +2422,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name=""/>
+        <xdr:cNvPr id="25" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2459,7 +2464,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name=""/>
+        <xdr:cNvPr id="26" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2501,7 +2506,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name=""/>
+        <xdr:cNvPr id="27" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2543,7 +2548,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name=""/>
+        <xdr:cNvPr id="28" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2585,7 +2590,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name=""/>
+        <xdr:cNvPr id="29" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2627,7 +2632,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name=""/>
+        <xdr:cNvPr id="30" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2669,7 +2674,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name=""/>
+        <xdr:cNvPr id="31" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2711,7 +2716,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name=""/>
+        <xdr:cNvPr id="32" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2753,7 +2758,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvPr id="33" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2795,7 +2800,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name=""/>
+        <xdr:cNvPr id="34" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2837,7 +2842,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name=""/>
+        <xdr:cNvPr id="35" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2879,7 +2884,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name=""/>
+        <xdr:cNvPr id="36" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2921,7 +2926,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name=""/>
+        <xdr:cNvPr id="37" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2963,7 +2968,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name=""/>
+        <xdr:cNvPr id="38" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3005,7 +3010,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name=""/>
+        <xdr:cNvPr id="39" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3047,7 +3052,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name=""/>
+        <xdr:cNvPr id="40" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3089,7 +3094,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name=""/>
+        <xdr:cNvPr id="41" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3131,7 +3136,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name=""/>
+        <xdr:cNvPr id="42" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3173,7 +3178,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name=""/>
+        <xdr:cNvPr id="43" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3215,7 +3220,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name=""/>
+        <xdr:cNvPr id="44" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3257,7 +3262,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name=""/>
+        <xdr:cNvPr id="45" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3287,7 +3292,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -3298,19 +3303,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>177120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Form 1"/>
+        <xdr:cNvPr id="46" name="Form 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10724400" y="1677960"/>
-          <a:ext cx="134280" cy="173520"/>
+          <a:ext cx="133920" cy="173160"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3342,13 +3347,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>211680</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Bild 1" descr=""/>
+        <xdr:cNvPr id="47" name="Bild 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3358,7 +3363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15049800" y="2816280"/>
-          <a:ext cx="139680" cy="171360"/>
+          <a:ext cx="139320" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3379,13 +3384,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Bild 2" descr=""/>
+        <xdr:cNvPr id="48" name="Bild 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3395,7 +3400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17252280" y="3285360"/>
-          <a:ext cx="139680" cy="171360"/>
+          <a:ext cx="139320" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3964,8 +3969,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4006,6 +4011,13 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="4" t="s">
         <v>46</v>
@@ -4040,6 +4052,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -4047,12 +4064,15 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="4" t="s">
@@ -4061,12 +4081,15 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="4" t="s">
@@ -4075,12 +4098,15 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="4" t="s">
@@ -4089,12 +4115,15 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="4" t="s">
@@ -4103,7 +4132,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4123,204 +4152,232 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24" t="s">
+    <row r="27" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-    </row>
-    <row r="39" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-    </row>
-    <row r="43" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -4362,7 +4419,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4373,8 +4429,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4384,7 +4440,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4403,8 +4459,8 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="5" t="n">
         <v>1</v>
       </c>
@@ -4415,17 +4471,23 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -4449,6 +4511,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -4483,6 +4550,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -4517,6 +4589,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="4" t="s">
         <v>18</v>
@@ -4551,6 +4628,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="4" t="s">
         <v>24</v>
@@ -4579,11 +4661,15 @@
         <v>9</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="22"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="4" t="s">
@@ -4603,11 +4689,15 @@
         <v>7</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="4" t="s">
@@ -4621,13 +4711,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>9</v>
@@ -4646,16 +4736,16 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="B26" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
@@ -4719,7 +4809,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>19</v>
@@ -4729,17 +4819,17 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
+    <row r="33" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="B33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
@@ -4789,17 +4879,17 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="s">
+    <row r="38" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="B38" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
@@ -4839,7 +4929,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>26</v>
@@ -4851,7 +4941,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>42</v>
@@ -4863,7 +4953,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>44</v>
@@ -4934,9 +5024,9 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="L13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
       <selection pane="topRight" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
@@ -4945,37 +5035,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="47" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="48" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="46" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="51" t="s">
         <v>74</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -5038,59 +5128,59 @@
       <c r="BQ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="53" t="n">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="56" t="n">
+      <c r="H2" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="60" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="57" t="n">
+      <c r="L2" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59" t="n">
+      <c r="M2" s="62"/>
+      <c r="N2" s="63" t="n">
         <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="57" t="n">
+      <c r="Q2" s="61" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="59" t="n">
+      <c r="R2" s="62"/>
+      <c r="S2" s="63" t="n">
         <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="57" t="n">
+      <c r="V2" s="61" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59" t="n">
+      <c r="W2" s="62"/>
+      <c r="X2" s="63" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
@@ -5101,141 +5191,141 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="57" t="n">
+      <c r="AF2" s="61" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>14</v>
       </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59" t="n">
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="63" t="n">
         <f aca="false">AF2+AF4</f>
         <v>15</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="57" t="n">
+      <c r="AK2" s="61" t="n">
         <f aca="false">AH2</f>
         <v>15</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="59" t="n">
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="63" t="n">
         <f aca="false">AK2+AK4</f>
         <v>16</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="57" t="n">
+      <c r="AP2" s="61" t="n">
         <f aca="false">AM2</f>
         <v>16</v>
       </c>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="59" t="n">
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="63" t="n">
         <f aca="false">AP2+AP4</f>
         <v>17</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="57" t="n">
+      <c r="AU2" s="61" t="n">
         <f aca="false">AR2</f>
         <v>17</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="59" t="n">
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="63" t="n">
         <f aca="false">AU2+AU4</f>
         <v>19</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
-      <c r="AZ2" s="57" t="n">
+      <c r="AZ2" s="61" t="n">
         <f aca="false">AW2</f>
         <v>19</v>
       </c>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="59" t="n">
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="63" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>21</v>
       </c>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="57" t="n">
+      <c r="BE2" s="61" t="n">
         <f aca="false">BB2</f>
         <v>21</v>
       </c>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="59" t="n">
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="63" t="n">
         <f aca="false">BE2+BE4</f>
         <v>22</v>
       </c>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
-      <c r="BJ2" s="57" t="n">
+      <c r="BJ2" s="61" t="n">
         <f aca="false">BG2</f>
         <v>22</v>
       </c>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="59" t="n">
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="63" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>25</v>
       </c>
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
-      <c r="BO2" s="57" t="n">
+      <c r="BO2" s="61" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>29</v>
       </c>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="59" t="n">
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="63" t="n">
         <f aca="false">BO2+BO4</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="63" t="n">
+      <c r="F3" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="67" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="64" t="s">
+      <c r="V3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -5243,127 +5333,127 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="64" t="s">
+      <c r="AF3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="64" t="s">
+      <c r="AK3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="64" t="s">
+      <c r="AP3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="64" t="s">
+      <c r="AU3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="64" t="s">
+      <c r="AZ3" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="64" t="s">
+      <c r="BE3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="64"/>
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="68"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
-      <c r="BJ3" s="64" t="s">
+      <c r="BJ3" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
-      <c r="BO3" s="64" t="s">
+      <c r="BO3" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="62" t="n">
+      <c r="G4" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="63" t="n">
+      <c r="H4" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="67" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="65" t="n">
+      <c r="L4" s="69" t="n">
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="66" t="n">
+      <c r="M4" s="70" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="67" t="n">
+      <c r="N4" s="71" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="65" t="n">
+      <c r="Q4" s="69" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="66" t="n">
+      <c r="R4" s="70" t="n">
         <f aca="false">S5-S2</f>
         <v>4</v>
       </c>
-      <c r="S4" s="67" t="n">
+      <c r="S4" s="71" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="65" t="n">
+      <c r="V4" s="69" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="66" t="n">
+      <c r="W4" s="70" t="n">
         <f aca="false">X5-X2</f>
         <v>8</v>
       </c>
-      <c r="X4" s="67" t="n">
+      <c r="X4" s="71" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
@@ -5374,171 +5464,171 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="65" t="n">
+      <c r="AF4" s="69" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="66" t="n">
+      <c r="AG4" s="70" t="n">
         <f aca="false">AH5-AH2</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="67" t="n">
+      <c r="AH4" s="71" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="65" t="n">
+      <c r="AK4" s="69" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="66" t="n">
+      <c r="AL4" s="70" t="n">
         <f aca="false">AM5-AM2</f>
         <v>4</v>
       </c>
-      <c r="AM4" s="67" t="n">
+      <c r="AM4" s="71" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="65" t="n">
+      <c r="AP4" s="69" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="66" t="n">
+      <c r="AQ4" s="70" t="n">
         <f aca="false">AR5-AR2</f>
         <v>4</v>
       </c>
-      <c r="AR4" s="67" t="n">
+      <c r="AR4" s="71" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="65" t="n">
+      <c r="AU4" s="69" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="66" t="n">
+      <c r="AV4" s="70" t="n">
         <f aca="false">AW5-AW2</f>
         <v>4</v>
       </c>
-      <c r="AW4" s="67" t="n">
+      <c r="AW4" s="71" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="65" t="n">
+      <c r="AZ4" s="69" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="66" t="n">
+      <c r="BA4" s="70" t="n">
         <f aca="false">BB5-BB2</f>
         <v>4</v>
       </c>
-      <c r="BB4" s="67" t="n">
+      <c r="BB4" s="71" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="65" t="n">
+      <c r="BE4" s="69" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="66" t="n">
+      <c r="BF4" s="70" t="n">
         <f aca="false">BG5-BG2</f>
         <v>4</v>
       </c>
-      <c r="BG4" s="67" t="n">
+      <c r="BG4" s="71" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
-      <c r="BJ4" s="65" t="n">
+      <c r="BJ4" s="69" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="66" t="n">
+      <c r="BK4" s="70" t="n">
         <f aca="false">BL5-BL2</f>
         <v>4</v>
       </c>
-      <c r="BL4" s="67" t="n">
+      <c r="BL4" s="71" t="n">
         <f aca="false">BO2-BL2</f>
         <v>4</v>
       </c>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="65" t="n">
+      <c r="BO4" s="69" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="66" t="n">
+      <c r="BP4" s="70" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="67"/>
+      <c r="BQ4" s="71"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="54" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="62" t="n">
+      <c r="G5" s="66" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="63" t="n">
+      <c r="H5" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="67" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="68" t="n">
+      <c r="L5" s="72" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="69" t="n">
+      <c r="M5" s="62"/>
+      <c r="N5" s="73" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="68" t="n">
+      <c r="Q5" s="72" t="n">
         <f aca="false">S5-Q4</f>
         <v>9</v>
       </c>
-      <c r="R5" s="58"/>
-      <c r="S5" s="69" t="n">
+      <c r="R5" s="62"/>
+      <c r="S5" s="73" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>10</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="68" t="n">
+      <c r="V5" s="72" t="n">
         <f aca="false">X5-V4</f>
         <v>14</v>
       </c>
-      <c r="W5" s="58"/>
-      <c r="X5" s="69" t="n">
+      <c r="W5" s="62"/>
+      <c r="X5" s="73" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -5549,119 +5639,119 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="68" t="n">
+      <c r="AF5" s="72" t="n">
         <f aca="false">AH5-AF4</f>
         <v>18</v>
       </c>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="69" t="n">
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="73" t="n">
         <f aca="false">AK5</f>
         <v>19</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="68" t="n">
+      <c r="AK5" s="72" t="n">
         <f aca="false">AM5-AK4</f>
         <v>19</v>
       </c>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="69" t="n">
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="73" t="n">
         <f aca="false">AP5</f>
         <v>20</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="68" t="n">
+      <c r="AP5" s="72" t="n">
         <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="69" t="n">
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="73" t="n">
         <f aca="false">AU5</f>
         <v>21</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="68" t="n">
+      <c r="AU5" s="72" t="n">
         <f aca="false">AW5-AU4</f>
         <v>21</v>
       </c>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="69" t="n">
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="73" t="n">
         <f aca="false">AZ5</f>
         <v>23</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="68" t="n">
+      <c r="AZ5" s="72" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>23</v>
       </c>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="69" t="n">
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="73" t="n">
         <f aca="false">BE5</f>
         <v>25</v>
       </c>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-      <c r="BE5" s="68" t="n">
+      <c r="BE5" s="72" t="n">
         <f aca="false">BG5-BE4</f>
         <v>25</v>
       </c>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="69" t="n">
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="73" t="n">
         <f aca="false">BJ5</f>
         <v>26</v>
       </c>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="68" t="n">
+      <c r="BJ5" s="72" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>26</v>
       </c>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="69" t="n">
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="73" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="68" t="n">
+      <c r="BO5" s="72" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>29</v>
       </c>
-      <c r="BP5" s="58"/>
-      <c r="BQ5" s="69" t="n">
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="73" t="n">
         <f aca="false">BQ2</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="70" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="61" t="n">
+      <c r="G6" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="55" t="n">
+      <c r="H6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="63" t="n">
+      <c r="J6" s="67" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
@@ -5726,30 +5816,30 @@
       <c r="BQ6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="54" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="63" t="n">
+      <c r="G7" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="67" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -5814,30 +5904,30 @@
       <c r="BQ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="70" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="61" t="n">
+      <c r="F8" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="65" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="63" t="n">
+      <c r="H8" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="67" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
@@ -5852,23 +5942,23 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="57" t="n">
+      <c r="V8" s="61" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59" t="n">
+      <c r="W8" s="62"/>
+      <c r="X8" s="63" t="n">
         <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="57" t="n">
+      <c r="AA8" s="61" t="n">
         <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="59" t="n">
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="63" t="n">
         <f aca="false">AA8+AA10</f>
         <v>14</v>
       </c>
@@ -5914,31 +6004,31 @@
       <c r="BQ8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="70" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="55" t="n">
+      <c r="I9" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J9" s="63" t="n">
+      <c r="J9" s="67" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
@@ -5953,18 +6043,18 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="64" t="s">
+      <c r="AA9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -6007,31 +6097,31 @@
       <c r="BQ9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="70" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="61" t="n">
+      <c r="G10" s="65" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="55" t="n">
+      <c r="H10" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J10" s="63" t="n">
+      <c r="J10" s="67" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
@@ -6046,29 +6136,29 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="65" t="n">
+      <c r="V10" s="69" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="66" t="n">
+      <c r="W10" s="70" t="n">
         <f aca="false">X11-X8</f>
         <v>4</v>
       </c>
-      <c r="X10" s="67" t="n">
+      <c r="X10" s="71" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="65" t="n">
+      <c r="AA10" s="69" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="66" t="n">
+      <c r="AB10" s="70" t="n">
         <f aca="false">AC11-AC8</f>
         <v>4</v>
       </c>
-      <c r="AC10" s="67" t="n">
+      <c r="AC10" s="71" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
@@ -6114,31 +6204,31 @@
       <c r="BQ10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="70" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="61" t="n">
+      <c r="G11" s="65" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="55" t="n">
+      <c r="H11" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J11" s="63" t="n">
+      <c r="J11" s="67" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
@@ -6153,23 +6243,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="68" t="n">
+      <c r="V11" s="72" t="n">
         <f aca="false">X11-V10</f>
         <v>10</v>
       </c>
-      <c r="W11" s="58"/>
-      <c r="X11" s="69" t="n">
+      <c r="W11" s="62"/>
+      <c r="X11" s="73" t="n">
         <f aca="false">AA11</f>
         <v>13</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="68" t="n">
+      <c r="AA11" s="72" t="n">
         <f aca="false">AC11-AA10</f>
         <v>13</v>
       </c>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="69" t="n">
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="73" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -6215,30 +6305,30 @@
       <c r="BQ11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="70" t="s">
+      <c r="B12" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="61" t="n">
+      <c r="G12" s="65" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="55" t="n">
+      <c r="H12" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="59" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="63" t="n">
+      <c r="J12" s="67" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
@@ -6303,31 +6393,31 @@
       <c r="BQ12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="61" t="n">
+      <c r="G13" s="65" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="55" t="n">
+      <c r="H13" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="63" t="n">
+      <c r="J13" s="67" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
@@ -6392,31 +6482,31 @@
       <c r="BQ13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="61" t="n">
+      <c r="G14" s="65" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="55" t="n">
+      <c r="H14" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J14" s="63" t="n">
+      <c r="J14" s="67" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
@@ -6426,34 +6516,34 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="57" t="n">
+      <c r="Q14" s="61" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59" t="n">
+      <c r="R14" s="62"/>
+      <c r="S14" s="63" t="n">
         <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="57" t="n">
+      <c r="V14" s="61" t="n">
         <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59" t="n">
+      <c r="W14" s="62"/>
+      <c r="X14" s="63" t="n">
         <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="57" t="n">
+      <c r="AA14" s="61" t="n">
         <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="59" t="n">
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="63" t="n">
         <f aca="false">AA14+AA16</f>
         <v>29</v>
       </c>
@@ -6499,31 +6589,31 @@
       <c r="BQ14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="70" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="55" t="n">
+      <c r="G15" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J15" s="63" t="n">
+      <c r="J15" s="67" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
@@ -6533,25 +6623,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="64" t="s">
+      <c r="Q15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="64" t="s">
+      <c r="V15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="64" t="s">
+      <c r="AA15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -6594,31 +6684,31 @@
       <c r="BQ15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="61" t="n">
+      <c r="G16" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="55" t="n">
+      <c r="H16" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="59" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J16" s="63" t="n">
+      <c r="J16" s="67" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
@@ -6628,43 +6718,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="65" t="n">
+      <c r="Q16" s="69" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="66" t="n">
+      <c r="R16" s="70" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="67" t="n">
+      <c r="S16" s="71" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="65" t="n">
+      <c r="V16" s="69" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="66" t="n">
+      <c r="W16" s="70" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="67" t="n">
+      <c r="X16" s="71" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="65" t="n">
+      <c r="AA16" s="69" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="66" t="n">
+      <c r="AB16" s="70" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="67" t="n">
+      <c r="AC16" s="71" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
@@ -6710,28 +6800,28 @@
       <c r="BQ16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="77" t="n">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="81" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -6741,34 +6831,34 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="68" t="n">
+      <c r="Q17" s="72" t="n">
         <f aca="false">S17-Q16</f>
         <v>5</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="69" t="n">
+      <c r="R17" s="62"/>
+      <c r="S17" s="73" t="n">
         <f aca="false">V17</f>
         <v>6</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="68" t="n">
+      <c r="V17" s="72" t="n">
         <f aca="false">X17-V16</f>
         <v>6</v>
       </c>
-      <c r="W17" s="58"/>
-      <c r="X17" s="69" t="n">
+      <c r="W17" s="62"/>
+      <c r="X17" s="73" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>9</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="68" t="n">
+      <c r="AA17" s="72" t="n">
         <f aca="false">AC17-AA16</f>
         <v>9</v>
       </c>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="69" t="n">
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="73" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
@@ -6818,9 +6908,9 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -6883,11 +6973,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3"/>
       <c r="K19" s="3"/>
@@ -6951,15 +7041,15 @@
       <c r="BQ19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59" t="s">
-        <v>86</v>
+      <c r="A20" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -7022,11 +7112,11 @@
       <c r="BQ20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
+      <c r="A21" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -7089,17 +7179,17 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>91</v>
       </c>
+      <c r="B22" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>93</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -7162,15 +7252,15 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="69" t="s">
-        <v>94</v>
+      <c r="A23" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="73" t="s">
+        <v>96</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -7298,16 +7388,16 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>74</v>
+      <c r="A25" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>76</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="F25" s="78" t="s">
-        <v>96</v>
+      <c r="F25" s="82" t="s">
+        <v>98</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -7370,23 +7460,23 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="57" t="s">
+      <c r="A26" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="C26" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="D26" s="61" t="s">
         <v>101</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -7449,94 +7539,94 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="59" t="s">
+      <c r="A27" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="59" t="s">
-        <v>103</v>
+      <c r="C27" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="68" t="s">
+      <c r="D30" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="66" t="s">
+      <c r="B31" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="82" t="s">
         <v>108</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="78" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -7608,15 +7698,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="44" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="44" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="44" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="44" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="44" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="44" width="7.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="44" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="44" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="48" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="48" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="48" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="48" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="48" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="48" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="48" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="48" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="48" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7628,181 +7718,181 @@
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="79" t="n">
+      <c r="E1" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="83" t="n">
         <v>45019</v>
       </c>
-      <c r="J1" s="79" t="n">
+      <c r="J1" s="83" t="n">
         <v>45020</v>
       </c>
-      <c r="K1" s="79" t="n">
+      <c r="K1" s="83" t="n">
         <v>45021</v>
       </c>
-      <c r="L1" s="79" t="n">
+      <c r="L1" s="83" t="n">
         <v>45022</v>
       </c>
-      <c r="M1" s="79" t="n">
+      <c r="M1" s="83" t="n">
         <v>45023</v>
       </c>
-      <c r="N1" s="79" t="n">
+      <c r="N1" s="83" t="n">
         <v>45024</v>
       </c>
-      <c r="O1" s="79" t="n">
+      <c r="O1" s="83" t="n">
         <v>45025</v>
       </c>
-      <c r="P1" s="79" t="n">
+      <c r="P1" s="83" t="n">
         <v>45026</v>
       </c>
-      <c r="Q1" s="79" t="n">
+      <c r="Q1" s="83" t="n">
         <v>45027</v>
       </c>
-      <c r="R1" s="79" t="n">
+      <c r="R1" s="83" t="n">
         <v>45028</v>
       </c>
-      <c r="S1" s="79" t="n">
+      <c r="S1" s="83" t="n">
         <v>45029</v>
       </c>
-      <c r="T1" s="79" t="n">
+      <c r="T1" s="83" t="n">
         <v>45030</v>
       </c>
-      <c r="U1" s="79" t="n">
+      <c r="U1" s="83" t="n">
         <v>45031</v>
       </c>
-      <c r="V1" s="79" t="n">
+      <c r="V1" s="83" t="n">
         <v>45032</v>
       </c>
-      <c r="W1" s="79" t="n">
+      <c r="W1" s="83" t="n">
         <v>45033</v>
       </c>
-      <c r="X1" s="79" t="n">
+      <c r="X1" s="83" t="n">
         <v>45034</v>
       </c>
-      <c r="Y1" s="79" t="n">
+      <c r="Y1" s="83" t="n">
         <v>45035</v>
       </c>
-      <c r="Z1" s="79" t="n">
+      <c r="Z1" s="83" t="n">
         <v>45036</v>
       </c>
-      <c r="AA1" s="79" t="n">
+      <c r="AA1" s="83" t="n">
         <v>45037</v>
       </c>
-      <c r="AB1" s="79" t="n">
+      <c r="AB1" s="83" t="n">
         <v>45038</v>
       </c>
-      <c r="AC1" s="79" t="n">
+      <c r="AC1" s="83" t="n">
         <v>45039</v>
       </c>
-      <c r="AD1" s="79" t="n">
+      <c r="AD1" s="83" t="n">
         <v>45040</v>
       </c>
-      <c r="AE1" s="79" t="n">
+      <c r="AE1" s="83" t="n">
         <v>45041</v>
       </c>
-      <c r="AF1" s="79" t="n">
+      <c r="AF1" s="83" t="n">
         <v>45042</v>
       </c>
-      <c r="AG1" s="79" t="n">
+      <c r="AG1" s="83" t="n">
         <v>45043</v>
       </c>
-      <c r="AH1" s="79" t="n">
+      <c r="AH1" s="83" t="n">
         <v>45044</v>
       </c>
-      <c r="AI1" s="79" t="n">
+      <c r="AI1" s="83" t="n">
         <v>45045</v>
       </c>
-      <c r="AJ1" s="79" t="n">
+      <c r="AJ1" s="83" t="n">
         <v>45046</v>
       </c>
-      <c r="AK1" s="79" t="n">
+      <c r="AK1" s="83" t="n">
         <v>45047</v>
       </c>
-      <c r="AL1" s="79" t="n">
+      <c r="AL1" s="83" t="n">
         <v>45048</v>
       </c>
-      <c r="AM1" s="79" t="n">
+      <c r="AM1" s="83" t="n">
         <v>45049</v>
       </c>
-      <c r="AN1" s="79" t="n">
+      <c r="AN1" s="83" t="n">
         <v>45050</v>
       </c>
-      <c r="AO1" s="79" t="n">
+      <c r="AO1" s="83" t="n">
         <v>45051</v>
       </c>
-      <c r="AP1" s="79" t="n">
+      <c r="AP1" s="83" t="n">
         <v>45052</v>
       </c>
-      <c r="AQ1" s="79" t="n">
+      <c r="AQ1" s="83" t="n">
         <v>45053</v>
       </c>
-      <c r="AR1" s="79" t="n">
+      <c r="AR1" s="83" t="n">
         <v>45054</v>
       </c>
-      <c r="AS1" s="79" t="n">
+      <c r="AS1" s="83" t="n">
         <v>45055</v>
       </c>
-      <c r="AT1" s="79" t="n">
+      <c r="AT1" s="83" t="n">
         <v>45056</v>
       </c>
-      <c r="AU1" s="79" t="n">
+      <c r="AU1" s="83" t="n">
         <v>45057</v>
       </c>
-      <c r="AV1" s="79" t="n">
+      <c r="AV1" s="83" t="n">
         <v>45058</v>
       </c>
-      <c r="AW1" s="79" t="n">
+      <c r="AW1" s="83" t="n">
         <v>45059</v>
       </c>
-      <c r="AX1" s="79" t="n">
+      <c r="AX1" s="83" t="n">
         <v>45060</v>
       </c>
-      <c r="AY1" s="79" t="n">
+      <c r="AY1" s="83" t="n">
         <v>45061</v>
       </c>
-      <c r="AZ1" s="79" t="n">
+      <c r="AZ1" s="83" t="n">
         <v>45062</v>
       </c>
-      <c r="BA1" s="79" t="n">
+      <c r="BA1" s="83" t="n">
         <v>45063</v>
       </c>
-      <c r="BB1" s="79" t="n">
+      <c r="BB1" s="83" t="n">
         <v>45064</v>
       </c>
-      <c r="BC1" s="79" t="n">
+      <c r="BC1" s="83" t="n">
         <v>45065</v>
       </c>
-      <c r="BD1" s="79" t="n">
+      <c r="BD1" s="83" t="n">
         <v>45066</v>
       </c>
-      <c r="BE1" s="79" t="n">
+      <c r="BE1" s="83" t="n">
         <v>45067</v>
       </c>
-      <c r="BF1" s="79" t="n">
+      <c r="BF1" s="83" t="n">
         <v>45068</v>
       </c>
-      <c r="BG1" s="79" t="n">
+      <c r="BG1" s="83" t="n">
         <v>45069</v>
       </c>
-      <c r="BH1" s="79" t="n">
+      <c r="BH1" s="83" t="n">
         <v>45070</v>
       </c>
-      <c r="BI1" s="79" t="n">
+      <c r="BI1" s="83" t="n">
         <v>45071</v>
       </c>
-      <c r="BJ1" s="79" t="n">
+      <c r="BJ1" s="83" t="n">
         <v>45072</v>
       </c>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="82"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="86"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
@@ -7813,85 +7903,85 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="83" t="n">
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="87" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="84" t="n">
+      <c r="H2" s="88" t="n">
         <f aca="false">SUM(I2:BJ2)</f>
         <v>5</v>
       </c>
-      <c r="I2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="82"/>
+      <c r="I2" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
+      <c r="BB2" s="92"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="91"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="91"/>
+      <c r="BI2" s="91"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="85"/>
+      <c r="BM2" s="86"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
@@ -7902,79 +7992,79 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="83" t="n">
+      <c r="F3" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="87" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="84" t="n">
+      <c r="H3" s="88" t="n">
         <f aca="false">SUM(I3:BJ3)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="91"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="82"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="95"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="94"/>
+      <c r="BJ3" s="97"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="85"/>
+      <c r="BM3" s="86"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -7985,85 +8075,85 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="83" t="n">
+      <c r="G4" s="87" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="84" t="n">
+      <c r="H4" s="88" t="n">
         <f aca="false">SUM(I4:BJ4)</f>
         <v>4</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="91"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="90"/>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="82"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="84"/>
+      <c r="BL4" s="85"/>
+      <c r="BM4" s="86"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
@@ -8074,83 +8164,83 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="83" t="n">
+      <c r="G5" s="87" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="84" t="n">
+      <c r="H5" s="88" t="n">
         <f aca="false">SUM(I5:BJ5)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="90"/>
-      <c r="BJ5" s="93"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="81"/>
-      <c r="BM5" s="82"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="94"/>
+      <c r="BG5" s="94"/>
+      <c r="BH5" s="94"/>
+      <c r="BI5" s="94"/>
+      <c r="BJ5" s="97"/>
+      <c r="BK5" s="84"/>
+      <c r="BL5" s="85"/>
+      <c r="BM5" s="86"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
@@ -8161,87 +8251,87 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="83" t="n">
+      <c r="G6" s="87" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="H6" s="84" t="n">
+      <c r="H6" s="88" t="n">
         <f aca="false">SUM(I6:BJ6)</f>
         <v>5</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="93"/>
-      <c r="BK6" s="80"/>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="82"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="94"/>
+      <c r="AW6" s="94"/>
+      <c r="AX6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="94"/>
+      <c r="BG6" s="94"/>
+      <c r="BH6" s="94"/>
+      <c r="BI6" s="94"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="84"/>
+      <c r="BL6" s="85"/>
+      <c r="BM6" s="86"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
@@ -8252,79 +8342,79 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="83" t="n">
+      <c r="G7" s="87" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="84" t="n">
+      <c r="H7" s="88" t="n">
         <f aca="false">SUM(I7:BJ7)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="93"/>
-      <c r="BK7" s="80"/>
-      <c r="BL7" s="81"/>
-      <c r="BM7" s="82"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="95"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="94"/>
+      <c r="BG7" s="94"/>
+      <c r="BH7" s="94"/>
+      <c r="BI7" s="94"/>
+      <c r="BJ7" s="97"/>
+      <c r="BK7" s="84"/>
+      <c r="BL7" s="85"/>
+      <c r="BM7" s="86"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
@@ -8335,152 +8425,152 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="83" t="n">
+      <c r="F8" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="87" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="84" t="n">
+      <c r="H8" s="88" t="n">
         <f aca="false">SUM(I8:BJ8)</f>
         <v>3</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BI8" s="90"/>
-      <c r="BJ8" s="93"/>
-      <c r="BK8" s="80"/>
-      <c r="BL8" s="81"/>
-      <c r="BM8" s="82"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="95"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="94"/>
+      <c r="BG8" s="94"/>
+      <c r="BH8" s="94"/>
+      <c r="BI8" s="94"/>
+      <c r="BJ8" s="97"/>
+      <c r="BK8" s="84"/>
+      <c r="BL8" s="85"/>
+      <c r="BM8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="90"/>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="93"/>
-      <c r="BK9" s="80"/>
-      <c r="BL9" s="81"/>
-      <c r="BM9" s="82"/>
+      <c r="A9" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="94"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="95"/>
+      <c r="BC9" s="94"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="94"/>
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="94"/>
+      <c r="BJ9" s="97"/>
+      <c r="BK9" s="84"/>
+      <c r="BL9" s="85"/>
+      <c r="BM9" s="86"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
@@ -8491,76 +8581,76 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="70" t="s">
+      <c r="E10" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="83" t="n">
+      <c r="G10" s="87" t="n">
         <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="H10" s="84" t="n">
+      <c r="H10" s="88" t="n">
         <f aca="false">SUM(I10:BJ10)</f>
         <v>1</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="94"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="90"/>
-      <c r="BD10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="93"/>
-      <c r="BK10" s="80"/>
-      <c r="BL10" s="81"/>
-      <c r="BM10" s="82"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="98"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="95"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="94"/>
+      <c r="BG10" s="94"/>
+      <c r="BH10" s="94"/>
+      <c r="BI10" s="94"/>
+      <c r="BJ10" s="97"/>
+      <c r="BK10" s="84"/>
+      <c r="BL10" s="85"/>
+      <c r="BM10" s="86"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
@@ -8571,75 +8661,75 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="83" t="n">
+      <c r="G11" s="87" t="n">
         <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="H11" s="84" t="n">
+      <c r="H11" s="88" t="n">
         <f aca="false">SUM(I11:BJ11)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="80"/>
-      <c r="BL11" s="81"/>
-      <c r="BM11" s="82"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="95"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="94"/>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="94"/>
+      <c r="BG11" s="94"/>
+      <c r="BH11" s="94"/>
+      <c r="BI11" s="94"/>
+      <c r="BJ11" s="97"/>
+      <c r="BK11" s="84"/>
+      <c r="BL11" s="85"/>
+      <c r="BM11" s="86"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
@@ -8650,196 +8740,196 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="83" t="n">
+      <c r="G12" s="87" t="n">
         <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="H12" s="84" t="n">
+      <c r="H12" s="88" t="n">
         <f aca="false">SUM(I12:BJ12)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="91"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="91"/>
-      <c r="BC12" s="90"/>
-      <c r="BD12" s="90"/>
-      <c r="BE12" s="90"/>
-      <c r="BF12" s="90"/>
-      <c r="BG12" s="90"/>
-      <c r="BH12" s="90"/>
-      <c r="BI12" s="90"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="80"/>
-      <c r="BL12" s="81"/>
-      <c r="BM12" s="82"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="94"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="94"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="94"/>
+      <c r="BF12" s="94"/>
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="94"/>
+      <c r="BI12" s="94"/>
+      <c r="BJ12" s="97"/>
+      <c r="BK12" s="84"/>
+      <c r="BL12" s="85"/>
+      <c r="BM12" s="86"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="83" t="n">
+      <c r="G13" s="87" t="n">
         <f aca="false">Netzplan!J12</f>
         <v>20</v>
       </c>
-      <c r="H13" s="84" t="n">
+      <c r="H13" s="88" t="n">
         <f aca="false">SUM(I13:BJ13)</f>
         <v>20</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="94"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="90"/>
-      <c r="BD13" s="90"/>
-      <c r="BE13" s="90"/>
-      <c r="BF13" s="90"/>
-      <c r="BG13" s="90"/>
-      <c r="BH13" s="90"/>
-      <c r="BI13" s="90"/>
-      <c r="BJ13" s="93"/>
-      <c r="BK13" s="80"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="82"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="98"/>
+      <c r="BB13" s="96"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="94"/>
+      <c r="BG13" s="94"/>
+      <c r="BH13" s="94"/>
+      <c r="BI13" s="94"/>
+      <c r="BJ13" s="97"/>
+      <c r="BK13" s="84"/>
+      <c r="BL13" s="85"/>
+      <c r="BM13" s="86"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
@@ -8850,77 +8940,77 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="83" t="n">
+      <c r="G14" s="87" t="n">
         <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
-      <c r="H14" s="84" t="n">
+      <c r="H14" s="88" t="n">
         <f aca="false">SUM(I14:BJ14)</f>
         <v>2</v>
       </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="92"/>
-      <c r="AO14" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AW14" s="90"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="90"/>
-      <c r="BA14" s="90"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="90"/>
-      <c r="BD14" s="90"/>
-      <c r="BE14" s="90"/>
-      <c r="BF14" s="90"/>
-      <c r="BG14" s="90"/>
-      <c r="BH14" s="90"/>
-      <c r="BI14" s="90"/>
-      <c r="BJ14" s="93"/>
-      <c r="BK14" s="80"/>
-      <c r="BL14" s="81"/>
-      <c r="BM14" s="82"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="96"/>
+      <c r="AO14" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="98"/>
+      <c r="AT14" s="98"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="94"/>
+      <c r="BG14" s="94"/>
+      <c r="BH14" s="94"/>
+      <c r="BI14" s="94"/>
+      <c r="BJ14" s="97"/>
+      <c r="BK14" s="84"/>
+      <c r="BL14" s="85"/>
+      <c r="BM14" s="86"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
@@ -8931,78 +9021,78 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="83" t="n">
+      <c r="G15" s="87" t="n">
         <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="H15" s="84" t="n">
+      <c r="H15" s="88" t="n">
         <f aca="false">SUM(I15:BJ15)</f>
         <v>2</v>
       </c>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="97"/>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="90"/>
-      <c r="BA15" s="90"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="90"/>
-      <c r="BD15" s="90"/>
-      <c r="BE15" s="90"/>
-      <c r="BF15" s="90"/>
-      <c r="BG15" s="90"/>
-      <c r="BH15" s="90"/>
-      <c r="BI15" s="90"/>
-      <c r="BJ15" s="93"/>
-      <c r="BK15" s="80"/>
-      <c r="BL15" s="81"/>
-      <c r="BM15" s="82"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="101"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="95"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="94"/>
+      <c r="BG15" s="94"/>
+      <c r="BH15" s="94"/>
+      <c r="BI15" s="94"/>
+      <c r="BJ15" s="97"/>
+      <c r="BK15" s="84"/>
+      <c r="BL15" s="85"/>
+      <c r="BM15" s="86"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
@@ -9013,73 +9103,73 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="83" t="n">
+      <c r="G16" s="87" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="H16" s="84" t="n">
+      <c r="H16" s="88" t="n">
         <f aca="false">SUM(I16:BJ16)</f>
         <v>1</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="97"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="93"/>
-      <c r="AV16" s="90"/>
-      <c r="AW16" s="90"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="90"/>
-      <c r="BA16" s="90"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="90"/>
-      <c r="BD16" s="90"/>
-      <c r="BE16" s="90"/>
-      <c r="BF16" s="90"/>
-      <c r="BG16" s="90"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="90"/>
-      <c r="BJ16" s="93"/>
-      <c r="BK16" s="80"/>
-      <c r="BL16" s="81"/>
-      <c r="BM16" s="82"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="101"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="97"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="94"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="94"/>
+      <c r="BH16" s="94"/>
+      <c r="BI16" s="94"/>
+      <c r="BJ16" s="97"/>
+      <c r="BK16" s="84"/>
+      <c r="BL16" s="85"/>
+      <c r="BM16" s="86"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
@@ -9090,83 +9180,83 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="83" t="n">
+      <c r="G17" s="87" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="H17" s="84" t="n">
+      <c r="H17" s="88" t="n">
         <f aca="false">SUM(I17:BJ17)</f>
         <v>3</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="90"/>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="90"/>
-      <c r="BE17" s="90"/>
-      <c r="BF17" s="90"/>
-      <c r="BG17" s="90"/>
-      <c r="BH17" s="90"/>
-      <c r="BI17" s="90"/>
-      <c r="BJ17" s="93"/>
-      <c r="BK17" s="80"/>
-      <c r="BL17" s="81"/>
-      <c r="BM17" s="82"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="94"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="94"/>
+      <c r="AU17" s="98"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="94"/>
+      <c r="BE17" s="94"/>
+      <c r="BF17" s="94"/>
+      <c r="BG17" s="94"/>
+      <c r="BH17" s="94"/>
+      <c r="BI17" s="94"/>
+      <c r="BJ17" s="97"/>
+      <c r="BK17" s="84"/>
+      <c r="BL17" s="85"/>
+      <c r="BM17" s="86"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
@@ -9177,84 +9267,84 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="83" t="n">
+      <c r="E18" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="87" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="H18" s="84" t="n">
+      <c r="H18" s="88" t="n">
         <f aca="false">SUM(I18:BJ18)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="98"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="98"/>
-      <c r="AR18" s="98"/>
-      <c r="AS18" s="98"/>
-      <c r="AT18" s="98"/>
-      <c r="AU18" s="98"/>
-      <c r="AV18" s="98"/>
-      <c r="AW18" s="98"/>
-      <c r="AX18" s="98"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="100"/>
-      <c r="BB18" s="99"/>
-      <c r="BC18" s="98"/>
-      <c r="BD18" s="98"/>
-      <c r="BE18" s="98"/>
-      <c r="BF18" s="98" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG18" s="98"/>
-      <c r="BH18" s="98"/>
-      <c r="BI18" s="98"/>
-      <c r="BJ18" s="101"/>
-      <c r="BK18" s="80"/>
-      <c r="BL18" s="81"/>
-      <c r="BM18" s="82"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="102"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="102"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="102"/>
+      <c r="AO18" s="102"/>
+      <c r="AP18" s="102"/>
+      <c r="AQ18" s="102"/>
+      <c r="AR18" s="102"/>
+      <c r="AS18" s="102"/>
+      <c r="AT18" s="102"/>
+      <c r="AU18" s="102"/>
+      <c r="AV18" s="102"/>
+      <c r="AW18" s="102"/>
+      <c r="AX18" s="102"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="104"/>
+      <c r="BB18" s="103"/>
+      <c r="BC18" s="102"/>
+      <c r="BD18" s="102"/>
+      <c r="BE18" s="102"/>
+      <c r="BF18" s="102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="102"/>
+      <c r="BH18" s="102"/>
+      <c r="BI18" s="102"/>
+      <c r="BJ18" s="105"/>
+      <c r="BK18" s="84"/>
+      <c r="BL18" s="85"/>
+      <c r="BM18" s="86"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="A19" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PSP funktionsorientiert" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="PSP funktionsorientiert_2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="PSP zeitlich" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Gantt" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="112">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -430,27 +430,20 @@
       <t xml:space="preserve"> FEZ</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">Vorarbeiten abgeschlossen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektabschluss</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="0.00\ %"/>
-    <numFmt numFmtId="169" formatCode="0\ %"/>
-    <numFmt numFmtId="170" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="0.00\ %"/>
+    <numFmt numFmtId="168" formatCode="0\ %"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -500,11 +493,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -780,7 +768,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,11 +849,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -885,7 +869,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -901,7 +885,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -909,7 +893,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -921,7 +905,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -953,7 +937,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -973,7 +957,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1001,11 +985,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,7 +1001,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,7 +1017,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,23 +1025,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,11 +1069,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1101,23 +1085,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1165,10 +1149,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1187,10 +1167,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3287,129 +3263,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Form 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10724400" y="1677960"/>
-          <a:ext cx="134280" cy="173520"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>211680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Bild 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15049800" y="2816280"/>
-          <a:ext cx="139680" cy="171360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Bild 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17252280" y="3285360"/>
-          <a:ext cx="139680" cy="171360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -4047,7 +3900,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -4061,7 +3914,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -4075,7 +3928,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -4089,7 +3942,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -4103,7 +3956,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4123,204 +3976,204 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24" t="s">
+    <row r="27" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-    </row>
-    <row r="39" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-    </row>
-    <row r="43" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="35"/>
+      <c r="B44" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -4646,16 +4499,16 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
@@ -4729,17 +4582,17 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
+    <row r="33" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
@@ -4789,17 +4642,17 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" s="42" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="s">
+    <row r="38" s="41" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
@@ -4934,7 +4787,7 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
@@ -4945,36 +4798,36 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13.96"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="42" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="43" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>74</v>
       </c>
       <c r="K1" s="3"/>
@@ -5038,59 +4891,59 @@
       <c r="BQ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="53" t="n">
+      <c r="G2" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="55" t="n">
+      <c r="I2" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="56" t="n">
+      <c r="J2" s="55" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="57" t="n">
+      <c r="L2" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59" t="n">
+      <c r="M2" s="57"/>
+      <c r="N2" s="58" t="n">
         <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="57" t="n">
+      <c r="Q2" s="56" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="59" t="n">
+      <c r="R2" s="57"/>
+      <c r="S2" s="58" t="n">
         <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="57" t="n">
+      <c r="V2" s="56" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59" t="n">
+      <c r="W2" s="57"/>
+      <c r="X2" s="58" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
@@ -5101,141 +4954,141 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="57" t="n">
+      <c r="AF2" s="56" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>14</v>
       </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59" t="n">
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="58" t="n">
         <f aca="false">AF2+AF4</f>
         <v>15</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="57" t="n">
+      <c r="AK2" s="56" t="n">
         <f aca="false">AH2</f>
         <v>15</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="59" t="n">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="58" t="n">
         <f aca="false">AK2+AK4</f>
         <v>16</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="57" t="n">
+      <c r="AP2" s="56" t="n">
         <f aca="false">AM2</f>
         <v>16</v>
       </c>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="59" t="n">
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="58" t="n">
         <f aca="false">AP2+AP4</f>
         <v>17</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
-      <c r="AU2" s="57" t="n">
+      <c r="AU2" s="56" t="n">
         <f aca="false">AR2</f>
         <v>17</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="59" t="n">
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="58" t="n">
         <f aca="false">AU2+AU4</f>
         <v>19</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
-      <c r="AZ2" s="57" t="n">
+      <c r="AZ2" s="56" t="n">
         <f aca="false">AW2</f>
         <v>19</v>
       </c>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="59" t="n">
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="58" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>21</v>
       </c>
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
-      <c r="BE2" s="57" t="n">
+      <c r="BE2" s="56" t="n">
         <f aca="false">BB2</f>
         <v>21</v>
       </c>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="59" t="n">
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="58" t="n">
         <f aca="false">BE2+BE4</f>
         <v>22</v>
       </c>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
-      <c r="BJ2" s="57" t="n">
+      <c r="BJ2" s="56" t="n">
         <f aca="false">BG2</f>
         <v>22</v>
       </c>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="59" t="n">
+      <c r="BK2" s="57"/>
+      <c r="BL2" s="58" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>25</v>
       </c>
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
-      <c r="BO2" s="57" t="n">
+      <c r="BO2" s="56" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>29</v>
       </c>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="59" t="n">
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="58" t="n">
         <f aca="false">BO2+BO4</f>
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="62" t="n">
+      <c r="G3" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="55" t="n">
+      <c r="I3" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="63" t="n">
+      <c r="J3" s="62" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="64" t="s">
+      <c r="V3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -5243,127 +5096,127 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="64" t="s">
+      <c r="AF3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="64" t="s">
+      <c r="AK3" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="64" t="s">
+      <c r="AP3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="64" t="s">
+      <c r="AU3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="64" t="s">
+      <c r="AZ3" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="64" t="s">
+      <c r="BE3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="64"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
-      <c r="BJ3" s="64" t="s">
+      <c r="BJ3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3"/>
-      <c r="BO3" s="64" t="s">
+      <c r="BO3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="62" t="n">
+      <c r="G4" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="55" t="n">
+      <c r="I4" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="63" t="n">
+      <c r="J4" s="62" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="65" t="n">
+      <c r="L4" s="64" t="n">
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="66" t="n">
+      <c r="M4" s="65" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="67" t="n">
+      <c r="N4" s="66" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="65" t="n">
+      <c r="Q4" s="64" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="66" t="n">
+      <c r="R4" s="65" t="n">
         <f aca="false">S5-S2</f>
         <v>4</v>
       </c>
-      <c r="S4" s="67" t="n">
+      <c r="S4" s="66" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="65" t="n">
+      <c r="V4" s="64" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="66" t="n">
+      <c r="W4" s="65" t="n">
         <f aca="false">X5-X2</f>
         <v>8</v>
       </c>
-      <c r="X4" s="67" t="n">
+      <c r="X4" s="66" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
@@ -5374,171 +5227,171 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="65" t="n">
+      <c r="AF4" s="64" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="66" t="n">
+      <c r="AG4" s="65" t="n">
         <f aca="false">AH5-AH2</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="67" t="n">
+      <c r="AH4" s="66" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="65" t="n">
+      <c r="AK4" s="64" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="66" t="n">
+      <c r="AL4" s="65" t="n">
         <f aca="false">AM5-AM2</f>
         <v>4</v>
       </c>
-      <c r="AM4" s="67" t="n">
+      <c r="AM4" s="66" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="65" t="n">
+      <c r="AP4" s="64" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="66" t="n">
+      <c r="AQ4" s="65" t="n">
         <f aca="false">AR5-AR2</f>
         <v>4</v>
       </c>
-      <c r="AR4" s="67" t="n">
+      <c r="AR4" s="66" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="65" t="n">
+      <c r="AU4" s="64" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="66" t="n">
+      <c r="AV4" s="65" t="n">
         <f aca="false">AW5-AW2</f>
         <v>4</v>
       </c>
-      <c r="AW4" s="67" t="n">
+      <c r="AW4" s="66" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="65" t="n">
+      <c r="AZ4" s="64" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="66" t="n">
+      <c r="BA4" s="65" t="n">
         <f aca="false">BB5-BB2</f>
         <v>4</v>
       </c>
-      <c r="BB4" s="67" t="n">
+      <c r="BB4" s="66" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
       <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="65" t="n">
+      <c r="BE4" s="64" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="66" t="n">
+      <c r="BF4" s="65" t="n">
         <f aca="false">BG5-BG2</f>
         <v>4</v>
       </c>
-      <c r="BG4" s="67" t="n">
+      <c r="BG4" s="66" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
-      <c r="BJ4" s="65" t="n">
+      <c r="BJ4" s="64" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="66" t="n">
+      <c r="BK4" s="65" t="n">
         <f aca="false">BL5-BL2</f>
         <v>4</v>
       </c>
-      <c r="BL4" s="67" t="n">
+      <c r="BL4" s="66" t="n">
         <f aca="false">BO2-BL2</f>
         <v>4</v>
       </c>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="65" t="n">
+      <c r="BO4" s="64" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="66" t="n">
+      <c r="BP4" s="65" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="67"/>
+      <c r="BQ4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="54" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="62" t="n">
+      <c r="G5" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="55" t="n">
+      <c r="I5" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="n">
+      <c r="J5" s="62" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="68" t="n">
+      <c r="L5" s="67" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="69" t="n">
+      <c r="M5" s="57"/>
+      <c r="N5" s="68" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="68" t="n">
+      <c r="Q5" s="67" t="n">
         <f aca="false">S5-Q4</f>
         <v>9</v>
       </c>
-      <c r="R5" s="58"/>
-      <c r="S5" s="69" t="n">
+      <c r="R5" s="57"/>
+      <c r="S5" s="68" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>10</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="68" t="n">
+      <c r="V5" s="67" t="n">
         <f aca="false">X5-V4</f>
         <v>14</v>
       </c>
-      <c r="W5" s="58"/>
-      <c r="X5" s="69" t="n">
+      <c r="W5" s="57"/>
+      <c r="X5" s="68" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -5549,119 +5402,119 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="68" t="n">
+      <c r="AF5" s="67" t="n">
         <f aca="false">AH5-AF4</f>
         <v>18</v>
       </c>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="69" t="n">
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="68" t="n">
         <f aca="false">AK5</f>
         <v>19</v>
       </c>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="68" t="n">
+      <c r="AK5" s="67" t="n">
         <f aca="false">AM5-AK4</f>
         <v>19</v>
       </c>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="69" t="n">
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="68" t="n">
         <f aca="false">AP5</f>
         <v>20</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="68" t="n">
+      <c r="AP5" s="67" t="n">
         <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="69" t="n">
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="68" t="n">
         <f aca="false">AU5</f>
         <v>21</v>
       </c>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="68" t="n">
+      <c r="AU5" s="67" t="n">
         <f aca="false">AW5-AU4</f>
         <v>21</v>
       </c>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="69" t="n">
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="68" t="n">
         <f aca="false">AZ5</f>
         <v>23</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="68" t="n">
+      <c r="AZ5" s="67" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>23</v>
       </c>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="69" t="n">
+      <c r="BA5" s="57"/>
+      <c r="BB5" s="68" t="n">
         <f aca="false">BE5</f>
         <v>25</v>
       </c>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-      <c r="BE5" s="68" t="n">
+      <c r="BE5" s="67" t="n">
         <f aca="false">BG5-BE4</f>
         <v>25</v>
       </c>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="69" t="n">
+      <c r="BF5" s="57"/>
+      <c r="BG5" s="68" t="n">
         <f aca="false">BJ5</f>
         <v>26</v>
       </c>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="68" t="n">
+      <c r="BJ5" s="67" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>26</v>
       </c>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="69" t="n">
+      <c r="BK5" s="57"/>
+      <c r="BL5" s="68" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="68" t="n">
+      <c r="BO5" s="67" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>29</v>
       </c>
-      <c r="BP5" s="58"/>
-      <c r="BQ5" s="69" t="n">
+      <c r="BP5" s="57"/>
+      <c r="BQ5" s="68" t="n">
         <f aca="false">BQ2</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="70" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="61" t="n">
+      <c r="G6" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="55" t="n">
+      <c r="I6" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="63" t="n">
+      <c r="J6" s="62" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
@@ -5726,30 +5579,30 @@
       <c r="BQ6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="54" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="62" t="n">
+      <c r="G7" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="55" t="n">
+      <c r="I7" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="63" t="n">
+      <c r="J7" s="62" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -5814,30 +5667,30 @@
       <c r="BQ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="70" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="61" t="n">
+      <c r="G8" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="55" t="n">
+      <c r="I8" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="63" t="n">
+      <c r="J8" s="62" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
@@ -5852,23 +5705,23 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="57" t="n">
+      <c r="V8" s="56" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59" t="n">
+      <c r="W8" s="57"/>
+      <c r="X8" s="58" t="n">
         <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="57" t="n">
+      <c r="AA8" s="56" t="n">
         <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="59" t="n">
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="58" t="n">
         <f aca="false">AA8+AA10</f>
         <v>14</v>
       </c>
@@ -5914,31 +5767,31 @@
       <c r="BQ8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="70" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="61" t="n">
+      <c r="G9" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="55" t="n">
+      <c r="I9" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J9" s="63" t="n">
+      <c r="J9" s="62" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
@@ -5953,18 +5806,18 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="64" t="s">
+      <c r="AA9" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -6007,31 +5860,31 @@
       <c r="BQ9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="70" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="61" t="n">
+      <c r="G10" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="55" t="n">
+      <c r="I10" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J10" s="63" t="n">
+      <c r="J10" s="62" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
@@ -6046,29 +5899,29 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="65" t="n">
+      <c r="V10" s="64" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="66" t="n">
+      <c r="W10" s="65" t="n">
         <f aca="false">X11-X8</f>
         <v>4</v>
       </c>
-      <c r="X10" s="67" t="n">
+      <c r="X10" s="66" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="65" t="n">
+      <c r="AA10" s="64" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="66" t="n">
+      <c r="AB10" s="65" t="n">
         <f aca="false">AC11-AC8</f>
         <v>4</v>
       </c>
-      <c r="AC10" s="67" t="n">
+      <c r="AC10" s="66" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
@@ -6114,31 +5967,31 @@
       <c r="BQ10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="70" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="61" t="n">
+      <c r="G11" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="55" t="n">
+      <c r="I11" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J11" s="63" t="n">
+      <c r="J11" s="62" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
@@ -6153,23 +6006,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="68" t="n">
+      <c r="V11" s="67" t="n">
         <f aca="false">X11-V10</f>
         <v>10</v>
       </c>
-      <c r="W11" s="58"/>
-      <c r="X11" s="69" t="n">
+      <c r="W11" s="57"/>
+      <c r="X11" s="68" t="n">
         <f aca="false">AA11</f>
         <v>13</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="68" t="n">
+      <c r="AA11" s="67" t="n">
         <f aca="false">AC11-AA10</f>
         <v>13</v>
       </c>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="69" t="n">
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="68" t="n">
         <f aca="false">AF5</f>
         <v>18</v>
       </c>
@@ -6215,30 +6068,30 @@
       <c r="BQ11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="70" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="61" t="n">
+      <c r="G12" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="55" t="n">
+      <c r="I12" s="54" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="63" t="n">
+      <c r="J12" s="62" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
@@ -6303,31 +6156,31 @@
       <c r="BQ12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="61" t="n">
+      <c r="G13" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="55" t="n">
+      <c r="I13" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="63" t="n">
+      <c r="J13" s="62" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
@@ -6392,31 +6245,31 @@
       <c r="BQ13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="61" t="n">
+      <c r="G14" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="55" t="n">
+      <c r="I14" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J14" s="63" t="n">
+      <c r="J14" s="62" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
@@ -6426,34 +6279,34 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="57" t="n">
+      <c r="Q14" s="56" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59" t="n">
+      <c r="R14" s="57"/>
+      <c r="S14" s="58" t="n">
         <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="57" t="n">
+      <c r="V14" s="56" t="n">
         <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59" t="n">
+      <c r="W14" s="57"/>
+      <c r="X14" s="58" t="n">
         <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="57" t="n">
+      <c r="AA14" s="56" t="n">
         <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="59" t="n">
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="58" t="n">
         <f aca="false">AA14+AA16</f>
         <v>29</v>
       </c>
@@ -6499,31 +6352,31 @@
       <c r="BQ14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="70" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="61" t="n">
+      <c r="G15" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="55" t="n">
+      <c r="I15" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J15" s="63" t="n">
+      <c r="J15" s="62" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
@@ -6533,25 +6386,25 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="64" t="s">
+      <c r="Q15" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="64" t="s">
+      <c r="V15" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="64" t="s">
+      <c r="AA15" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -6594,31 +6447,31 @@
       <c r="BQ15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="61" t="n">
+      <c r="G16" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="55" t="n">
+      <c r="I16" s="54" t="n">
         <f aca="false">(100%+(100%-$I$12))/2</f>
         <v>0.75</v>
       </c>
-      <c r="J16" s="63" t="n">
+      <c r="J16" s="62" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
@@ -6628,43 +6481,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="65" t="n">
+      <c r="Q16" s="64" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="66" t="n">
+      <c r="R16" s="65" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="67" t="n">
+      <c r="S16" s="66" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="65" t="n">
+      <c r="V16" s="64" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="66" t="n">
+      <c r="W16" s="65" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="67" t="n">
+      <c r="X16" s="66" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="65" t="n">
+      <c r="AA16" s="64" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="66" t="n">
+      <c r="AB16" s="65" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="67" t="n">
+      <c r="AC16" s="66" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
@@ -6710,28 +6563,28 @@
       <c r="BQ16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75" t="n">
+      <c r="F17" s="73"/>
+      <c r="G17" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="76" t="n">
+      <c r="I17" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="77" t="n">
+      <c r="J17" s="76" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -6741,34 +6594,34 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="68" t="n">
+      <c r="Q17" s="67" t="n">
         <f aca="false">S17-Q16</f>
         <v>5</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="69" t="n">
+      <c r="R17" s="57"/>
+      <c r="S17" s="68" t="n">
         <f aca="false">V17</f>
         <v>6</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="68" t="n">
+      <c r="V17" s="67" t="n">
         <f aca="false">X17-V16</f>
         <v>6</v>
       </c>
-      <c r="W17" s="58"/>
-      <c r="X17" s="69" t="n">
+      <c r="W17" s="57"/>
+      <c r="X17" s="68" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>9</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="68" t="n">
+      <c r="AA17" s="67" t="n">
         <f aca="false">AC17-AA16</f>
         <v>9</v>
       </c>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="69" t="n">
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="68" t="n">
         <f aca="false">BO5</f>
         <v>29</v>
       </c>
@@ -6818,9 +6671,9 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -6951,11 +6804,11 @@
       <c r="BQ19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="58" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -7022,11 +6875,11 @@
       <c r="BQ20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -7089,13 +6942,13 @@
       <c r="BQ21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="66" t="s">
         <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -7162,11 +7015,11 @@
       <c r="BQ22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="68" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -7298,15 +7151,15 @@
       <c r="BQ24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="77" t="s">
         <v>96</v>
       </c>
       <c r="K25" s="3"/>
@@ -7370,22 +7223,22 @@
       <c r="BQ25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="77" t="s">
         <v>101</v>
       </c>
       <c r="K26" s="3"/>
@@ -7449,93 +7302,93 @@
       <c r="BQ26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="F28" s="77" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="67" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="77" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7598,25 +7451,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM19"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
+      <selection pane="topRight" activeCell="AG18" activeCellId="0" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="44" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="44" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="44" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="44" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="44" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="44" width="7.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="44" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="44" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="43" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="43" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="43" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="43" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="43" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="43" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="43" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="43" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7628,181 +7481,181 @@
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="79" t="n">
+      <c r="H1" s="46"/>
+      <c r="I1" s="78" t="n">
         <v>45019</v>
       </c>
-      <c r="J1" s="79" t="n">
+      <c r="J1" s="78" t="n">
         <v>45020</v>
       </c>
-      <c r="K1" s="79" t="n">
+      <c r="K1" s="78" t="n">
         <v>45021</v>
       </c>
-      <c r="L1" s="79" t="n">
+      <c r="L1" s="78" t="n">
         <v>45022</v>
       </c>
-      <c r="M1" s="79" t="n">
+      <c r="M1" s="78" t="n">
         <v>45023</v>
       </c>
-      <c r="N1" s="79" t="n">
+      <c r="N1" s="78" t="n">
         <v>45024</v>
       </c>
-      <c r="O1" s="79" t="n">
+      <c r="O1" s="78" t="n">
         <v>45025</v>
       </c>
-      <c r="P1" s="79" t="n">
+      <c r="P1" s="78" t="n">
         <v>45026</v>
       </c>
-      <c r="Q1" s="79" t="n">
+      <c r="Q1" s="78" t="n">
         <v>45027</v>
       </c>
-      <c r="R1" s="79" t="n">
+      <c r="R1" s="78" t="n">
         <v>45028</v>
       </c>
-      <c r="S1" s="79" t="n">
+      <c r="S1" s="78" t="n">
         <v>45029</v>
       </c>
-      <c r="T1" s="79" t="n">
+      <c r="T1" s="78" t="n">
         <v>45030</v>
       </c>
-      <c r="U1" s="79" t="n">
+      <c r="U1" s="78" t="n">
         <v>45031</v>
       </c>
-      <c r="V1" s="79" t="n">
+      <c r="V1" s="78" t="n">
         <v>45032</v>
       </c>
-      <c r="W1" s="79" t="n">
+      <c r="W1" s="78" t="n">
         <v>45033</v>
       </c>
-      <c r="X1" s="79" t="n">
+      <c r="X1" s="78" t="n">
         <v>45034</v>
       </c>
-      <c r="Y1" s="79" t="n">
+      <c r="Y1" s="78" t="n">
         <v>45035</v>
       </c>
-      <c r="Z1" s="79" t="n">
+      <c r="Z1" s="78" t="n">
         <v>45036</v>
       </c>
-      <c r="AA1" s="79" t="n">
+      <c r="AA1" s="78" t="n">
         <v>45037</v>
       </c>
-      <c r="AB1" s="79" t="n">
+      <c r="AB1" s="78" t="n">
         <v>45038</v>
       </c>
-      <c r="AC1" s="79" t="n">
+      <c r="AC1" s="78" t="n">
         <v>45039</v>
       </c>
-      <c r="AD1" s="79" t="n">
+      <c r="AD1" s="78" t="n">
         <v>45040</v>
       </c>
-      <c r="AE1" s="79" t="n">
+      <c r="AE1" s="78" t="n">
         <v>45041</v>
       </c>
-      <c r="AF1" s="79" t="n">
+      <c r="AF1" s="78" t="n">
         <v>45042</v>
       </c>
-      <c r="AG1" s="79" t="n">
+      <c r="AG1" s="78" t="n">
         <v>45043</v>
       </c>
-      <c r="AH1" s="79" t="n">
+      <c r="AH1" s="78" t="n">
         <v>45044</v>
       </c>
-      <c r="AI1" s="79" t="n">
+      <c r="AI1" s="78" t="n">
         <v>45045</v>
       </c>
-      <c r="AJ1" s="79" t="n">
+      <c r="AJ1" s="78" t="n">
         <v>45046</v>
       </c>
-      <c r="AK1" s="79" t="n">
+      <c r="AK1" s="78" t="n">
         <v>45047</v>
       </c>
-      <c r="AL1" s="79" t="n">
+      <c r="AL1" s="78" t="n">
         <v>45048</v>
       </c>
-      <c r="AM1" s="79" t="n">
+      <c r="AM1" s="78" t="n">
         <v>45049</v>
       </c>
-      <c r="AN1" s="79" t="n">
+      <c r="AN1" s="78" t="n">
         <v>45050</v>
       </c>
-      <c r="AO1" s="79" t="n">
+      <c r="AO1" s="78" t="n">
         <v>45051</v>
       </c>
-      <c r="AP1" s="79" t="n">
+      <c r="AP1" s="78" t="n">
         <v>45052</v>
       </c>
-      <c r="AQ1" s="79" t="n">
+      <c r="AQ1" s="78" t="n">
         <v>45053</v>
       </c>
-      <c r="AR1" s="79" t="n">
+      <c r="AR1" s="78" t="n">
         <v>45054</v>
       </c>
-      <c r="AS1" s="79" t="n">
+      <c r="AS1" s="78" t="n">
         <v>45055</v>
       </c>
-      <c r="AT1" s="79" t="n">
+      <c r="AT1" s="78" t="n">
         <v>45056</v>
       </c>
-      <c r="AU1" s="79" t="n">
+      <c r="AU1" s="78" t="n">
         <v>45057</v>
       </c>
-      <c r="AV1" s="79" t="n">
+      <c r="AV1" s="78" t="n">
         <v>45058</v>
       </c>
-      <c r="AW1" s="79" t="n">
+      <c r="AW1" s="78" t="n">
         <v>45059</v>
       </c>
-      <c r="AX1" s="79" t="n">
+      <c r="AX1" s="78" t="n">
         <v>45060</v>
       </c>
-      <c r="AY1" s="79" t="n">
+      <c r="AY1" s="78" t="n">
         <v>45061</v>
       </c>
-      <c r="AZ1" s="79" t="n">
+      <c r="AZ1" s="78" t="n">
         <v>45062</v>
       </c>
-      <c r="BA1" s="79" t="n">
+      <c r="BA1" s="78" t="n">
         <v>45063</v>
       </c>
-      <c r="BB1" s="79" t="n">
+      <c r="BB1" s="78" t="n">
         <v>45064</v>
       </c>
-      <c r="BC1" s="79" t="n">
+      <c r="BC1" s="78" t="n">
         <v>45065</v>
       </c>
-      <c r="BD1" s="79" t="n">
+      <c r="BD1" s="78" t="n">
         <v>45066</v>
       </c>
-      <c r="BE1" s="79" t="n">
+      <c r="BE1" s="78" t="n">
         <v>45067</v>
       </c>
-      <c r="BF1" s="79" t="n">
+      <c r="BF1" s="78" t="n">
         <v>45068</v>
       </c>
-      <c r="BG1" s="79" t="n">
+      <c r="BG1" s="78" t="n">
         <v>45069</v>
       </c>
-      <c r="BH1" s="79" t="n">
+      <c r="BH1" s="78" t="n">
         <v>45070</v>
       </c>
-      <c r="BI1" s="79" t="n">
+      <c r="BI1" s="78" t="n">
         <v>45071</v>
       </c>
-      <c r="BJ1" s="79" t="n">
+      <c r="BJ1" s="78" t="n">
         <v>45072</v>
       </c>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="82"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="81"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
@@ -7813,85 +7666,75 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="83" t="n">
+      <c r="G2" s="82" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="84" t="n">
+      <c r="H2" s="83" t="n">
         <f aca="false">SUM(I2:BJ2)</f>
-        <v>5</v>
-      </c>
-      <c r="I2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="86"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="81"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
@@ -7902,79 +7745,77 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="83" t="n">
+      <c r="G3" s="82" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="84" t="n">
+      <c r="H3" s="83" t="n">
         <f aca="false">SUM(I3:BJ3)</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="91"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="89"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="89"/>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="89"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="89"/>
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="89"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="81"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -7985,85 +7826,77 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="83" t="n">
+      <c r="G4" s="82" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="84" t="n">
+      <c r="H4" s="83" t="n">
         <f aca="false">SUM(I4:BJ4)</f>
-        <v>4</v>
-      </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="91"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="90"/>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="79"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="81"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
@@ -8074,83 +7907,77 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="83" t="n">
+      <c r="G5" s="82" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="84" t="n">
+      <c r="H5" s="83" t="n">
         <f aca="false">SUM(I5:BJ5)</f>
-        <v>3</v>
-      </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="90"/>
-      <c r="BJ5" s="93"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="81"/>
-      <c r="BM5" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="90"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="89"/>
+      <c r="BJ5" s="92"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="81"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
@@ -8161,87 +7988,77 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="83" t="n">
+      <c r="G6" s="82" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="H6" s="84" t="n">
+      <c r="H6" s="83" t="n">
         <f aca="false">SUM(I6:BJ6)</f>
-        <v>5</v>
-      </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="93"/>
-      <c r="BK6" s="80"/>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="79"/>
+      <c r="BL6" s="80"/>
+      <c r="BM6" s="81"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
@@ -8252,79 +8069,77 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="83" t="n">
+      <c r="G7" s="82" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="84" t="n">
+      <c r="H7" s="83" t="n">
         <f aca="false">SUM(I7:BJ7)</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="93"/>
-      <c r="BK7" s="80"/>
-      <c r="BL7" s="81"/>
-      <c r="BM7" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="79"/>
+      <c r="BL7" s="80"/>
+      <c r="BM7" s="81"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
@@ -8335,929 +8150,782 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="83" t="n">
+      <c r="G8" s="82" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="84" t="n">
+      <c r="H8" s="83" t="n">
         <f aca="false">SUM(I8:BJ8)</f>
-        <v>3</v>
-      </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="90"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="89"/>
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="79"/>
+      <c r="BL8" s="80"/>
+      <c r="BM8" s="81"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="82" t="n">
+        <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="T8" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BI8" s="90"/>
-      <c r="BJ8" s="93"/>
-      <c r="BK8" s="80"/>
-      <c r="BL8" s="81"/>
-      <c r="BM8" s="82"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="90"/>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="93"/>
-      <c r="BK9" s="80"/>
-      <c r="BL9" s="81"/>
-      <c r="BM9" s="82"/>
+      <c r="H9" s="83" t="n">
+        <f aca="false">SUM(I9:BJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="93"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="90"/>
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="89"/>
+      <c r="BH9" s="89"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="92"/>
+      <c r="BK9" s="79"/>
+      <c r="BL9" s="80"/>
+      <c r="BM9" s="81"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="83" t="n">
-        <f aca="false">Netzplan!J9</f>
+      <c r="E10" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="82" t="n">
+        <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="84" t="n">
+      <c r="H10" s="83" t="n">
         <f aca="false">SUM(I10:BJ10)</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="94"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="90"/>
-      <c r="BD10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="93"/>
-      <c r="BK10" s="80"/>
-      <c r="BL10" s="81"/>
-      <c r="BM10" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="89"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="89"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="89"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="89"/>
+      <c r="BH10" s="89"/>
+      <c r="BI10" s="89"/>
+      <c r="BJ10" s="92"/>
+      <c r="BK10" s="79"/>
+      <c r="BL10" s="80"/>
+      <c r="BM10" s="81"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="83" t="n">
-        <f aca="false">Netzplan!J10</f>
+      <c r="E11" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="82" t="n">
+        <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="H11" s="84" t="n">
+      <c r="H11" s="83" t="n">
         <f aca="false">SUM(I11:BJ11)</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="90"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="80"/>
-      <c r="BL11" s="81"/>
-      <c r="BM11" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="89"/>
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="89"/>
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="89"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="79"/>
+      <c r="BL11" s="80"/>
+      <c r="BM11" s="81"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="83" t="n">
-        <f aca="false">Netzplan!J11</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="84" t="n">
+      <c r="E12" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="82" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="83" t="n">
         <f aca="false">SUM(I12:BJ12)</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
       <c r="AK12" s="91"/>
       <c r="AL12" s="93"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
       <c r="BB12" s="91"/>
-      <c r="BC12" s="90"/>
-      <c r="BD12" s="90"/>
-      <c r="BE12" s="90"/>
-      <c r="BF12" s="90"/>
-      <c r="BG12" s="90"/>
-      <c r="BH12" s="90"/>
-      <c r="BI12" s="90"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="80"/>
-      <c r="BL12" s="81"/>
-      <c r="BM12" s="82"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="89"/>
+      <c r="BJ12" s="92"/>
+      <c r="BK12" s="79"/>
+      <c r="BL12" s="80"/>
+      <c r="BM12" s="81"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="83" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
-      </c>
-      <c r="H13" s="84" t="n">
+      <c r="E13" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="82" t="n">
+        <f aca="false">Netzplan!J13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="83" t="n">
         <f aca="false">SUM(I13:BJ13)</f>
-        <v>20</v>
-      </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="94"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="90"/>
-      <c r="BD13" s="90"/>
-      <c r="BE13" s="90"/>
-      <c r="BF13" s="90"/>
-      <c r="BG13" s="90"/>
-      <c r="BH13" s="90"/>
-      <c r="BI13" s="90"/>
-      <c r="BJ13" s="93"/>
-      <c r="BK13" s="80"/>
-      <c r="BL13" s="81"/>
-      <c r="BM13" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="91"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="90"/>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="89"/>
+      <c r="BF13" s="89"/>
+      <c r="BG13" s="89"/>
+      <c r="BH13" s="89"/>
+      <c r="BI13" s="89"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="79"/>
+      <c r="BL13" s="80"/>
+      <c r="BM13" s="81"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="83" t="n">
-        <f aca="false">Netzplan!J13</f>
+      <c r="E14" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="82" t="n">
+        <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="84" t="n">
+      <c r="H14" s="83" t="n">
         <f aca="false">SUM(I14:BJ14)</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="92"/>
-      <c r="AO14" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AW14" s="90"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="90"/>
-      <c r="BA14" s="90"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="90"/>
-      <c r="BD14" s="90"/>
-      <c r="BE14" s="90"/>
-      <c r="BF14" s="90"/>
-      <c r="BG14" s="90"/>
-      <c r="BH14" s="90"/>
-      <c r="BI14" s="90"/>
-      <c r="BJ14" s="93"/>
-      <c r="BK14" s="80"/>
-      <c r="BL14" s="81"/>
-      <c r="BM14" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="95"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="89"/>
+      <c r="AQ14" s="89"/>
+      <c r="AR14" s="89"/>
+      <c r="AS14" s="89"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="89"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="89"/>
+      <c r="AY14" s="89"/>
+      <c r="AZ14" s="89"/>
+      <c r="BA14" s="89"/>
+      <c r="BB14" s="90"/>
+      <c r="BC14" s="89"/>
+      <c r="BD14" s="89"/>
+      <c r="BE14" s="89"/>
+      <c r="BF14" s="89"/>
+      <c r="BG14" s="89"/>
+      <c r="BH14" s="89"/>
+      <c r="BI14" s="89"/>
+      <c r="BJ14" s="92"/>
+      <c r="BK14" s="79"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="81"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="83" t="n">
-        <f aca="false">Netzplan!J14</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="84" t="n">
+      <c r="E15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="82" t="n">
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="83" t="n">
         <f aca="false">SUM(I15:BJ15)</f>
-        <v>2</v>
-      </c>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="97"/>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="90"/>
-      <c r="BA15" s="90"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="90"/>
-      <c r="BD15" s="90"/>
-      <c r="BE15" s="90"/>
-      <c r="BF15" s="90"/>
-      <c r="BG15" s="90"/>
-      <c r="BH15" s="90"/>
-      <c r="BI15" s="90"/>
-      <c r="BJ15" s="93"/>
-      <c r="BK15" s="80"/>
-      <c r="BL15" s="81"/>
-      <c r="BM15" s="82"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="95"/>
+      <c r="AP15" s="89"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="89"/>
+      <c r="AS15" s="92"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="89"/>
+      <c r="AY15" s="89"/>
+      <c r="AZ15" s="89"/>
+      <c r="BA15" s="89"/>
+      <c r="BB15" s="90"/>
+      <c r="BC15" s="89"/>
+      <c r="BD15" s="89"/>
+      <c r="BE15" s="89"/>
+      <c r="BF15" s="89"/>
+      <c r="BG15" s="89"/>
+      <c r="BH15" s="89"/>
+      <c r="BI15" s="89"/>
+      <c r="BJ15" s="92"/>
+      <c r="BK15" s="79"/>
+      <c r="BL15" s="80"/>
+      <c r="BM15" s="81"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="83" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="84" t="n">
-        <f aca="false">SUM(I16:BJ16)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="97"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="93"/>
-      <c r="AV16" s="90"/>
-      <c r="AW16" s="90"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="90"/>
-      <c r="BA16" s="90"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="90"/>
-      <c r="BD16" s="90"/>
-      <c r="BE16" s="90"/>
-      <c r="BF16" s="90"/>
-      <c r="BG16" s="90"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="90"/>
-      <c r="BJ16" s="93"/>
-      <c r="BK16" s="80"/>
-      <c r="BL16" s="81"/>
-      <c r="BM16" s="82"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="70" t="s">
+      <c r="E16" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="83" t="n">
+      <c r="G16" s="82" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="H17" s="84" t="n">
-        <f aca="false">SUM(I17:BJ17)</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="90"/>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="90"/>
-      <c r="BE17" s="90"/>
-      <c r="BF17" s="90"/>
-      <c r="BG17" s="90"/>
-      <c r="BH17" s="90"/>
-      <c r="BI17" s="90"/>
-      <c r="BJ17" s="93"/>
-      <c r="BK17" s="80"/>
-      <c r="BL17" s="81"/>
-      <c r="BM17" s="82"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="H16" s="83" t="n">
+        <f aca="false">SUM(I16:BJ16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="89"/>
+      <c r="AQ16" s="89"/>
+      <c r="AR16" s="89"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="89"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="89"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="89"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="90"/>
+      <c r="BC16" s="89"/>
+      <c r="BD16" s="89"/>
+      <c r="BE16" s="89"/>
+      <c r="BF16" s="89"/>
+      <c r="BG16" s="89"/>
+      <c r="BH16" s="89"/>
+      <c r="BI16" s="89"/>
+      <c r="BJ16" s="92"/>
+      <c r="BK16" s="79"/>
+      <c r="BL16" s="80"/>
+      <c r="BM16" s="81"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="73" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="83" t="n">
+      <c r="F17" s="73"/>
+      <c r="G17" s="82" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="H18" s="84" t="n">
-        <f aca="false">SUM(I18:BJ18)</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="98"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="98"/>
-      <c r="AR18" s="98"/>
-      <c r="AS18" s="98"/>
-      <c r="AT18" s="98"/>
-      <c r="AU18" s="98"/>
-      <c r="AV18" s="98"/>
-      <c r="AW18" s="98"/>
-      <c r="AX18" s="98"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="100"/>
-      <c r="BB18" s="99"/>
-      <c r="BC18" s="98"/>
-      <c r="BD18" s="98"/>
-      <c r="BE18" s="98"/>
-      <c r="BF18" s="98" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG18" s="98"/>
-      <c r="BH18" s="98"/>
-      <c r="BI18" s="98"/>
-      <c r="BJ18" s="101"/>
-      <c r="BK18" s="80"/>
-      <c r="BL18" s="81"/>
-      <c r="BM18" s="82"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="H17" s="83" t="n">
+        <f aca="false">SUM(I17:BJ17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="96"/>
+      <c r="AR17" s="96"/>
+      <c r="AS17" s="96"/>
+      <c r="AT17" s="96"/>
+      <c r="AU17" s="96"/>
+      <c r="AV17" s="96"/>
+      <c r="AW17" s="96"/>
+      <c r="AX17" s="96"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="98"/>
+      <c r="BB17" s="97"/>
+      <c r="BC17" s="96"/>
+      <c r="BD17" s="96"/>
+      <c r="BE17" s="96"/>
+      <c r="BF17" s="96"/>
+      <c r="BG17" s="96"/>
+      <c r="BH17" s="96"/>
+      <c r="BI17" s="96"/>
+      <c r="BJ17" s="99"/>
+      <c r="BK17" s="79"/>
+      <c r="BL17" s="80"/>
+      <c r="BM17" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -9266,7 +8934,7 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
@@ -9275,20 +8943,18 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:BF9 I11:AC13 I17:BF17 I15:AJ16 I1:I10 J1:BJ1 AD13:BF13 I10:AD10 AH10:BF12 I14:AG14 AU14:BF15 AI14:AK14 AO14:AQ15 AR14:AT15 AP16:AS16 AV16:BF16 I18:AZ18 BB18:BF18">
+  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 I1:I9 J1:BJ1 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H18">
+  <conditionalFormatting sqref="H2:H17">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(H2&lt;&gt;G2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BF9 I11:AC13 I17:BF17 I15:AJ16 AD13:BF13 I10:AD10 AH10:BF12 I14:AG14 AU14:BF15 AI14:AK14 AO14:AQ15 AR14:AT15 AP16:AS16 AV16:BF16 I18:AZ18 BB18:BF18">
+  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>1</formula>
     </cfRule>
@@ -9300,6 +8966,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Übungen/1_Online_Shop.Projekt.xlsx
+++ b/Übungen/1_Online_Shop.Projekt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="113">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -429,6 +429,9 @@
       </rPr>
       <t xml:space="preserve"> FEZ</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorarbeiten fertig</t>
   </si>
 </sst>
 </file>
@@ -1149,6 +1152,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1159,10 +1166,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3263,6 +3266,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>73800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>209160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Form 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10249560" y="1659240"/>
+          <a:ext cx="135360" cy="174240"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -3270,8 +3322,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="I1:BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3817,8 +3869,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="I1:BJ13 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4226,8 +4278,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="I1:BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4787,10 +4839,10 @@
   </sheetPr>
   <dimension ref="A1:BQ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="0" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topRight" activeCell="AE1" activeCellId="0" sqref="I1:BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -7451,12 +7503,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AG18" activeCellId="0" sqref="AG18"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1:BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -7676,17 +7728,27 @@
       </c>
       <c r="H2" s="83" t="n">
         <f aca="false">SUM(I2:BJ2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="84" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" s="85"/>
       <c r="N2" s="86"/>
       <c r="O2" s="86"/>
       <c r="P2" s="87"/>
-      <c r="Q2" s="86"/>
+      <c r="Q2" s="86" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" s="86"/>
       <c r="S2" s="86"/>
       <c r="T2" s="86"/>
@@ -7757,7 +7819,7 @@
       </c>
       <c r="H3" s="83" t="n">
         <f aca="false">SUM(I3:BJ3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="89"/>
       <c r="J3" s="89"/>
@@ -7768,7 +7830,9 @@
       <c r="O3" s="89"/>
       <c r="P3" s="91"/>
       <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
+      <c r="R3" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="S3" s="89"/>
       <c r="T3" s="89"/>
       <c r="U3" s="89"/>
@@ -7838,7 +7902,7 @@
       </c>
       <c r="H4" s="83" t="n">
         <f aca="false">SUM(I4:BJ4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="89"/>
       <c r="J4" s="89"/>
@@ -7850,12 +7914,20 @@
       <c r="P4" s="90"/>
       <c r="Q4" s="93"/>
       <c r="R4" s="93"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="93"/>
+      <c r="S4" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="U4" s="89"/>
       <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
+      <c r="W4" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="Y4" s="89"/>
       <c r="Z4" s="89"/>
       <c r="AA4" s="89"/>
@@ -7919,7 +7991,7 @@
       </c>
       <c r="H5" s="83" t="n">
         <f aca="false">SUM(I5:BJ5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="89"/>
       <c r="J5" s="89"/>
@@ -7931,11 +8003,17 @@
       <c r="P5" s="90"/>
       <c r="Q5" s="93"/>
       <c r="R5" s="93"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="89"/>
+      <c r="S5" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
+      <c r="W5" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="X5" s="89"/>
       <c r="Y5" s="89"/>
       <c r="Z5" s="89"/>
@@ -8000,7 +8078,7 @@
       </c>
       <c r="H6" s="83" t="n">
         <f aca="false">SUM(I6:BJ6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="89"/>
       <c r="J6" s="89"/>
@@ -8017,13 +8095,23 @@
       <c r="U6" s="89"/>
       <c r="V6" s="89"/>
       <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="94"/>
+      <c r="X6" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="94" t="n">
+        <v>1</v>
+      </c>
       <c r="AB6" s="89"/>
       <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
+      <c r="AD6" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" s="89"/>
       <c r="AF6" s="89"/>
       <c r="AG6" s="89"/>
@@ -8081,7 +8169,7 @@
       </c>
       <c r="H7" s="83" t="n">
         <f aca="false">SUM(I7:BJ7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
@@ -8092,7 +8180,9 @@
       <c r="O7" s="89"/>
       <c r="P7" s="91"/>
       <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="R7" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" s="89"/>
       <c r="T7" s="89"/>
       <c r="U7" s="89"/>
@@ -8162,7 +8252,7 @@
       </c>
       <c r="H8" s="83" t="n">
         <f aca="false">SUM(I8:BJ8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
@@ -8174,11 +8264,17 @@
       <c r="P8" s="90"/>
       <c r="Q8" s="93"/>
       <c r="R8" s="93"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="89"/>
+      <c r="S8" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="U8" s="89"/>
       <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
+      <c r="W8" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="X8" s="89"/>
       <c r="Y8" s="89"/>
       <c r="Z8" s="89"/>
@@ -8223,28 +8319,16 @@
       <c r="BM8" s="81"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="82" t="n">
-        <f aca="false">Netzplan!J9</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="83" t="n">
-        <f aca="false">SUM(I9:BJ9)</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
@@ -8253,20 +8337,23 @@
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
       <c r="P9" s="90"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="94"/>
       <c r="T9" s="89"/>
       <c r="U9" s="89"/>
       <c r="V9" s="89"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="92"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
       <c r="AB9" s="89"/>
       <c r="AC9" s="89"/>
-      <c r="AD9" s="93"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
       <c r="AH9" s="89"/>
       <c r="AI9" s="89"/>
       <c r="AJ9" s="89"/>
@@ -8302,26 +8389,26 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="69" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="82" t="n">
-        <f aca="false">Netzplan!J10</f>
+        <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
       <c r="H10" s="83" t="n">
         <f aca="false">SUM(I10:BJ10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="89"/>
       <c r="J10" s="89"/>
@@ -8337,18 +8424,24 @@
       <c r="T10" s="89"/>
       <c r="U10" s="89"/>
       <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="92"/>
       <c r="AB10" s="89"/>
       <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
       <c r="AK10" s="90"/>
-      <c r="AL10" s="92"/>
+      <c r="AL10" s="89"/>
       <c r="AM10" s="89"/>
       <c r="AN10" s="89"/>
       <c r="AO10" s="89"/>
@@ -8379,26 +8472,26 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G11" s="82" t="n">
-        <f aca="false">Netzplan!J11</f>
+        <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
       <c r="H11" s="83" t="n">
         <f aca="false">SUM(I11:BJ11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
@@ -8421,13 +8514,19 @@
       <c r="AA11" s="89"/>
       <c r="AB11" s="89"/>
       <c r="AC11" s="89"/>
-      <c r="AH11" s="93"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="AI11" s="89"/>
       <c r="AJ11" s="89"/>
       <c r="AK11" s="90"/>
       <c r="AL11" s="92"/>
       <c r="AM11" s="89"/>
-      <c r="AN11" s="93"/>
+      <c r="AN11" s="89"/>
       <c r="AO11" s="89"/>
       <c r="AP11" s="89"/>
       <c r="AQ11" s="89"/>
@@ -8456,26 +8555,26 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="69" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G12" s="82" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
       </c>
       <c r="H12" s="83" t="n">
         <f aca="false">SUM(I12:BJ12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="89"/>
       <c r="J12" s="89"/>
@@ -8488,41 +8587,43 @@
       <c r="Q12" s="89"/>
       <c r="R12" s="89"/>
       <c r="S12" s="89"/>
-      <c r="T12" s="93"/>
+      <c r="T12" s="89"/>
       <c r="U12" s="89"/>
       <c r="V12" s="89"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="94"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
       <c r="AB12" s="89"/>
       <c r="AC12" s="89"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="94"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
       <c r="AH12" s="93"/>
       <c r="AI12" s="89"/>
       <c r="AJ12" s="89"/>
-      <c r="AK12" s="91"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="89"/>
       <c r="AN12" s="93"/>
-      <c r="AO12" s="93"/>
+      <c r="AO12" s="89"/>
       <c r="AP12" s="89"/>
       <c r="AQ12" s="89"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="93"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
       <c r="AW12" s="89"/>
       <c r="AX12" s="89"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="91"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="90"/>
       <c r="BC12" s="89"/>
       <c r="BD12" s="89"/>
       <c r="BE12" s="89"/>
@@ -8537,26 +8638,26 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="69" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="82" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>2</v>
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
       </c>
       <c r="H13" s="83" t="n">
         <f aca="false">SUM(I13:BJ13)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="89"/>
       <c r="J13" s="89"/>
@@ -8569,37 +8670,81 @@
       <c r="Q13" s="89"/>
       <c r="R13" s="89"/>
       <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
+      <c r="T13" s="93"/>
       <c r="U13" s="89"/>
       <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="94" t="n">
+        <v>1</v>
+      </c>
       <c r="AB13" s="89"/>
       <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="89"/>
+      <c r="AD13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
       <c r="AK13" s="91"/>
-      <c r="AO13" s="89"/>
+      <c r="AL13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="AP13" s="89"/>
       <c r="AQ13" s="89"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
+      <c r="AR13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="AW13" s="89"/>
       <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="89"/>
-      <c r="BA13" s="89"/>
-      <c r="BB13" s="90"/>
+      <c r="AY13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="93"/>
+      <c r="BB13" s="91"/>
       <c r="BC13" s="89"/>
       <c r="BD13" s="89"/>
       <c r="BE13" s="89"/>
@@ -8614,26 +8759,26 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="69" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G14" s="82" t="n">
-        <f aca="false">Netzplan!J14</f>
+        <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
       <c r="H14" s="83" t="n">
         <f aca="false">SUM(I14:BJ14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="89"/>
       <c r="J14" s="89"/>
@@ -8658,13 +8803,20 @@
       <c r="AC14" s="89"/>
       <c r="AD14" s="89"/>
       <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
+      <c r="AF14" s="92"/>
       <c r="AG14" s="89"/>
-      <c r="AH14" s="92"/>
+      <c r="AH14" s="89"/>
       <c r="AI14" s="89"/>
       <c r="AJ14" s="89"/>
-      <c r="AK14" s="95"/>
-      <c r="AO14" s="93"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="89"/>
       <c r="AP14" s="89"/>
       <c r="AQ14" s="89"/>
       <c r="AR14" s="89"/>
@@ -8692,26 +8844,26 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="69" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G15" s="82" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
       </c>
       <c r="H15" s="83" t="n">
         <f aca="false">SUM(I15:BJ15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="89"/>
       <c r="J15" s="89"/>
@@ -8738,14 +8890,28 @@
       <c r="AE15" s="89"/>
       <c r="AF15" s="89"/>
       <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
+      <c r="AH15" s="92"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="95"/>
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="AP15" s="89"/>
       <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="92"/>
+      <c r="AR15" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
       <c r="AV15" s="89"/>
       <c r="AW15" s="89"/>
       <c r="AX15" s="89"/>
@@ -8767,26 +8933,26 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="69" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="82" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>3</v>
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
       </c>
       <c r="H16" s="83" t="n">
         <f aca="false">SUM(I16:BJ16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="89"/>
       <c r="J16" s="89"/>
@@ -8816,17 +8982,21 @@
       <c r="AH16" s="89"/>
       <c r="AI16" s="89"/>
       <c r="AJ16" s="89"/>
-      <c r="AK16" s="90"/>
+      <c r="AK16" s="96"/>
       <c r="AL16" s="89"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="92"/>
-      <c r="AO16" s="92"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="89"/>
+      <c r="AO16" s="89" t="s">
+        <v>0</v>
+      </c>
       <c r="AP16" s="89"/>
       <c r="AQ16" s="89"/>
       <c r="AR16" s="89"/>
-      <c r="AS16" s="92"/>
+      <c r="AS16" s="89" t="n">
+        <v>1</v>
+      </c>
       <c r="AT16" s="89"/>
-      <c r="AU16" s="93"/>
+      <c r="AU16" s="89"/>
       <c r="AV16" s="89"/>
       <c r="AW16" s="89"/>
       <c r="AX16" s="89"/>
@@ -8847,85 +9017,175 @@
       <c r="BM16" s="81"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="73"/>
       <c r="G17" s="82" t="n">
-        <f aca="false">Netzplan!J17</f>
-        <v>1</v>
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
       </c>
       <c r="H17" s="83" t="n">
         <f aca="false">SUM(I17:BJ17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="96"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="97"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
-      <c r="AR17" s="96"/>
-      <c r="AS17" s="96"/>
-      <c r="AT17" s="96"/>
-      <c r="AU17" s="96"/>
-      <c r="AV17" s="96"/>
-      <c r="AW17" s="96"/>
-      <c r="AX17" s="96"/>
-      <c r="AY17" s="98"/>
-      <c r="AZ17" s="98"/>
-      <c r="BB17" s="97"/>
-      <c r="BC17" s="96"/>
-      <c r="BD17" s="96"/>
-      <c r="BE17" s="96"/>
-      <c r="BF17" s="96"/>
-      <c r="BG17" s="96"/>
-      <c r="BH17" s="96"/>
-      <c r="BI17" s="96"/>
-      <c r="BJ17" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="89"/>
+      <c r="AO17" s="89"/>
+      <c r="AP17" s="89"/>
+      <c r="AQ17" s="89"/>
+      <c r="AR17" s="89"/>
+      <c r="AS17" s="89"/>
+      <c r="AT17" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="89"/>
+      <c r="AX17" s="89"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="90"/>
+      <c r="BC17" s="89"/>
+      <c r="BD17" s="89"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="89"/>
+      <c r="BG17" s="89"/>
+      <c r="BH17" s="89"/>
+      <c r="BI17" s="89"/>
+      <c r="BJ17" s="92"/>
       <c r="BK17" s="79"/>
       <c r="BL17" s="80"/>
       <c r="BM17" s="81"/>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="82" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="83" t="n">
+        <f aca="false">SUM(I18:BJ18)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="89"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="97"/>
+      <c r="AR18" s="89"/>
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="89"/>
+      <c r="AV18" s="89"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="97"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="98"/>
+      <c r="BC18" s="97"/>
+      <c r="BD18" s="97"/>
+      <c r="BE18" s="97"/>
+      <c r="BF18" s="97"/>
+      <c r="BG18" s="97"/>
+      <c r="BH18" s="97"/>
+      <c r="BI18" s="97"/>
+      <c r="BJ18" s="99"/>
+      <c r="BK18" s="79"/>
+      <c r="BL18" s="80"/>
+      <c r="BM18" s="81"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -8934,7 +9194,7 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
@@ -8943,18 +9203,19 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 I1:I9 J1:BJ1 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
+  <conditionalFormatting sqref="I2:BF13 I15:AJ16 I1:I10 J1:BJ1 I14:AO14 AL15:AL16 AM15:AO15 AP14:BF15 I17:BF18 AM16:BF16">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H18">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(H2&lt;&gt;G2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:BF8 I10:AC12 I16:BF16 I14:AJ15 AD12:BF12 I9:AD9 AH9:BF11 I13:AG13 AI13:AK13 AO13:BF14 AP15:AS15 AV15:BF15 I17:AZ17 BB17:BF17">
+  <conditionalFormatting sqref="I2:BF13 I15:AJ16 I14:AO14 AL15:AL16 AM15:AO15 AP14:BF15 I17:BF18 AM16:BF16">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>1</formula>
     </cfRule>
@@ -8966,5 +9227,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>